--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C4EBAD-9242-4333-8678-9EBC722776E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3A1C6-3B74-444D-895B-C5236F8C9ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="485">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1344,990 +1344,6 @@
     <t>DSS1367</t>
   </si>
   <si>
-    <t>DSS1368</t>
-  </si>
-  <si>
-    <t>DSS1369</t>
-  </si>
-  <si>
-    <t>DSS1370</t>
-  </si>
-  <si>
-    <t>DSS1371</t>
-  </si>
-  <si>
-    <t>DSS1372</t>
-  </si>
-  <si>
-    <t>DSS1373</t>
-  </si>
-  <si>
-    <t>DSS1374</t>
-  </si>
-  <si>
-    <t>DSS1375</t>
-  </si>
-  <si>
-    <t>DSS1376</t>
-  </si>
-  <si>
-    <t>DSS1377</t>
-  </si>
-  <si>
-    <t>DSS1378</t>
-  </si>
-  <si>
-    <t>DSS1379</t>
-  </si>
-  <si>
-    <t>DSS1380</t>
-  </si>
-  <si>
-    <t>DSS1381</t>
-  </si>
-  <si>
-    <t>DSS1382</t>
-  </si>
-  <si>
-    <t>DSS1383</t>
-  </si>
-  <si>
-    <t>DSS1384</t>
-  </si>
-  <si>
-    <t>DSS1385</t>
-  </si>
-  <si>
-    <t>DSS1386</t>
-  </si>
-  <si>
-    <t>DSS1387</t>
-  </si>
-  <si>
-    <t>DSS1388</t>
-  </si>
-  <si>
-    <t>DSS1389</t>
-  </si>
-  <si>
-    <t>DSS1390</t>
-  </si>
-  <si>
-    <t>DSS1391</t>
-  </si>
-  <si>
-    <t>DSS1392</t>
-  </si>
-  <si>
-    <t>DSS1393</t>
-  </si>
-  <si>
-    <t>DSS1394</t>
-  </si>
-  <si>
-    <t>DSS1395</t>
-  </si>
-  <si>
-    <t>DSS1396</t>
-  </si>
-  <si>
-    <t>DSS1397</t>
-  </si>
-  <si>
-    <t>DSS1398</t>
-  </si>
-  <si>
-    <t>DSS1399</t>
-  </si>
-  <si>
-    <t>DSS1400</t>
-  </si>
-  <si>
-    <t>DSS1401</t>
-  </si>
-  <si>
-    <t>DSS1402</t>
-  </si>
-  <si>
-    <t>DSS1403</t>
-  </si>
-  <si>
-    <t>DSS1404</t>
-  </si>
-  <si>
-    <t>DSS1405</t>
-  </si>
-  <si>
-    <t>DSS1406</t>
-  </si>
-  <si>
-    <t>DSS1407</t>
-  </si>
-  <si>
-    <t>DSS1408</t>
-  </si>
-  <si>
-    <t>DSS1409</t>
-  </si>
-  <si>
-    <t>DSS1410</t>
-  </si>
-  <si>
-    <t>DSS1411</t>
-  </si>
-  <si>
-    <t>DSS1412</t>
-  </si>
-  <si>
-    <t>DSS1413</t>
-  </si>
-  <si>
-    <t>DSS1414</t>
-  </si>
-  <si>
-    <t>DSS1415</t>
-  </si>
-  <si>
-    <t>DSS1416</t>
-  </si>
-  <si>
-    <t>DSS1417</t>
-  </si>
-  <si>
-    <t>DSS1418</t>
-  </si>
-  <si>
-    <t>DSS1419</t>
-  </si>
-  <si>
-    <t>DSS1420</t>
-  </si>
-  <si>
-    <t>DSS1421</t>
-  </si>
-  <si>
-    <t>DSS1422</t>
-  </si>
-  <si>
-    <t>DSS1423</t>
-  </si>
-  <si>
-    <t>DSS1424</t>
-  </si>
-  <si>
-    <t>DSS1425</t>
-  </si>
-  <si>
-    <t>DSS1426</t>
-  </si>
-  <si>
-    <t>DSS1427</t>
-  </si>
-  <si>
-    <t>DSS1428</t>
-  </si>
-  <si>
-    <t>DSS1429</t>
-  </si>
-  <si>
-    <t>DSS1430</t>
-  </si>
-  <si>
-    <t>DSS1431</t>
-  </si>
-  <si>
-    <t>DSS1432</t>
-  </si>
-  <si>
-    <t>DSS1433</t>
-  </si>
-  <si>
-    <t>DSS1434</t>
-  </si>
-  <si>
-    <t>DSS1435</t>
-  </si>
-  <si>
-    <t>DSS1436</t>
-  </si>
-  <si>
-    <t>DSS1437</t>
-  </si>
-  <si>
-    <t>DSS1438</t>
-  </si>
-  <si>
-    <t>DSS1439</t>
-  </si>
-  <si>
-    <t>DSS1440</t>
-  </si>
-  <si>
-    <t>DSS1441</t>
-  </si>
-  <si>
-    <t>DSS1442</t>
-  </si>
-  <si>
-    <t>DSS1443</t>
-  </si>
-  <si>
-    <t>DSS1444</t>
-  </si>
-  <si>
-    <t>DSS1445</t>
-  </si>
-  <si>
-    <t>DSS1446</t>
-  </si>
-  <si>
-    <t>DSS1447</t>
-  </si>
-  <si>
-    <t>DSS1448</t>
-  </si>
-  <si>
-    <t>DSS1449</t>
-  </si>
-  <si>
-    <t>DSS1450</t>
-  </si>
-  <si>
-    <t>DSS1451</t>
-  </si>
-  <si>
-    <t>DSS1452</t>
-  </si>
-  <si>
-    <t>DSS1453</t>
-  </si>
-  <si>
-    <t>DSS1454</t>
-  </si>
-  <si>
-    <t>DSS1455</t>
-  </si>
-  <si>
-    <t>DSS1456</t>
-  </si>
-  <si>
-    <t>DSS1457</t>
-  </si>
-  <si>
-    <t>DSS1458</t>
-  </si>
-  <si>
-    <t>DSS1459</t>
-  </si>
-  <si>
-    <t>DSS1460</t>
-  </si>
-  <si>
-    <t>DSS1461</t>
-  </si>
-  <si>
-    <t>DSS1462</t>
-  </si>
-  <si>
-    <t>DSS1463</t>
-  </si>
-  <si>
-    <t>DSS1464</t>
-  </si>
-  <si>
-    <t>DSS1465</t>
-  </si>
-  <si>
-    <t>DSS1466</t>
-  </si>
-  <si>
-    <t>DSS1467</t>
-  </si>
-  <si>
-    <t>DSS1468</t>
-  </si>
-  <si>
-    <t>DSS1469</t>
-  </si>
-  <si>
-    <t>DSS1470</t>
-  </si>
-  <si>
-    <t>DSS1471</t>
-  </si>
-  <si>
-    <t>DSS1472</t>
-  </si>
-  <si>
-    <t>DSS1473</t>
-  </si>
-  <si>
-    <t>DSS1474</t>
-  </si>
-  <si>
-    <t>DSS1475</t>
-  </si>
-  <si>
-    <t>DSS1476</t>
-  </si>
-  <si>
-    <t>DSS1477</t>
-  </si>
-  <si>
-    <t>DSS1478</t>
-  </si>
-  <si>
-    <t>DSS1479</t>
-  </si>
-  <si>
-    <t>DSS1480</t>
-  </si>
-  <si>
-    <t>DSS1481</t>
-  </si>
-  <si>
-    <t>DSS1482</t>
-  </si>
-  <si>
-    <t>DSS1483</t>
-  </si>
-  <si>
-    <t>DSS1484</t>
-  </si>
-  <si>
-    <t>DSS1485</t>
-  </si>
-  <si>
-    <t>DSS1486</t>
-  </si>
-  <si>
-    <t>DSS1487</t>
-  </si>
-  <si>
-    <t>DSS1488</t>
-  </si>
-  <si>
-    <t>DSS1489</t>
-  </si>
-  <si>
-    <t>DSS1490</t>
-  </si>
-  <si>
-    <t>DSS1491</t>
-  </si>
-  <si>
-    <t>DSS1492</t>
-  </si>
-  <si>
-    <t>DSS1493</t>
-  </si>
-  <si>
-    <t>DSS1494</t>
-  </si>
-  <si>
-    <t>DSS1495</t>
-  </si>
-  <si>
-    <t>DSS1496</t>
-  </si>
-  <si>
-    <t>DSS1497</t>
-  </si>
-  <si>
-    <t>DSS1498</t>
-  </si>
-  <si>
-    <t>DSS1499</t>
-  </si>
-  <si>
-    <t>DSS1500</t>
-  </si>
-  <si>
-    <t>DSS1501</t>
-  </si>
-  <si>
-    <t>DSS1502</t>
-  </si>
-  <si>
-    <t>DSS1503</t>
-  </si>
-  <si>
-    <t>DSS1504</t>
-  </si>
-  <si>
-    <t>DSS1505</t>
-  </si>
-  <si>
-    <t>DSS1506</t>
-  </si>
-  <si>
-    <t>DSS1507</t>
-  </si>
-  <si>
-    <t>DSS1508</t>
-  </si>
-  <si>
-    <t>DSS1509</t>
-  </si>
-  <si>
-    <t>DSS1510</t>
-  </si>
-  <si>
-    <t>DSS1511</t>
-  </si>
-  <si>
-    <t>DSS1512</t>
-  </si>
-  <si>
-    <t>DSS1513</t>
-  </si>
-  <si>
-    <t>DSS1514</t>
-  </si>
-  <si>
-    <t>DSS1515</t>
-  </si>
-  <si>
-    <t>DSS1516</t>
-  </si>
-  <si>
-    <t>DSS1517</t>
-  </si>
-  <si>
-    <t>DSS1518</t>
-  </si>
-  <si>
-    <t>DSS1519</t>
-  </si>
-  <si>
-    <t>DSS1520</t>
-  </si>
-  <si>
-    <t>DSS1521</t>
-  </si>
-  <si>
-    <t>DSS1522</t>
-  </si>
-  <si>
-    <t>DSS1523</t>
-  </si>
-  <si>
-    <t>DSS1524</t>
-  </si>
-  <si>
-    <t>DSS1525</t>
-  </si>
-  <si>
-    <t>DSS1526</t>
-  </si>
-  <si>
-    <t>DSS1527</t>
-  </si>
-  <si>
-    <t>DSS1528</t>
-  </si>
-  <si>
-    <t>DSS1529</t>
-  </si>
-  <si>
-    <t>DSS1530</t>
-  </si>
-  <si>
-    <t>DSS1531</t>
-  </si>
-  <si>
-    <t>DSS1532</t>
-  </si>
-  <si>
-    <t>DSS1533</t>
-  </si>
-  <si>
-    <t>DSS1534</t>
-  </si>
-  <si>
-    <t>DSS1535</t>
-  </si>
-  <si>
-    <t>DSS1536</t>
-  </si>
-  <si>
-    <t>DSS1537</t>
-  </si>
-  <si>
-    <t>DSS1538</t>
-  </si>
-  <si>
-    <t>DSS1539</t>
-  </si>
-  <si>
-    <t>DSS1540</t>
-  </si>
-  <si>
-    <t>DSS1541</t>
-  </si>
-  <si>
-    <t>DSS1542</t>
-  </si>
-  <si>
-    <t>DSS1543</t>
-  </si>
-  <si>
-    <t>DSS1544</t>
-  </si>
-  <si>
-    <t>DSS1545</t>
-  </si>
-  <si>
-    <t>DSS1546</t>
-  </si>
-  <si>
-    <t>DSS1547</t>
-  </si>
-  <si>
-    <t>DSS1548</t>
-  </si>
-  <si>
-    <t>DSS1549</t>
-  </si>
-  <si>
-    <t>DSS1550</t>
-  </si>
-  <si>
-    <t>DSS1551</t>
-  </si>
-  <si>
-    <t>DSS1552</t>
-  </si>
-  <si>
-    <t>DSS1553</t>
-  </si>
-  <si>
-    <t>DSS1554</t>
-  </si>
-  <si>
-    <t>DSS1555</t>
-  </si>
-  <si>
-    <t>DSS1556</t>
-  </si>
-  <si>
-    <t>DSS1557</t>
-  </si>
-  <si>
-    <t>DSS1558</t>
-  </si>
-  <si>
-    <t>DSS1559</t>
-  </si>
-  <si>
-    <t>DSS1560</t>
-  </si>
-  <si>
-    <t>DSS1561</t>
-  </si>
-  <si>
-    <t>DSS1562</t>
-  </si>
-  <si>
-    <t>DSS1563</t>
-  </si>
-  <si>
-    <t>DSS1564</t>
-  </si>
-  <si>
-    <t>DSS1565</t>
-  </si>
-  <si>
-    <t>DSS1566</t>
-  </si>
-  <si>
-    <t>DSS1567</t>
-  </si>
-  <si>
-    <t>DSS1568</t>
-  </si>
-  <si>
-    <t>DSS1569</t>
-  </si>
-  <si>
-    <t>DSS1570</t>
-  </si>
-  <si>
-    <t>DSS1571</t>
-  </si>
-  <si>
-    <t>DSS1572</t>
-  </si>
-  <si>
-    <t>DSS1573</t>
-  </si>
-  <si>
-    <t>DSS1574</t>
-  </si>
-  <si>
-    <t>DSS1575</t>
-  </si>
-  <si>
-    <t>DSS1576</t>
-  </si>
-  <si>
-    <t>DSS1577</t>
-  </si>
-  <si>
-    <t>DSS1578</t>
-  </si>
-  <si>
-    <t>DSS1579</t>
-  </si>
-  <si>
-    <t>DSS1580</t>
-  </si>
-  <si>
-    <t>DSS1581</t>
-  </si>
-  <si>
-    <t>DSS1582</t>
-  </si>
-  <si>
-    <t>DSS1583</t>
-  </si>
-  <si>
-    <t>DSS1584</t>
-  </si>
-  <si>
-    <t>DSS1585</t>
-  </si>
-  <si>
-    <t>DSS1586</t>
-  </si>
-  <si>
-    <t>DSS1587</t>
-  </si>
-  <si>
-    <t>DSS1588</t>
-  </si>
-  <si>
-    <t>DSS1589</t>
-  </si>
-  <si>
-    <t>DSS1590</t>
-  </si>
-  <si>
-    <t>DSS1591</t>
-  </si>
-  <si>
-    <t>DSS1592</t>
-  </si>
-  <si>
-    <t>DSS1593</t>
-  </si>
-  <si>
-    <t>DSS1594</t>
-  </si>
-  <si>
-    <t>DSS1595</t>
-  </si>
-  <si>
-    <t>DSS1596</t>
-  </si>
-  <si>
-    <t>DSS1597</t>
-  </si>
-  <si>
-    <t>DSS1598</t>
-  </si>
-  <si>
-    <t>DSS1599</t>
-  </si>
-  <si>
-    <t>DSS1600</t>
-  </si>
-  <si>
-    <t>DSS1601</t>
-  </si>
-  <si>
-    <t>DSS1602</t>
-  </si>
-  <si>
-    <t>DSS1603</t>
-  </si>
-  <si>
-    <t>DSS1604</t>
-  </si>
-  <si>
-    <t>DSS1605</t>
-  </si>
-  <si>
-    <t>DSS1606</t>
-  </si>
-  <si>
-    <t>DSS1607</t>
-  </si>
-  <si>
-    <t>DSS1608</t>
-  </si>
-  <si>
-    <t>DSS1609</t>
-  </si>
-  <si>
-    <t>DSS1610</t>
-  </si>
-  <si>
-    <t>DSS1611</t>
-  </si>
-  <si>
-    <t>DSS1612</t>
-  </si>
-  <si>
-    <t>DSS1613</t>
-  </si>
-  <si>
-    <t>DSS1614</t>
-  </si>
-  <si>
-    <t>DSS1615</t>
-  </si>
-  <si>
-    <t>DSS1616</t>
-  </si>
-  <si>
-    <t>DSS1617</t>
-  </si>
-  <si>
-    <t>DSS1618</t>
-  </si>
-  <si>
-    <t>DSS1619</t>
-  </si>
-  <si>
-    <t>DSS1620</t>
-  </si>
-  <si>
-    <t>DSS1621</t>
-  </si>
-  <si>
-    <t>DSS1622</t>
-  </si>
-  <si>
-    <t>DSS1623</t>
-  </si>
-  <si>
-    <t>DSS1624</t>
-  </si>
-  <si>
-    <t>DSS1625</t>
-  </si>
-  <si>
-    <t>DSS1626</t>
-  </si>
-  <si>
-    <t>DSS1627</t>
-  </si>
-  <si>
-    <t>DSS1628</t>
-  </si>
-  <si>
-    <t>DSS1629</t>
-  </si>
-  <si>
-    <t>DSS1630</t>
-  </si>
-  <si>
-    <t>DSS1631</t>
-  </si>
-  <si>
-    <t>DSS1632</t>
-  </si>
-  <si>
-    <t>DSS1633</t>
-  </si>
-  <si>
-    <t>DSS1634</t>
-  </si>
-  <si>
-    <t>DSS1635</t>
-  </si>
-  <si>
-    <t>DSS1636</t>
-  </si>
-  <si>
-    <t>DSS1637</t>
-  </si>
-  <si>
-    <t>DSS1638</t>
-  </si>
-  <si>
-    <t>DSS1639</t>
-  </si>
-  <si>
-    <t>DSS1640</t>
-  </si>
-  <si>
-    <t>DSS1641</t>
-  </si>
-  <si>
-    <t>DSS1642</t>
-  </si>
-  <si>
-    <t>DSS1643</t>
-  </si>
-  <si>
-    <t>DSS1644</t>
-  </si>
-  <si>
-    <t>DSS1645</t>
-  </si>
-  <si>
-    <t>DSS1646</t>
-  </si>
-  <si>
-    <t>DSS1647</t>
-  </si>
-  <si>
-    <t>DSS1648</t>
-  </si>
-  <si>
-    <t>DSS1649</t>
-  </si>
-  <si>
-    <t>DSS1650</t>
-  </si>
-  <si>
-    <t>DSS1651</t>
-  </si>
-  <si>
-    <t>DSS1652</t>
-  </si>
-  <si>
-    <t>DSS1653</t>
-  </si>
-  <si>
-    <t>DSS1654</t>
-  </si>
-  <si>
-    <t>DSS1655</t>
-  </si>
-  <si>
-    <t>DSS1656</t>
-  </si>
-  <si>
-    <t>DSS1657</t>
-  </si>
-  <si>
-    <t>DSS1658</t>
-  </si>
-  <si>
-    <t>DSS1659</t>
-  </si>
-  <si>
-    <t>DSS1660</t>
-  </si>
-  <si>
-    <t>DSS1661</t>
-  </si>
-  <si>
-    <t>DSS1662</t>
-  </si>
-  <si>
-    <t>DSS1663</t>
-  </si>
-  <si>
-    <t>DSS1664</t>
-  </si>
-  <si>
-    <t>DSS1665</t>
-  </si>
-  <si>
-    <t>DSS1666</t>
-  </si>
-  <si>
-    <t>DSS1667</t>
-  </si>
-  <si>
-    <t>DSS1668</t>
-  </si>
-  <si>
-    <t>DSS1669</t>
-  </si>
-  <si>
-    <t>DSS1670</t>
-  </si>
-  <si>
-    <t>DSS1671</t>
-  </si>
-  <si>
-    <t>DSS1672</t>
-  </si>
-  <si>
-    <t>DSS1673</t>
-  </si>
-  <si>
-    <t>DSS1674</t>
-  </si>
-  <si>
-    <t>DSS1675</t>
-  </si>
-  <si>
-    <t>DSS1676</t>
-  </si>
-  <si>
-    <t>DSS1677</t>
-  </si>
-  <si>
-    <t>DSS1678</t>
-  </si>
-  <si>
-    <t>DSS1679</t>
-  </si>
-  <si>
-    <t>DSS1680</t>
-  </si>
-  <si>
-    <t>DSS1681</t>
-  </si>
-  <si>
-    <t>DSS1682</t>
-  </si>
-  <si>
-    <t>DSS1683</t>
-  </si>
-  <si>
-    <t>DSS1684</t>
-  </si>
-  <si>
-    <t>DSS1685</t>
-  </si>
-  <si>
-    <t>DSS1686</t>
-  </si>
-  <si>
-    <t>DSS1687</t>
-  </si>
-  <si>
-    <t>DSS1688</t>
-  </si>
-  <si>
-    <t>DSS1689</t>
-  </si>
-  <si>
-    <t>DSS1690</t>
-  </si>
-  <si>
-    <t>DSS1691</t>
-  </si>
-  <si>
-    <t>DSS1692</t>
-  </si>
-  <si>
-    <t>DSS1693</t>
-  </si>
-  <si>
-    <t>DSS1694</t>
-  </si>
-  <si>
-    <t>DSS1695</t>
-  </si>
-  <si>
     <t>Ahmed Rashed Mohamed Hass</t>
   </si>
   <si>
@@ -2467,6 +1483,9 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Ahmed Mahmoud Ali Mahmoud</t>
   </si>
 </sst>
 </file>
@@ -3039,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E696"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A356" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H361" sqref="H361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +2086,7 @@
         <v>217</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>811</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,13 +5142,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>766</v>
+        <v>438</v>
       </c>
       <c r="E200" s="20">
         <v>1</v>
@@ -6140,13 +5159,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>767</v>
+        <v>439</v>
       </c>
       <c r="E201" s="20">
         <v>1</v>
@@ -6157,7 +5176,7 @@
         <v>204</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>231</v>
@@ -6172,7 +5191,7 @@
         <v>205</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>263</v>
@@ -6187,7 +5206,7 @@
         <v>206</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>248</v>
@@ -6202,7 +5221,7 @@
         <v>207</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>264</v>
@@ -6217,7 +5236,7 @@
         <v>274</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>253</v>
@@ -6232,7 +5251,7 @@
         <v>275</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>765</v>
+        <v>437</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>232</v>
@@ -6247,7 +5266,7 @@
         <v>276</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>768</v>
+        <v>440</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>240</v>
@@ -6264,7 +5283,7 @@
         <v>277</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>768</v>
+        <v>440</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>2</v>
@@ -6281,7 +5300,7 @@
         <v>278</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>768</v>
+        <v>440</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>230</v>
@@ -6296,7 +5315,7 @@
         <v>279</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>769</v>
+        <v>441</v>
       </c>
       <c r="C211" s="12" t="s">
         <v>248</v>
@@ -6313,7 +5332,7 @@
         <v>280</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>770</v>
+        <v>442</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>248</v>
@@ -6330,7 +5349,7 @@
         <v>281</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>771</v>
+        <v>443</v>
       </c>
       <c r="C213" s="12" t="s">
         <v>248</v>
@@ -6347,7 +5366,7 @@
         <v>282</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>772</v>
+        <v>444</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>248</v>
@@ -6364,7 +5383,7 @@
         <v>283</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>773</v>
+        <v>445</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>248</v>
@@ -6379,10 +5398,10 @@
         <v>284</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>773</v>
+        <v>445</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>774</v>
+        <v>446</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="20">
@@ -6394,13 +5413,13 @@
         <v>285</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>775</v>
+        <v>447</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>780</v>
+        <v>452</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>776</v>
+        <v>448</v>
       </c>
       <c r="E217" s="20">
         <v>1</v>
@@ -6411,13 +5430,13 @@
         <v>286</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>775</v>
+        <v>447</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>777</v>
+        <v>449</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>781</v>
+        <v>453</v>
       </c>
       <c r="E218" s="20">
         <v>1</v>
@@ -6428,13 +5447,13 @@
         <v>287</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>775</v>
+        <v>447</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>778</v>
+        <v>450</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>782</v>
+        <v>454</v>
       </c>
       <c r="E219" s="20">
         <v>1</v>
@@ -6445,13 +5464,13 @@
         <v>288</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>775</v>
+        <v>447</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>779</v>
+        <v>451</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>783</v>
+        <v>455</v>
       </c>
       <c r="E220" s="20">
         <v>1</v>
@@ -6462,13 +5481,13 @@
         <v>289</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>784</v>
+        <v>456</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>787</v>
+        <v>459</v>
       </c>
       <c r="E221" s="20">
         <v>1</v>
@@ -6479,13 +5498,13 @@
         <v>290</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>784</v>
+        <v>456</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D222" s="27" t="s">
-        <v>787</v>
+        <v>459</v>
       </c>
       <c r="E222" s="20">
         <v>1</v>
@@ -6496,13 +5515,13 @@
         <v>291</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>784</v>
+        <v>456</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>787</v>
+        <v>459</v>
       </c>
       <c r="E223" s="20">
         <v>1</v>
@@ -6513,13 +5532,13 @@
         <v>292</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>785</v>
+        <v>457</v>
       </c>
       <c r="C224" s="12" t="s">
         <v>240</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>787</v>
+        <v>459</v>
       </c>
       <c r="E224" s="20">
         <v>1</v>
@@ -6530,13 +5549,13 @@
         <v>293</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>785</v>
+        <v>457</v>
       </c>
       <c r="C225" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>787</v>
+        <v>459</v>
       </c>
       <c r="E225" s="20">
         <v>1</v>
@@ -6547,13 +5566,13 @@
         <v>294</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>785</v>
+        <v>457</v>
       </c>
       <c r="C226" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>787</v>
+        <v>459</v>
       </c>
       <c r="E226" s="20">
         <v>1</v>
@@ -6564,7 +5583,7 @@
         <v>295</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>240</v>
@@ -6581,7 +5600,7 @@
         <v>296</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>2</v>
@@ -6598,7 +5617,7 @@
         <v>297</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>786</v>
+        <v>458</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>230</v>
@@ -6615,7 +5634,7 @@
         <v>298</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C230" s="12" t="s">
         <v>2</v>
@@ -6630,7 +5649,7 @@
         <v>299</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C231" s="12" t="s">
         <v>230</v>
@@ -6645,7 +5664,7 @@
         <v>300</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>231</v>
@@ -6660,7 +5679,7 @@
         <v>301</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C233" s="12" t="s">
         <v>263</v>
@@ -6675,7 +5694,7 @@
         <v>302</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>248</v>
@@ -6690,7 +5709,7 @@
         <v>303</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>264</v>
@@ -6705,7 +5724,7 @@
         <v>304</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>253</v>
@@ -6720,7 +5739,7 @@
         <v>305</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>788</v>
+        <v>460</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>232</v>
@@ -6735,7 +5754,7 @@
         <v>306</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>2</v>
@@ -6750,7 +5769,7 @@
         <v>307</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>230</v>
@@ -6765,7 +5784,7 @@
         <v>308</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>231</v>
@@ -6780,7 +5799,7 @@
         <v>309</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>263</v>
@@ -6795,7 +5814,7 @@
         <v>310</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>248</v>
@@ -6810,7 +5829,7 @@
         <v>311</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>264</v>
@@ -6825,7 +5844,7 @@
         <v>312</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>253</v>
@@ -6840,7 +5859,7 @@
         <v>313</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>789</v>
+        <v>461</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>232</v>
@@ -6855,10 +5874,10 @@
         <v>314</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>790</v>
+        <v>462</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>791</v>
+        <v>463</v>
       </c>
       <c r="D246" s="29">
         <v>45323</v>
@@ -6872,7 +5891,7 @@
         <v>315</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>2</v>
@@ -6889,7 +5908,7 @@
         <v>316</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>230</v>
@@ -6906,7 +5925,7 @@
         <v>317</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>231</v>
@@ -6923,7 +5942,7 @@
         <v>318</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>263</v>
@@ -6940,7 +5959,7 @@
         <v>319</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>248</v>
@@ -6957,7 +5976,7 @@
         <v>320</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>264</v>
@@ -6974,7 +5993,7 @@
         <v>321</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>253</v>
@@ -6991,7 +6010,7 @@
         <v>322</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>792</v>
+        <v>464</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>232</v>
@@ -7008,7 +6027,7 @@
         <v>323</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C255" s="12" t="s">
         <v>2</v>
@@ -7025,7 +6044,7 @@
         <v>324</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C256" s="12" t="s">
         <v>230</v>
@@ -7042,7 +6061,7 @@
         <v>325</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C257" s="12" t="s">
         <v>231</v>
@@ -7059,7 +6078,7 @@
         <v>326</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C258" s="12" t="s">
         <v>263</v>
@@ -7076,7 +6095,7 @@
         <v>327</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C259" s="12" t="s">
         <v>248</v>
@@ -7093,7 +6112,7 @@
         <v>328</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C260" s="12" t="s">
         <v>264</v>
@@ -7110,7 +6129,7 @@
         <v>329</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C261" s="12" t="s">
         <v>253</v>
@@ -7127,7 +6146,7 @@
         <v>330</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>793</v>
+        <v>465</v>
       </c>
       <c r="C262" s="12" t="s">
         <v>232</v>
@@ -7144,7 +6163,7 @@
         <v>331</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>2</v>
@@ -7161,7 +6180,7 @@
         <v>332</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>230</v>
@@ -7178,7 +6197,7 @@
         <v>333</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>231</v>
@@ -7195,7 +6214,7 @@
         <v>334</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>263</v>
@@ -7212,7 +6231,7 @@
         <v>335</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>248</v>
@@ -7229,7 +6248,7 @@
         <v>336</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>264</v>
@@ -7246,7 +6265,7 @@
         <v>337</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>253</v>
@@ -7263,7 +6282,7 @@
         <v>338</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>794</v>
+        <v>466</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>232</v>
@@ -7280,7 +6299,7 @@
         <v>339</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C271" s="12" t="s">
         <v>2</v>
@@ -7297,7 +6316,7 @@
         <v>340</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C272" s="12" t="s">
         <v>230</v>
@@ -7314,7 +6333,7 @@
         <v>341</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C273" s="12" t="s">
         <v>231</v>
@@ -7331,7 +6350,7 @@
         <v>342</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C274" s="12" t="s">
         <v>263</v>
@@ -7348,7 +6367,7 @@
         <v>343</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C275" s="12" t="s">
         <v>248</v>
@@ -7365,7 +6384,7 @@
         <v>344</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C276" s="12" t="s">
         <v>264</v>
@@ -7382,7 +6401,7 @@
         <v>345</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C277" s="12" t="s">
         <v>253</v>
@@ -7399,7 +6418,7 @@
         <v>346</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>795</v>
+        <v>467</v>
       </c>
       <c r="C278" s="12" t="s">
         <v>232</v>
@@ -7416,7 +6435,7 @@
         <v>347</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>2</v>
@@ -7433,7 +6452,7 @@
         <v>348</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>230</v>
@@ -7450,7 +6469,7 @@
         <v>349</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>231</v>
@@ -7467,7 +6486,7 @@
         <v>350</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>263</v>
@@ -7484,7 +6503,7 @@
         <v>351</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>248</v>
@@ -7501,7 +6520,7 @@
         <v>352</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>264</v>
@@ -7518,7 +6537,7 @@
         <v>353</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>253</v>
@@ -7535,7 +6554,7 @@
         <v>354</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>796</v>
+        <v>468</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>232</v>
@@ -7561,7 +6580,7 @@
         <v>356</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>790</v>
+        <v>462</v>
       </c>
       <c r="C288" s="12" t="s">
         <v>263</v>
@@ -7578,7 +6597,7 @@
         <v>357</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>790</v>
+        <v>462</v>
       </c>
       <c r="C289" s="12" t="s">
         <v>253</v>
@@ -7595,7 +6614,7 @@
         <v>358</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>2</v>
@@ -7612,7 +6631,7 @@
         <v>359</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>230</v>
@@ -7629,7 +6648,7 @@
         <v>360</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>231</v>
@@ -7646,7 +6665,7 @@
         <v>361</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>263</v>
@@ -7663,7 +6682,7 @@
         <v>362</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>248</v>
@@ -7680,7 +6699,7 @@
         <v>363</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>264</v>
@@ -7697,7 +6716,7 @@
         <v>364</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>253</v>
@@ -7714,7 +6733,7 @@
         <v>365</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>797</v>
+        <v>469</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>232</v>
@@ -7731,7 +6750,7 @@
         <v>366</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>798</v>
+        <v>470</v>
       </c>
       <c r="C298" s="12" t="s">
         <v>2</v>
@@ -7748,7 +6767,7 @@
         <v>367</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>798</v>
+        <v>470</v>
       </c>
       <c r="C299" s="12" t="s">
         <v>230</v>
@@ -7765,7 +6784,7 @@
         <v>368</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>799</v>
+        <v>471</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>2</v>
@@ -7782,7 +6801,7 @@
         <v>369</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>799</v>
+        <v>471</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>230</v>
@@ -7799,7 +6818,7 @@
         <v>370</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C302" s="12" t="s">
         <v>2</v>
@@ -7816,7 +6835,7 @@
         <v>371</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C303" s="12" t="s">
         <v>230</v>
@@ -7833,7 +6852,7 @@
         <v>372</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C304" s="12" t="s">
         <v>231</v>
@@ -7850,7 +6869,7 @@
         <v>373</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C305" s="12" t="s">
         <v>263</v>
@@ -7867,7 +6886,7 @@
         <v>374</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C306" s="12" t="s">
         <v>248</v>
@@ -7884,7 +6903,7 @@
         <v>375</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C307" s="12" t="s">
         <v>264</v>
@@ -7901,7 +6920,7 @@
         <v>376</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C308" s="12" t="s">
         <v>253</v>
@@ -7918,7 +6937,7 @@
         <v>377</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>800</v>
+        <v>472</v>
       </c>
       <c r="C309" s="12" t="s">
         <v>232</v>
@@ -7935,7 +6954,7 @@
         <v>378</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>2</v>
@@ -7952,7 +6971,7 @@
         <v>379</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>230</v>
@@ -7969,7 +6988,7 @@
         <v>380</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>231</v>
@@ -7986,7 +7005,7 @@
         <v>381</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>263</v>
@@ -8003,7 +7022,7 @@
         <v>382</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>248</v>
@@ -8020,7 +7039,7 @@
         <v>383</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>264</v>
@@ -8037,7 +7056,7 @@
         <v>384</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>253</v>
@@ -8054,7 +7073,7 @@
         <v>385</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>801</v>
+        <v>473</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>232</v>
@@ -8071,7 +7090,7 @@
         <v>386</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C318" s="12" t="s">
         <v>2</v>
@@ -8088,7 +7107,7 @@
         <v>387</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C319" s="12" t="s">
         <v>230</v>
@@ -8105,7 +7124,7 @@
         <v>388</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C320" s="12" t="s">
         <v>231</v>
@@ -8122,7 +7141,7 @@
         <v>389</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C321" s="12" t="s">
         <v>263</v>
@@ -8139,7 +7158,7 @@
         <v>390</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C322" s="12" t="s">
         <v>248</v>
@@ -8156,7 +7175,7 @@
         <v>391</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C323" s="12" t="s">
         <v>264</v>
@@ -8173,7 +7192,7 @@
         <v>392</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C324" s="12" t="s">
         <v>253</v>
@@ -8190,7 +7209,7 @@
         <v>393</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>802</v>
+        <v>474</v>
       </c>
       <c r="C325" s="12" t="s">
         <v>232</v>
@@ -8207,7 +7226,7 @@
         <v>394</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>803</v>
+        <v>475</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>2</v>
@@ -8224,7 +7243,7 @@
         <v>395</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>803</v>
+        <v>475</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>230</v>
@@ -8241,7 +7260,7 @@
         <v>396</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>804</v>
+        <v>476</v>
       </c>
       <c r="C328" s="12" t="s">
         <v>2</v>
@@ -8258,7 +7277,7 @@
         <v>397</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>804</v>
+        <v>476</v>
       </c>
       <c r="C329" s="12" t="s">
         <v>230</v>
@@ -8275,7 +7294,7 @@
         <v>398</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>2</v>
@@ -8292,7 +7311,7 @@
         <v>399</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>230</v>
@@ -8309,7 +7328,7 @@
         <v>400</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>231</v>
@@ -8326,7 +7345,7 @@
         <v>401</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>263</v>
@@ -8343,7 +7362,7 @@
         <v>402</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>248</v>
@@ -8360,7 +7379,7 @@
         <v>403</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>264</v>
@@ -8377,7 +7396,7 @@
         <v>404</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>253</v>
@@ -8394,7 +7413,7 @@
         <v>405</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>805</v>
+        <v>477</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>232</v>
@@ -8411,7 +7430,7 @@
         <v>406</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>806</v>
+        <v>478</v>
       </c>
       <c r="C338" s="12" t="s">
         <v>2</v>
@@ -8428,7 +7447,7 @@
         <v>407</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>806</v>
+        <v>478</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>230</v>
@@ -8445,7 +7464,7 @@
         <v>408</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>807</v>
+        <v>479</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>2</v>
@@ -8462,7 +7481,7 @@
         <v>409</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>807</v>
+        <v>479</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>230</v>
@@ -8479,7 +7498,7 @@
         <v>410</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>808</v>
+        <v>480</v>
       </c>
       <c r="C342" s="12" t="s">
         <v>240</v>
@@ -8496,7 +7515,7 @@
         <v>411</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>808</v>
+        <v>480</v>
       </c>
       <c r="C343" s="12" t="s">
         <v>2</v>
@@ -8513,7 +7532,7 @@
         <v>412</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>808</v>
+        <v>480</v>
       </c>
       <c r="C344" s="12" t="s">
         <v>230</v>
@@ -8530,7 +7549,7 @@
         <v>413</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>2</v>
@@ -8547,7 +7566,7 @@
         <v>414</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>230</v>
@@ -8564,7 +7583,7 @@
         <v>415</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>231</v>
@@ -8581,7 +7600,7 @@
         <v>416</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>263</v>
@@ -8598,7 +7617,7 @@
         <v>417</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>248</v>
@@ -8615,7 +7634,7 @@
         <v>418</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>264</v>
@@ -8632,7 +7651,7 @@
         <v>419</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>253</v>
@@ -8649,7 +7668,7 @@
         <v>420</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>809</v>
+        <v>481</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>232</v>
@@ -8666,7 +7685,7 @@
         <v>421</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C353" s="12" t="s">
         <v>2</v>
@@ -8683,7 +7702,7 @@
         <v>422</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C354" s="12" t="s">
         <v>230</v>
@@ -8700,7 +7719,7 @@
         <v>423</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C355" s="12" t="s">
         <v>231</v>
@@ -8717,7 +7736,7 @@
         <v>424</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C356" s="12" t="s">
         <v>263</v>
@@ -8734,7 +7753,7 @@
         <v>425</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C357" s="12" t="s">
         <v>248</v>
@@ -8751,7 +7770,7 @@
         <v>426</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C358" s="12" t="s">
         <v>264</v>
@@ -8768,7 +7787,7 @@
         <v>427</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C359" s="12" t="s">
         <v>253</v>
@@ -8785,7 +7804,7 @@
         <v>428</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="C360" s="12" t="s">
         <v>232</v>
@@ -8798,3030 +7817,1454 @@
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B361" s="23"/>
+      <c r="B361" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361" s="30">
+        <v>45566</v>
+      </c>
       <c r="E361" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B362" s="23"/>
+      <c r="B362" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D362" s="30">
+        <v>45566</v>
+      </c>
       <c r="E362" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B363" s="23"/>
+      <c r="B363" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D363" s="30">
+        <v>45566</v>
+      </c>
       <c r="E363" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B364" s="23"/>
+      <c r="B364" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D364" s="30">
+        <v>45566</v>
+      </c>
       <c r="E364" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B365" s="23"/>
+      <c r="B365" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D365" s="30">
+        <v>45566</v>
+      </c>
       <c r="E365" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B366" s="23"/>
+      <c r="B366" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D366" s="30">
+        <v>45566</v>
+      </c>
       <c r="E366" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B367" s="23"/>
+      <c r="B367" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D367" s="30">
+        <v>45566</v>
+      </c>
       <c r="E367" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B368" s="23"/>
+      <c r="B368" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D368" s="30">
+        <v>45566</v>
+      </c>
       <c r="E368" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>437</v>
-      </c>
+    <row r="369" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
       <c r="B369" s="23"/>
-      <c r="E369" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>438</v>
-      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
       <c r="B370" s="23"/>
-      <c r="E370" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
-        <v>439</v>
-      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A371" s="2"/>
       <c r="B371" s="23"/>
-      <c r="E371" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>440</v>
-      </c>
+    </row>
+    <row r="372" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
       <c r="B372" s="23"/>
-      <c r="E372" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>441</v>
-      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
       <c r="B373" s="23"/>
-      <c r="E373" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
-        <v>442</v>
-      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
       <c r="B374" s="23"/>
-      <c r="E374" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>443</v>
-      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
       <c r="B375" s="23"/>
-      <c r="E375" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
-        <v>444</v>
-      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
       <c r="B376" s="23"/>
-      <c r="E376" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
-        <v>445</v>
-      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
       <c r="B377" s="23"/>
-      <c r="E377" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>446</v>
-      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
       <c r="B378" s="23"/>
-      <c r="E378" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>447</v>
-      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
       <c r="B379" s="23"/>
-      <c r="E379" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>448</v>
-      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
       <c r="B380" s="23"/>
-      <c r="E380" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>449</v>
-      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
       <c r="B381" s="23"/>
-      <c r="E381" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>450</v>
-      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
       <c r="B382" s="23"/>
-      <c r="E382" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
-        <v>451</v>
-      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
       <c r="B383" s="23"/>
-      <c r="E383" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>452</v>
-      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
       <c r="B384" s="23"/>
-      <c r="E384" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>453</v>
-      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
       <c r="B385" s="23"/>
-      <c r="E385" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>454</v>
-      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
       <c r="B386" s="23"/>
-      <c r="E386" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
-        <v>455</v>
-      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
       <c r="B387" s="23"/>
-      <c r="E387" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>456</v>
-      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
       <c r="B388" s="23"/>
-      <c r="E388" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
-        <v>457</v>
-      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A389" s="2"/>
       <c r="B389" s="23"/>
-      <c r="E389" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>458</v>
-      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
       <c r="B390" s="23"/>
-      <c r="E390" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>459</v>
-      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
       <c r="B391" s="23"/>
-      <c r="E391" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>460</v>
-      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
       <c r="B392" s="23"/>
-      <c r="E392" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
-        <v>461</v>
-      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
       <c r="B393" s="23"/>
-      <c r="E393" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>462</v>
-      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
       <c r="B394" s="23"/>
-      <c r="E394" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>463</v>
-      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
       <c r="B395" s="23"/>
-      <c r="E395" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>464</v>
-      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
       <c r="B396" s="23"/>
-      <c r="E396" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>465</v>
-      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
       <c r="B397" s="23"/>
-      <c r="E397" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
-        <v>466</v>
-      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
       <c r="B398" s="23"/>
-      <c r="E398" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>467</v>
-      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
       <c r="B399" s="23"/>
-      <c r="E399" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>468</v>
-      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
       <c r="B400" s="23"/>
-      <c r="E400" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
-        <v>469</v>
-      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
       <c r="B401" s="23"/>
-      <c r="E401" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
-        <v>470</v>
-      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
       <c r="B402" s="23"/>
-      <c r="E402" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>471</v>
-      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
       <c r="B403" s="23"/>
-      <c r="E403" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
-        <v>472</v>
-      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
       <c r="B404" s="23"/>
-      <c r="E404" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
-        <v>473</v>
-      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
       <c r="B405" s="23"/>
-      <c r="E405" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
-        <v>474</v>
-      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
       <c r="B406" s="23"/>
-      <c r="E406" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
-        <v>475</v>
-      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
       <c r="B407" s="23"/>
-      <c r="E407" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
-        <v>476</v>
-      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
       <c r="B408" s="23"/>
-      <c r="E408" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
-        <v>477</v>
-      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
       <c r="B409" s="23"/>
-      <c r="E409" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
-        <v>478</v>
-      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
       <c r="B410" s="23"/>
-      <c r="E410" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
-        <v>479</v>
-      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
       <c r="B411" s="23"/>
-      <c r="E411" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
-        <v>480</v>
-      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
       <c r="B412" s="23"/>
-      <c r="E412" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>481</v>
-      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
       <c r="B413" s="23"/>
-      <c r="E413" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>482</v>
-      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
       <c r="B414" s="23"/>
-      <c r="E414" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
-        <v>483</v>
-      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
       <c r="B415" s="23"/>
-      <c r="E415" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
-        <v>484</v>
-      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A416" s="2"/>
       <c r="B416" s="23"/>
-      <c r="E416" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
-        <v>485</v>
-      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
       <c r="B417" s="23"/>
-      <c r="E417" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
-        <v>486</v>
-      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
       <c r="B418" s="23"/>
-      <c r="E418" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
-        <v>487</v>
-      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="2"/>
       <c r="B419" s="23"/>
-      <c r="E419" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
-        <v>488</v>
-      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
       <c r="B420" s="23"/>
-      <c r="E420" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A421" s="2" t="s">
-        <v>489</v>
-      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="2"/>
       <c r="B421" s="23"/>
-      <c r="E421" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
-        <v>490</v>
-      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A422" s="2"/>
       <c r="B422" s="23"/>
-      <c r="E422" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
-        <v>491</v>
-      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="2"/>
       <c r="B423" s="23"/>
-      <c r="E423" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>492</v>
-      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="2"/>
       <c r="B424" s="23"/>
-      <c r="E424" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
-        <v>493</v>
-      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="2"/>
       <c r="B425" s="23"/>
-      <c r="E425" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
-        <v>494</v>
-      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="2"/>
       <c r="B426" s="23"/>
-      <c r="E426" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>495</v>
-      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="2"/>
       <c r="B427" s="23"/>
-      <c r="E427" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
-        <v>496</v>
-      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="2"/>
       <c r="B428" s="23"/>
-      <c r="E428" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
-        <v>497</v>
-      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
       <c r="B429" s="23"/>
-      <c r="E429" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
-        <v>498</v>
-      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="2"/>
       <c r="B430" s="23"/>
-      <c r="E430" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
-        <v>499</v>
-      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="2"/>
       <c r="B431" s="23"/>
-      <c r="E431" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
-        <v>500</v>
-      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="2"/>
       <c r="B432" s="23"/>
-      <c r="E432" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
-        <v>501</v>
-      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="2"/>
       <c r="B433" s="23"/>
-      <c r="E433" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
-        <v>502</v>
-      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="2"/>
       <c r="B434" s="23"/>
-      <c r="E434" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
-        <v>503</v>
-      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="2"/>
       <c r="B435" s="23"/>
-      <c r="E435" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
-        <v>504</v>
-      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A436" s="2"/>
       <c r="B436" s="23"/>
-      <c r="E436" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
-        <v>505</v>
-      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A437" s="2"/>
       <c r="B437" s="23"/>
-      <c r="E437" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
-        <v>506</v>
-      </c>
+    </row>
+    <row r="438" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A438" s="2"/>
       <c r="B438" s="23"/>
-      <c r="E438" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
-        <v>507</v>
-      </c>
+    </row>
+    <row r="439" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
       <c r="B439" s="23"/>
-      <c r="E439" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
-        <v>508</v>
-      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A440" s="2"/>
       <c r="B440" s="23"/>
-      <c r="E440" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
-        <v>509</v>
-      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A441" s="2"/>
       <c r="B441" s="23"/>
-      <c r="E441" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
-        <v>510</v>
-      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="2"/>
       <c r="B442" s="23"/>
-      <c r="E442" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
-        <v>511</v>
-      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A443" s="2"/>
       <c r="B443" s="23"/>
-      <c r="E443" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
-        <v>512</v>
-      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A444" s="2"/>
       <c r="B444" s="23"/>
-      <c r="E444" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
-        <v>513</v>
-      </c>
+    </row>
+    <row r="445" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A445" s="2"/>
       <c r="B445" s="23"/>
-      <c r="E445" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>514</v>
-      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="2"/>
       <c r="B446" s="23"/>
-      <c r="E446" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
-        <v>515</v>
-      </c>
+    </row>
+    <row r="447" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
       <c r="B447" s="23"/>
-      <c r="E447" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
-        <v>516</v>
-      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A448" s="2"/>
       <c r="B448" s="23"/>
-      <c r="E448" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>517</v>
-      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="2"/>
       <c r="B449" s="23"/>
-      <c r="E449" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
-        <v>518</v>
-      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="2"/>
       <c r="B450" s="23"/>
-      <c r="E450" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>519</v>
-      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="2"/>
       <c r="B451" s="23"/>
-      <c r="E451" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
-        <v>520</v>
-      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="2"/>
       <c r="B452" s="23"/>
-      <c r="E452" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>521</v>
-      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="2"/>
       <c r="B453" s="23"/>
-      <c r="E453" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
-        <v>522</v>
-      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="2"/>
       <c r="B454" s="23"/>
-      <c r="E454" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
-        <v>523</v>
-      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
       <c r="B455" s="23"/>
-      <c r="E455" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
-        <v>524</v>
-      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A456" s="2"/>
       <c r="B456" s="23"/>
-      <c r="E456" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
-        <v>525</v>
-      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="2"/>
       <c r="B457" s="23"/>
-      <c r="E457" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
-        <v>526</v>
-      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="2"/>
       <c r="B458" s="23"/>
-      <c r="E458" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
-        <v>527</v>
-      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="2"/>
       <c r="B459" s="23"/>
-      <c r="E459" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
-        <v>528</v>
-      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" s="2"/>
       <c r="B460" s="23"/>
-      <c r="E460" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
-        <v>529</v>
-      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
       <c r="B461" s="23"/>
-      <c r="E461" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
-        <v>530</v>
-      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="2"/>
       <c r="B462" s="23"/>
-      <c r="E462" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
-        <v>531</v>
-      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="2"/>
       <c r="B463" s="23"/>
-      <c r="E463" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>532</v>
-      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="2"/>
       <c r="B464" s="23"/>
-      <c r="E464" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>533</v>
-      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="2"/>
       <c r="B465" s="23"/>
-      <c r="E465" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
-        <v>534</v>
-      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="2"/>
       <c r="B466" s="23"/>
-      <c r="E466" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
-        <v>535</v>
-      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="2"/>
       <c r="B467" s="23"/>
-      <c r="E467" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
-        <v>536</v>
-      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
       <c r="B468" s="23"/>
-      <c r="E468" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
-        <v>537</v>
-      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="2"/>
       <c r="B469" s="23"/>
-      <c r="E469" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
-        <v>538</v>
-      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A470" s="2"/>
       <c r="B470" s="23"/>
-      <c r="E470" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
-        <v>539</v>
-      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
       <c r="B471" s="23"/>
-      <c r="E471" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
-        <v>540</v>
-      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A472" s="2"/>
       <c r="B472" s="23"/>
-      <c r="E472" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
-        <v>541</v>
-      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A473" s="2"/>
       <c r="B473" s="23"/>
-      <c r="E473" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
-        <v>542</v>
-      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A474" s="2"/>
       <c r="B474" s="23"/>
-      <c r="E474" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
-        <v>543</v>
-      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
       <c r="B475" s="23"/>
-      <c r="E475" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
-        <v>544</v>
-      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A476" s="2"/>
       <c r="B476" s="23"/>
-      <c r="E476" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>545</v>
-      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
       <c r="B477" s="23"/>
-      <c r="E477" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
-        <v>546</v>
-      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="2"/>
       <c r="B478" s="23"/>
-      <c r="E478" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
-        <v>547</v>
-      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A479" s="2"/>
       <c r="B479" s="23"/>
-      <c r="E479" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
-        <v>548</v>
-      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
       <c r="B480" s="23"/>
-      <c r="E480" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
-        <v>549</v>
-      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="2"/>
       <c r="B481" s="23"/>
-      <c r="E481" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>550</v>
-      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
       <c r="B482" s="23"/>
-      <c r="E482" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
-        <v>551</v>
-      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A483" s="2"/>
       <c r="B483" s="23"/>
-      <c r="E483" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
-        <v>552</v>
-      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A484" s="2"/>
       <c r="B484" s="23"/>
-      <c r="E484" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>553</v>
-      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A485" s="2"/>
       <c r="B485" s="23"/>
-      <c r="E485" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>554</v>
-      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A486" s="2"/>
       <c r="B486" s="23"/>
-      <c r="E486" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A487" s="2" t="s">
-        <v>555</v>
-      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A487" s="2"/>
       <c r="B487" s="23"/>
-      <c r="E487" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
-        <v>556</v>
-      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A488" s="2"/>
       <c r="B488" s="23"/>
-      <c r="E488" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
-        <v>557</v>
-      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A489" s="2"/>
       <c r="B489" s="23"/>
-      <c r="E489" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
-        <v>558</v>
-      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A490" s="2"/>
       <c r="B490" s="23"/>
-      <c r="E490" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
-        <v>559</v>
-      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A491" s="2"/>
       <c r="B491" s="23"/>
-      <c r="E491" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
-        <v>560</v>
-      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
       <c r="B492" s="23"/>
-      <c r="E492" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
-        <v>561</v>
-      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
       <c r="B493" s="23"/>
-      <c r="E493" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
-        <v>562</v>
-      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
       <c r="B494" s="23"/>
-      <c r="E494" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
-        <v>563</v>
-      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
       <c r="B495" s="23"/>
-      <c r="E495" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
-        <v>564</v>
-      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
       <c r="B496" s="23"/>
-      <c r="E496" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A497" s="2" t="s">
-        <v>565</v>
-      </c>
+    </row>
+    <row r="497" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
       <c r="B497" s="23"/>
-      <c r="E497" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
-        <v>566</v>
-      </c>
+    </row>
+    <row r="498" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
       <c r="B498" s="23"/>
-      <c r="E498" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A499" s="2" t="s">
-        <v>567</v>
-      </c>
+    </row>
+    <row r="499" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A499" s="2"/>
       <c r="B499" s="23"/>
-      <c r="E499" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
-        <v>568</v>
-      </c>
+    </row>
+    <row r="500" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="2"/>
       <c r="B500" s="23"/>
-      <c r="E500" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A501" s="2" t="s">
-        <v>569</v>
-      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="2"/>
       <c r="B501" s="23"/>
-      <c r="E501" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
-        <v>570</v>
-      </c>
+    </row>
+    <row r="502" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
       <c r="B502" s="23"/>
-      <c r="E502" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A503" s="2" t="s">
-        <v>571</v>
-      </c>
+    </row>
+    <row r="503" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A503" s="2"/>
       <c r="B503" s="23"/>
-      <c r="E503" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
-        <v>572</v>
-      </c>
+    </row>
+    <row r="504" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A504" s="2"/>
       <c r="B504" s="23"/>
-      <c r="E504" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A505" s="2" t="s">
-        <v>573</v>
-      </c>
+    </row>
+    <row r="505" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A505" s="2"/>
       <c r="B505" s="23"/>
-      <c r="E505" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
-        <v>574</v>
-      </c>
+    </row>
+    <row r="506" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A506" s="2"/>
       <c r="B506" s="23"/>
-      <c r="E506" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
-        <v>575</v>
-      </c>
+    </row>
+    <row r="507" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A507" s="2"/>
       <c r="B507" s="23"/>
-      <c r="E507" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
-        <v>576</v>
-      </c>
+    </row>
+    <row r="508" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A508" s="2"/>
       <c r="B508" s="23"/>
-      <c r="E508" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
-        <v>577</v>
-      </c>
+    </row>
+    <row r="509" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A509" s="2"/>
       <c r="B509" s="23"/>
-      <c r="E509" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
-        <v>578</v>
-      </c>
+    </row>
+    <row r="510" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A510" s="2"/>
       <c r="B510" s="23"/>
-      <c r="E510" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A511" s="2" t="s">
-        <v>579</v>
-      </c>
+    </row>
+    <row r="511" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A511" s="2"/>
       <c r="B511" s="23"/>
-      <c r="E511" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
-        <v>580</v>
-      </c>
+    </row>
+    <row r="512" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A512" s="2"/>
       <c r="B512" s="23"/>
-      <c r="E512" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
-        <v>581</v>
-      </c>
+    </row>
+    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A513" s="2"/>
       <c r="B513" s="23"/>
-      <c r="E513" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
-        <v>582</v>
-      </c>
+    </row>
+    <row r="514" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A514" s="2"/>
       <c r="B514" s="23"/>
-      <c r="E514" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
-        <v>583</v>
-      </c>
+    </row>
+    <row r="515" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A515" s="2"/>
       <c r="B515" s="23"/>
-      <c r="E515" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
-        <v>584</v>
-      </c>
+    </row>
+    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A516" s="2"/>
       <c r="B516" s="23"/>
-      <c r="E516" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
-        <v>585</v>
-      </c>
+    </row>
+    <row r="517" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A517" s="2"/>
       <c r="B517" s="23"/>
-      <c r="E517" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>586</v>
-      </c>
+    </row>
+    <row r="518" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A518" s="2"/>
       <c r="B518" s="23"/>
-      <c r="E518" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
-        <v>587</v>
-      </c>
+    </row>
+    <row r="519" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A519" s="2"/>
       <c r="B519" s="23"/>
-      <c r="E519" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
-        <v>588</v>
-      </c>
+    </row>
+    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A520" s="2"/>
       <c r="B520" s="23"/>
-      <c r="E520" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
-        <v>589</v>
-      </c>
+    </row>
+    <row r="521" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A521" s="2"/>
       <c r="B521" s="23"/>
-      <c r="E521" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
-        <v>590</v>
-      </c>
+    </row>
+    <row r="522" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A522" s="2"/>
       <c r="B522" s="23"/>
-      <c r="E522" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
-        <v>591</v>
-      </c>
+    </row>
+    <row r="523" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A523" s="2"/>
       <c r="B523" s="23"/>
-      <c r="E523" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
-        <v>592</v>
-      </c>
+    </row>
+    <row r="524" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A524" s="2"/>
       <c r="B524" s="23"/>
-      <c r="E524" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A525" s="2" t="s">
-        <v>593</v>
-      </c>
+    </row>
+    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A525" s="2"/>
       <c r="B525" s="23"/>
-      <c r="E525" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
-        <v>594</v>
-      </c>
+    </row>
+    <row r="526" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A526" s="2"/>
       <c r="B526" s="23"/>
-      <c r="E526" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
-        <v>595</v>
-      </c>
+    </row>
+    <row r="527" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A527" s="2"/>
       <c r="B527" s="23"/>
-      <c r="E527" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
-        <v>596</v>
-      </c>
+    </row>
+    <row r="528" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A528" s="2"/>
       <c r="B528" s="23"/>
-      <c r="E528" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>597</v>
-      </c>
+    </row>
+    <row r="529" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A529" s="2"/>
       <c r="B529" s="23"/>
-      <c r="E529" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
-        <v>598</v>
-      </c>
+    </row>
+    <row r="530" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A530" s="2"/>
       <c r="B530" s="23"/>
-      <c r="E530" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
-        <v>599</v>
-      </c>
+    </row>
+    <row r="531" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A531" s="2"/>
       <c r="B531" s="23"/>
-      <c r="E531" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
-        <v>600</v>
-      </c>
+    </row>
+    <row r="532" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A532" s="2"/>
       <c r="B532" s="23"/>
-      <c r="E532" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
-        <v>601</v>
-      </c>
+    </row>
+    <row r="533" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A533" s="2"/>
       <c r="B533" s="23"/>
-      <c r="E533" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
-        <v>602</v>
-      </c>
+    </row>
+    <row r="534" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A534" s="2"/>
       <c r="B534" s="23"/>
-      <c r="E534" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
-        <v>603</v>
-      </c>
+    </row>
+    <row r="535" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A535" s="2"/>
       <c r="B535" s="23"/>
-      <c r="E535" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
-        <v>604</v>
-      </c>
+    </row>
+    <row r="536" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A536" s="2"/>
       <c r="B536" s="23"/>
-      <c r="E536" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
-        <v>605</v>
-      </c>
+    </row>
+    <row r="537" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="2"/>
       <c r="B537" s="23"/>
-      <c r="E537" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
-        <v>606</v>
-      </c>
+    </row>
+    <row r="538" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A538" s="2"/>
       <c r="B538" s="23"/>
-      <c r="E538" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
-        <v>607</v>
-      </c>
+    </row>
+    <row r="539" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A539" s="2"/>
       <c r="B539" s="23"/>
-      <c r="E539" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
-        <v>608</v>
-      </c>
+    </row>
+    <row r="540" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A540" s="2"/>
       <c r="B540" s="23"/>
-      <c r="E540" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
-        <v>609</v>
-      </c>
+    </row>
+    <row r="541" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A541" s="2"/>
       <c r="B541" s="23"/>
-      <c r="E541" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
-        <v>610</v>
-      </c>
+    </row>
+    <row r="542" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A542" s="2"/>
       <c r="B542" s="23"/>
-      <c r="E542" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
-        <v>611</v>
-      </c>
+    </row>
+    <row r="543" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A543" s="2"/>
       <c r="B543" s="23"/>
-      <c r="E543" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
-        <v>612</v>
-      </c>
+    </row>
+    <row r="544" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A544" s="2"/>
       <c r="B544" s="23"/>
-      <c r="E544" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
-        <v>613</v>
-      </c>
+    </row>
+    <row r="545" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A545" s="2"/>
       <c r="B545" s="23"/>
-      <c r="E545" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
-        <v>614</v>
-      </c>
+    </row>
+    <row r="546" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A546" s="2"/>
       <c r="B546" s="23"/>
-      <c r="E546" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
-        <v>615</v>
-      </c>
+    </row>
+    <row r="547" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A547" s="2"/>
       <c r="B547" s="23"/>
-      <c r="E547" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
-        <v>616</v>
-      </c>
+    </row>
+    <row r="548" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A548" s="2"/>
       <c r="B548" s="23"/>
-      <c r="E548" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
-        <v>617</v>
-      </c>
+    </row>
+    <row r="549" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A549" s="2"/>
       <c r="B549" s="23"/>
-      <c r="E549" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
-        <v>618</v>
-      </c>
+    </row>
+    <row r="550" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A550" s="2"/>
       <c r="B550" s="23"/>
-      <c r="E550" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
-        <v>619</v>
-      </c>
+    </row>
+    <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A551" s="2"/>
       <c r="B551" s="23"/>
-      <c r="E551" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
-        <v>620</v>
-      </c>
+    </row>
+    <row r="552" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A552" s="2"/>
       <c r="B552" s="23"/>
-      <c r="E552" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
-        <v>621</v>
-      </c>
+    </row>
+    <row r="553" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A553" s="2"/>
       <c r="B553" s="23"/>
-      <c r="E553" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
-        <v>622</v>
-      </c>
+    </row>
+    <row r="554" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A554" s="2"/>
       <c r="B554" s="23"/>
-      <c r="E554" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
-        <v>623</v>
-      </c>
+    </row>
+    <row r="555" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A555" s="2"/>
       <c r="B555" s="23"/>
-      <c r="E555" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
-        <v>624</v>
-      </c>
+    </row>
+    <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A556" s="2"/>
       <c r="B556" s="23"/>
-      <c r="E556" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
-        <v>625</v>
-      </c>
+    </row>
+    <row r="557" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A557" s="2"/>
       <c r="B557" s="23"/>
-      <c r="E557" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>626</v>
-      </c>
+    </row>
+    <row r="558" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A558" s="2"/>
       <c r="B558" s="23"/>
-      <c r="E558" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
-        <v>627</v>
-      </c>
+    </row>
+    <row r="559" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A559" s="2"/>
       <c r="B559" s="23"/>
-      <c r="E559" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>628</v>
-      </c>
+    </row>
+    <row r="560" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A560" s="2"/>
       <c r="B560" s="23"/>
-      <c r="E560" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
-        <v>629</v>
-      </c>
+    </row>
+    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A561" s="2"/>
       <c r="B561" s="23"/>
-      <c r="E561" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
-        <v>630</v>
-      </c>
+    </row>
+    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A562" s="2"/>
       <c r="B562" s="23"/>
-      <c r="E562" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A563" s="2" t="s">
-        <v>631</v>
-      </c>
+    </row>
+    <row r="563" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A563" s="2"/>
       <c r="B563" s="23"/>
-      <c r="E563" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A564" s="2" t="s">
-        <v>632</v>
-      </c>
+    </row>
+    <row r="564" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A564" s="2"/>
       <c r="B564" s="23"/>
-      <c r="E564" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A565" s="2" t="s">
-        <v>633</v>
-      </c>
+    </row>
+    <row r="565" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A565" s="2"/>
       <c r="B565" s="23"/>
-      <c r="E565" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="2" t="s">
-        <v>634</v>
-      </c>
+    </row>
+    <row r="566" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A566" s="2"/>
       <c r="B566" s="23"/>
-      <c r="E566" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A567" s="2" t="s">
-        <v>635</v>
-      </c>
+    </row>
+    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A567" s="2"/>
       <c r="B567" s="23"/>
-      <c r="E567" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A568" s="2" t="s">
-        <v>636</v>
-      </c>
+    </row>
+    <row r="568" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A568" s="2"/>
       <c r="B568" s="23"/>
-      <c r="E568" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A569" s="2" t="s">
-        <v>637</v>
-      </c>
+    </row>
+    <row r="569" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A569" s="2"/>
       <c r="B569" s="23"/>
-      <c r="E569" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A570" s="2" t="s">
-        <v>638</v>
-      </c>
+    </row>
+    <row r="570" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A570" s="2"/>
       <c r="B570" s="23"/>
-      <c r="E570" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A571" s="2" t="s">
-        <v>639</v>
-      </c>
+    </row>
+    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A571" s="2"/>
       <c r="B571" s="23"/>
-      <c r="E571" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="2" t="s">
-        <v>640</v>
-      </c>
+    </row>
+    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A572" s="2"/>
       <c r="B572" s="23"/>
-      <c r="E572" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A573" s="2" t="s">
-        <v>641</v>
-      </c>
+    </row>
+    <row r="573" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A573" s="2"/>
       <c r="B573" s="23"/>
-      <c r="E573" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A574" s="2" t="s">
-        <v>642</v>
-      </c>
+    </row>
+    <row r="574" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A574" s="2"/>
       <c r="B574" s="23"/>
-      <c r="E574" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A575" s="2" t="s">
-        <v>643</v>
-      </c>
+    </row>
+    <row r="575" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A575" s="2"/>
       <c r="B575" s="23"/>
-      <c r="E575" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A576" s="2" t="s">
-        <v>644</v>
-      </c>
+    </row>
+    <row r="576" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A576" s="2"/>
       <c r="B576" s="23"/>
-      <c r="E576" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A577" s="2" t="s">
-        <v>645</v>
-      </c>
+    </row>
+    <row r="577" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A577" s="2"/>
       <c r="B577" s="23"/>
-      <c r="E577" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="2" t="s">
-        <v>646</v>
-      </c>
+    </row>
+    <row r="578" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A578" s="2"/>
       <c r="B578" s="23"/>
-      <c r="E578" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A579" s="2" t="s">
-        <v>647</v>
-      </c>
+    </row>
+    <row r="579" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A579" s="2"/>
       <c r="B579" s="23"/>
-      <c r="E579" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A580" s="2" t="s">
-        <v>648</v>
-      </c>
+    </row>
+    <row r="580" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A580" s="2"/>
       <c r="B580" s="23"/>
-      <c r="E580" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A581" s="2" t="s">
-        <v>649</v>
-      </c>
+    </row>
+    <row r="581" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A581" s="2"/>
       <c r="B581" s="23"/>
-      <c r="E581" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A582" s="2" t="s">
-        <v>650</v>
-      </c>
+    </row>
+    <row r="582" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A582" s="2"/>
       <c r="B582" s="23"/>
-      <c r="E582" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A583" s="2" t="s">
-        <v>651</v>
-      </c>
+    </row>
+    <row r="583" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A583" s="2"/>
       <c r="B583" s="23"/>
-      <c r="E583" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A584" s="2" t="s">
-        <v>652</v>
-      </c>
+    </row>
+    <row r="584" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A584" s="2"/>
       <c r="B584" s="23"/>
-      <c r="E584" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A585" s="2" t="s">
-        <v>653</v>
-      </c>
+    </row>
+    <row r="585" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A585" s="2"/>
       <c r="B585" s="23"/>
-      <c r="E585" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A586" s="2" t="s">
-        <v>654</v>
-      </c>
+    </row>
+    <row r="586" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A586" s="2"/>
       <c r="B586" s="23"/>
-      <c r="E586" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A587" s="2" t="s">
-        <v>655</v>
-      </c>
+    </row>
+    <row r="587" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A587" s="2"/>
       <c r="B587" s="23"/>
-      <c r="E587" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A588" s="2" t="s">
-        <v>656</v>
-      </c>
+    </row>
+    <row r="588" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A588" s="2"/>
       <c r="B588" s="23"/>
-      <c r="E588" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A589" s="2" t="s">
-        <v>657</v>
-      </c>
+    </row>
+    <row r="589" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A589" s="2"/>
       <c r="B589" s="23"/>
-      <c r="E589" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A590" s="2" t="s">
-        <v>658</v>
-      </c>
+    </row>
+    <row r="590" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A590" s="2"/>
       <c r="B590" s="23"/>
-      <c r="E590" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A591" s="2" t="s">
-        <v>659</v>
-      </c>
+    </row>
+    <row r="591" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A591" s="2"/>
       <c r="B591" s="23"/>
-      <c r="E591" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A592" s="2" t="s">
-        <v>660</v>
-      </c>
+    </row>
+    <row r="592" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A592" s="2"/>
       <c r="B592" s="23"/>
-      <c r="E592" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A593" s="2" t="s">
-        <v>661</v>
-      </c>
+    </row>
+    <row r="593" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A593" s="2"/>
       <c r="B593" s="23"/>
-      <c r="E593" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A594" s="2" t="s">
-        <v>662</v>
-      </c>
+    </row>
+    <row r="594" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A594" s="2"/>
       <c r="B594" s="23"/>
-      <c r="E594" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A595" s="2" t="s">
-        <v>663</v>
-      </c>
+    </row>
+    <row r="595" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A595" s="2"/>
       <c r="B595" s="23"/>
-      <c r="E595" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A596" s="2" t="s">
-        <v>664</v>
-      </c>
+    </row>
+    <row r="596" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A596" s="2"/>
       <c r="B596" s="23"/>
-      <c r="E596" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A597" s="2" t="s">
-        <v>665</v>
-      </c>
+    </row>
+    <row r="597" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A597" s="2"/>
       <c r="B597" s="23"/>
-      <c r="E597" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
-        <v>666</v>
-      </c>
+    </row>
+    <row r="598" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A598" s="2"/>
       <c r="B598" s="23"/>
-      <c r="E598" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A599" s="2" t="s">
-        <v>667</v>
-      </c>
+    </row>
+    <row r="599" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A599" s="2"/>
       <c r="B599" s="23"/>
-      <c r="E599" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A600" s="2" t="s">
-        <v>668</v>
-      </c>
+    </row>
+    <row r="600" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A600" s="2"/>
       <c r="B600" s="23"/>
-      <c r="E600" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A601" s="2" t="s">
-        <v>669</v>
-      </c>
+    </row>
+    <row r="601" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A601" s="2"/>
       <c r="B601" s="23"/>
-      <c r="E601" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A602" s="2" t="s">
-        <v>670</v>
-      </c>
+    </row>
+    <row r="602" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A602" s="2"/>
       <c r="B602" s="23"/>
-      <c r="E602" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A603" s="2" t="s">
-        <v>671</v>
-      </c>
+    </row>
+    <row r="603" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A603" s="2"/>
       <c r="B603" s="23"/>
-      <c r="E603" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A604" s="2" t="s">
-        <v>672</v>
-      </c>
+    </row>
+    <row r="604" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A604" s="2"/>
       <c r="B604" s="23"/>
-      <c r="E604" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A605" s="2" t="s">
-        <v>673</v>
-      </c>
+    </row>
+    <row r="605" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A605" s="2"/>
       <c r="B605" s="23"/>
-      <c r="E605" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A606" s="2" t="s">
-        <v>674</v>
-      </c>
+    </row>
+    <row r="606" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A606" s="2"/>
       <c r="B606" s="23"/>
-      <c r="E606" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A607" s="2" t="s">
-        <v>675</v>
-      </c>
+    </row>
+    <row r="607" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A607" s="2"/>
       <c r="B607" s="23"/>
-      <c r="E607" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="2" t="s">
-        <v>676</v>
-      </c>
+    </row>
+    <row r="608" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A608" s="2"/>
       <c r="B608" s="23"/>
-      <c r="E608" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A609" s="2" t="s">
-        <v>677</v>
-      </c>
+    </row>
+    <row r="609" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A609" s="2"/>
       <c r="B609" s="23"/>
-      <c r="E609" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A610" s="2" t="s">
-        <v>678</v>
-      </c>
+    </row>
+    <row r="610" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A610" s="2"/>
       <c r="B610" s="23"/>
-      <c r="E610" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A611" s="2" t="s">
-        <v>679</v>
-      </c>
+    </row>
+    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A611" s="2"/>
       <c r="B611" s="23"/>
-      <c r="E611" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A612" s="2" t="s">
-        <v>680</v>
-      </c>
+    </row>
+    <row r="612" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A612" s="2"/>
       <c r="B612" s="23"/>
-      <c r="E612" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A613" s="2" t="s">
-        <v>681</v>
-      </c>
+    </row>
+    <row r="613" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A613" s="2"/>
       <c r="B613" s="23"/>
-      <c r="E613" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A614" s="2" t="s">
-        <v>682</v>
-      </c>
+    </row>
+    <row r="614" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A614" s="2"/>
       <c r="B614" s="23"/>
-      <c r="E614" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A615" s="2" t="s">
-        <v>683</v>
-      </c>
+    </row>
+    <row r="615" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A615" s="2"/>
       <c r="B615" s="23"/>
-      <c r="E615" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A616" s="2" t="s">
-        <v>684</v>
-      </c>
+    </row>
+    <row r="616" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A616" s="2"/>
       <c r="B616" s="23"/>
-      <c r="E616" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A617" s="2" t="s">
-        <v>685</v>
-      </c>
+    </row>
+    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A617" s="2"/>
       <c r="B617" s="23"/>
-      <c r="E617" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A618" s="2" t="s">
-        <v>686</v>
-      </c>
+    </row>
+    <row r="618" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A618" s="2"/>
       <c r="B618" s="23"/>
-      <c r="E618" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A619" s="2" t="s">
-        <v>687</v>
-      </c>
+    </row>
+    <row r="619" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A619" s="2"/>
       <c r="B619" s="23"/>
-      <c r="E619" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A620" s="2" t="s">
-        <v>688</v>
-      </c>
+    </row>
+    <row r="620" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A620" s="2"/>
       <c r="B620" s="23"/>
-      <c r="E620" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A621" s="2" t="s">
-        <v>689</v>
-      </c>
+    </row>
+    <row r="621" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A621" s="2"/>
       <c r="B621" s="23"/>
-      <c r="E621" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A622" s="2" t="s">
-        <v>690</v>
-      </c>
+    </row>
+    <row r="622" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A622" s="2"/>
       <c r="B622" s="23"/>
-      <c r="E622" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A623" s="2" t="s">
-        <v>691</v>
-      </c>
+    </row>
+    <row r="623" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A623" s="2"/>
       <c r="B623" s="23"/>
-      <c r="E623" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A624" s="2" t="s">
-        <v>692</v>
-      </c>
+    </row>
+    <row r="624" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A624" s="2"/>
       <c r="B624" s="23"/>
-      <c r="E624" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A625" s="2" t="s">
-        <v>693</v>
-      </c>
+    </row>
+    <row r="625" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A625" s="2"/>
       <c r="B625" s="23"/>
-      <c r="E625" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A626" s="2" t="s">
-        <v>694</v>
-      </c>
+    </row>
+    <row r="626" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A626" s="2"/>
       <c r="B626" s="23"/>
-      <c r="E626" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A627" s="2" t="s">
-        <v>695</v>
-      </c>
+    </row>
+    <row r="627" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A627" s="2"/>
       <c r="B627" s="23"/>
-      <c r="E627" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A628" s="2" t="s">
-        <v>696</v>
-      </c>
+    </row>
+    <row r="628" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A628" s="2"/>
       <c r="B628" s="23"/>
-      <c r="E628" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A629" s="2" t="s">
-        <v>697</v>
-      </c>
+    </row>
+    <row r="629" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A629" s="2"/>
       <c r="B629" s="23"/>
-      <c r="E629" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A630" s="2" t="s">
-        <v>698</v>
-      </c>
+    </row>
+    <row r="630" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A630" s="2"/>
       <c r="B630" s="23"/>
-      <c r="E630" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A631" s="2" t="s">
-        <v>699</v>
-      </c>
+    </row>
+    <row r="631" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A631" s="2"/>
       <c r="B631" s="23"/>
-      <c r="E631" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A632" s="2" t="s">
-        <v>700</v>
-      </c>
+    </row>
+    <row r="632" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A632" s="2"/>
       <c r="B632" s="23"/>
-      <c r="E632" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A633" s="2" t="s">
-        <v>701</v>
-      </c>
+    </row>
+    <row r="633" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A633" s="2"/>
       <c r="B633" s="23"/>
-      <c r="E633" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A634" s="2" t="s">
-        <v>702</v>
-      </c>
+    </row>
+    <row r="634" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A634" s="2"/>
       <c r="B634" s="23"/>
-      <c r="E634" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A635" s="2" t="s">
-        <v>703</v>
-      </c>
+    </row>
+    <row r="635" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A635" s="2"/>
       <c r="B635" s="23"/>
-      <c r="E635" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A636" s="2" t="s">
-        <v>704</v>
-      </c>
+    </row>
+    <row r="636" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A636" s="2"/>
       <c r="B636" s="23"/>
-      <c r="E636" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A637" s="2" t="s">
-        <v>705</v>
-      </c>
+    </row>
+    <row r="637" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A637" s="2"/>
       <c r="B637" s="23"/>
-      <c r="E637" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A638" s="2" t="s">
-        <v>706</v>
-      </c>
+    </row>
+    <row r="638" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A638" s="2"/>
       <c r="B638" s="23"/>
-      <c r="E638" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A639" s="2" t="s">
-        <v>707</v>
-      </c>
+    </row>
+    <row r="639" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A639" s="2"/>
       <c r="B639" s="23"/>
-      <c r="E639" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A640" s="2" t="s">
-        <v>708</v>
-      </c>
+    </row>
+    <row r="640" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A640" s="2"/>
       <c r="B640" s="23"/>
-      <c r="E640" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A641" s="2" t="s">
-        <v>709</v>
-      </c>
+    </row>
+    <row r="641" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A641" s="2"/>
       <c r="B641" s="23"/>
-      <c r="E641" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A642" s="2" t="s">
-        <v>710</v>
-      </c>
+    </row>
+    <row r="642" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A642" s="2"/>
       <c r="B642" s="23"/>
-      <c r="E642" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A643" s="2" t="s">
-        <v>711</v>
-      </c>
+    </row>
+    <row r="643" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A643" s="2"/>
       <c r="B643" s="23"/>
-      <c r="E643" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A644" s="2" t="s">
-        <v>712</v>
-      </c>
+    </row>
+    <row r="644" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A644" s="2"/>
       <c r="B644" s="23"/>
-      <c r="E644" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A645" s="2" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="645" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A645" s="2"/>
       <c r="B645" s="23"/>
-      <c r="E645" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A646" s="2" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="646" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A646" s="2"/>
       <c r="B646" s="23"/>
-      <c r="E646" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A647" s="2" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="647" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A647" s="2"/>
       <c r="B647" s="23"/>
-      <c r="E647" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A648" s="2" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="648" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A648" s="2"/>
       <c r="B648" s="23"/>
-      <c r="E648" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A649" s="2" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="649" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A649" s="2"/>
       <c r="B649" s="23"/>
-      <c r="E649" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A650" s="2" t="s">
-        <v>718</v>
-      </c>
+    </row>
+    <row r="650" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A650" s="2"/>
       <c r="B650" s="23"/>
-      <c r="E650" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A651" s="2" t="s">
-        <v>719</v>
-      </c>
+    </row>
+    <row r="651" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A651" s="2"/>
       <c r="B651" s="23"/>
-      <c r="E651" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A652" s="2" t="s">
-        <v>720</v>
-      </c>
+    </row>
+    <row r="652" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A652" s="2"/>
       <c r="B652" s="23"/>
-      <c r="E652" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A653" s="2" t="s">
-        <v>721</v>
-      </c>
+    </row>
+    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A653" s="2"/>
       <c r="B653" s="23"/>
-      <c r="E653" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A654" s="2" t="s">
-        <v>722</v>
-      </c>
+    </row>
+    <row r="654" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A654" s="2"/>
       <c r="B654" s="23"/>
-      <c r="E654" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A655" s="2" t="s">
-        <v>723</v>
-      </c>
+    </row>
+    <row r="655" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A655" s="2"/>
       <c r="B655" s="23"/>
-      <c r="E655" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A656" s="2" t="s">
-        <v>724</v>
-      </c>
+    </row>
+    <row r="656" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A656" s="2"/>
       <c r="B656" s="23"/>
-      <c r="E656" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A657" s="2" t="s">
-        <v>725</v>
-      </c>
+    </row>
+    <row r="657" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A657" s="2"/>
       <c r="B657" s="23"/>
-      <c r="E657" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A658" s="2" t="s">
-        <v>726</v>
-      </c>
+    </row>
+    <row r="658" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A658" s="2"/>
       <c r="B658" s="23"/>
-      <c r="E658" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A659" s="2" t="s">
-        <v>727</v>
-      </c>
+    </row>
+    <row r="659" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A659" s="2"/>
       <c r="B659" s="23"/>
-      <c r="E659" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A660" s="2" t="s">
-        <v>728</v>
-      </c>
+    </row>
+    <row r="660" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A660" s="2"/>
       <c r="B660" s="23"/>
-      <c r="E660" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A661" s="2" t="s">
-        <v>729</v>
-      </c>
+    </row>
+    <row r="661" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A661" s="2"/>
       <c r="B661" s="23"/>
-      <c r="E661" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="662" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A662" s="2" t="s">
-        <v>730</v>
-      </c>
+    </row>
+    <row r="662" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A662" s="2"/>
       <c r="B662" s="23"/>
-      <c r="E662" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="663" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A663" s="2" t="s">
-        <v>731</v>
-      </c>
+    </row>
+    <row r="663" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A663" s="2"/>
       <c r="B663" s="23"/>
-      <c r="E663" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A664" s="2" t="s">
-        <v>732</v>
-      </c>
+    </row>
+    <row r="664" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A664" s="2"/>
       <c r="B664" s="23"/>
-      <c r="E664" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="665" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A665" s="2" t="s">
-        <v>733</v>
-      </c>
+    </row>
+    <row r="665" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A665" s="2"/>
       <c r="B665" s="23"/>
-      <c r="E665" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A666" s="2" t="s">
-        <v>734</v>
-      </c>
+    </row>
+    <row r="666" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A666" s="2"/>
       <c r="B666" s="23"/>
-      <c r="E666" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="667" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A667" s="2" t="s">
-        <v>735</v>
-      </c>
+    </row>
+    <row r="667" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A667" s="2"/>
       <c r="B667" s="23"/>
-      <c r="E667" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="668" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A668" s="2" t="s">
-        <v>736</v>
-      </c>
+    </row>
+    <row r="668" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A668" s="2"/>
       <c r="B668" s="23"/>
-      <c r="E668" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A669" s="2" t="s">
-        <v>737</v>
-      </c>
+    </row>
+    <row r="669" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A669" s="2"/>
       <c r="B669" s="23"/>
-      <c r="E669" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A670" s="2" t="s">
-        <v>738</v>
-      </c>
+    </row>
+    <row r="670" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A670" s="2"/>
       <c r="B670" s="23"/>
-      <c r="E670" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A671" s="2" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="671" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A671" s="2"/>
       <c r="B671" s="23"/>
-      <c r="E671" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A672" s="2" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="672" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A672" s="2"/>
       <c r="B672" s="23"/>
-      <c r="E672" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A673" s="2" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="673" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A673" s="2"/>
       <c r="B673" s="23"/>
-      <c r="E673" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A674" s="2" t="s">
-        <v>742</v>
-      </c>
+    </row>
+    <row r="674" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A674" s="2"/>
       <c r="B674" s="23"/>
-      <c r="E674" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A675" s="2" t="s">
-        <v>743</v>
-      </c>
+    </row>
+    <row r="675" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A675" s="2"/>
       <c r="B675" s="23"/>
-      <c r="E675" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A676" s="2" t="s">
-        <v>744</v>
-      </c>
+    </row>
+    <row r="676" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A676" s="2"/>
       <c r="B676" s="23"/>
-      <c r="E676" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A677" s="2" t="s">
-        <v>745</v>
-      </c>
+    </row>
+    <row r="677" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A677" s="2"/>
       <c r="B677" s="23"/>
-      <c r="E677" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A678" s="2" t="s">
-        <v>746</v>
-      </c>
+    </row>
+    <row r="678" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="2"/>
       <c r="B678" s="23"/>
-      <c r="E678" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A679" s="2" t="s">
-        <v>747</v>
-      </c>
+    </row>
+    <row r="679" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A679" s="2"/>
       <c r="B679" s="23"/>
-      <c r="E679" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A680" s="2" t="s">
-        <v>748</v>
-      </c>
+    </row>
+    <row r="680" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A680" s="2"/>
       <c r="B680" s="23"/>
-      <c r="E680" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A681" s="2" t="s">
-        <v>749</v>
-      </c>
+    </row>
+    <row r="681" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A681" s="2"/>
       <c r="B681" s="23"/>
-      <c r="E681" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A682" s="2" t="s">
-        <v>750</v>
-      </c>
+    </row>
+    <row r="682" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A682" s="2"/>
       <c r="B682" s="23"/>
-      <c r="E682" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A683" s="2" t="s">
-        <v>751</v>
-      </c>
+    </row>
+    <row r="683" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A683" s="2"/>
       <c r="B683" s="23"/>
-      <c r="E683" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A684" s="2" t="s">
-        <v>752</v>
-      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A684" s="2"/>
       <c r="B684" s="23"/>
-      <c r="E684" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A685" s="2" t="s">
-        <v>753</v>
-      </c>
+    </row>
+    <row r="685" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A685" s="2"/>
       <c r="B685" s="23"/>
-      <c r="E685" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A686" s="2" t="s">
-        <v>754</v>
-      </c>
+    </row>
+    <row r="686" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A686" s="2"/>
       <c r="B686" s="23"/>
-      <c r="E686" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A687" s="2" t="s">
-        <v>755</v>
-      </c>
+    </row>
+    <row r="687" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A687" s="2"/>
       <c r="B687" s="23"/>
-      <c r="E687" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A688" s="2" t="s">
-        <v>756</v>
-      </c>
+    </row>
+    <row r="688" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A688" s="2"/>
       <c r="B688" s="23"/>
-      <c r="E688" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A689" s="2" t="s">
-        <v>757</v>
-      </c>
+    </row>
+    <row r="689" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A689" s="2"/>
       <c r="B689" s="23"/>
-      <c r="E689" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A690" s="2" t="s">
-        <v>758</v>
-      </c>
+    </row>
+    <row r="690" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A690" s="2"/>
       <c r="B690" s="23"/>
-      <c r="E690" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A691" s="2" t="s">
-        <v>759</v>
-      </c>
+    </row>
+    <row r="691" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A691" s="2"/>
       <c r="B691" s="23"/>
-      <c r="E691" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A692" s="2" t="s">
-        <v>760</v>
-      </c>
+    </row>
+    <row r="692" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A692" s="2"/>
       <c r="B692" s="23"/>
-      <c r="E692" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A693" s="2" t="s">
-        <v>761</v>
-      </c>
+    </row>
+    <row r="693" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A693" s="2"/>
       <c r="B693" s="23"/>
-      <c r="E693" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A694" s="2" t="s">
-        <v>762</v>
-      </c>
+    </row>
+    <row r="694" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A694" s="2"/>
       <c r="B694" s="23"/>
-      <c r="E694" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A695" s="2" t="s">
-        <v>763</v>
-      </c>
+    </row>
+    <row r="695" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A695" s="2"/>
       <c r="B695" s="23"/>
-      <c r="E695" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="696" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A696" s="2" t="s">
-        <v>764</v>
-      </c>
+    </row>
+    <row r="696" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="2"/>
       <c r="B696" s="24"/>
       <c r="C696" s="25"/>
       <c r="D696" s="25"/>
-      <c r="E696" s="20">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E696" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3A1C6-3B74-444D-895B-C5236F8C9ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C40B9-CFE2-468D-870C-D95E316E0309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$696</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$696</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$695</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="522">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1486,6 +1486,117 @@
   </si>
   <si>
     <t>Ahmed Mahmoud Ali Mahmoud</t>
+  </si>
+  <si>
+    <t>DSS1368</t>
+  </si>
+  <si>
+    <t>MOHAMMED ALMOSTAFA MOHAMMED ELDAW</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Farag Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Abo Alhassan Mohamed Hassanen</t>
+  </si>
+  <si>
+    <t>DSS1369</t>
+  </si>
+  <si>
+    <t>DSS1370</t>
+  </si>
+  <si>
+    <t>DSS1371</t>
+  </si>
+  <si>
+    <t>DSS1372</t>
+  </si>
+  <si>
+    <t>DSS1373</t>
+  </si>
+  <si>
+    <t>DSS1374</t>
+  </si>
+  <si>
+    <t>DSS1375</t>
+  </si>
+  <si>
+    <t>DSS1376</t>
+  </si>
+  <si>
+    <t>DSS1377</t>
+  </si>
+  <si>
+    <t>DSS1378</t>
+  </si>
+  <si>
+    <t>DSS1379</t>
+  </si>
+  <si>
+    <t>DSS1380</t>
+  </si>
+  <si>
+    <t>DSS1381</t>
+  </si>
+  <si>
+    <t>DSS1382</t>
+  </si>
+  <si>
+    <t>DSS1383</t>
+  </si>
+  <si>
+    <t>DSS1384</t>
+  </si>
+  <si>
+    <t>DSS1385</t>
+  </si>
+  <si>
+    <t>DSS1386</t>
+  </si>
+  <si>
+    <t>DSS1387</t>
+  </si>
+  <si>
+    <t>DSS1388</t>
+  </si>
+  <si>
+    <t>DSS1389</t>
+  </si>
+  <si>
+    <t>DSS1390</t>
+  </si>
+  <si>
+    <t>DSS1391</t>
+  </si>
+  <si>
+    <t>DSS1392</t>
+  </si>
+  <si>
+    <t>RAMADAN HUSSEIN MOHAMED AWAD</t>
+  </si>
+  <si>
+    <t>DSS1393</t>
+  </si>
+  <si>
+    <t>DSS1394</t>
+  </si>
+  <si>
+    <t>DSS1395</t>
+  </si>
+  <si>
+    <t>DSS1396</t>
+  </si>
+  <si>
+    <t>DSS1397</t>
+  </si>
+  <si>
+    <t>DSS1398</t>
+  </si>
+  <si>
+    <t>DSS1399</t>
+  </si>
+  <si>
+    <t>DSS1400</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E696"/>
+  <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A356" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H361" sqref="H361"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A384" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F391" sqref="F391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7952,195 +8063,624 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
-      <c r="B369" s="23"/>
-    </row>
-    <row r="370" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
-      <c r="B370" s="23"/>
-    </row>
-    <row r="371" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
-      <c r="B371" s="23"/>
-    </row>
-    <row r="372" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
-      <c r="B372" s="23"/>
-    </row>
-    <row r="373" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
-      <c r="B373" s="23"/>
-    </row>
-    <row r="374" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
-      <c r="B374" s="23"/>
-    </row>
-    <row r="375" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="23"/>
-    </row>
-    <row r="376" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
-      <c r="B376" s="23"/>
-    </row>
-    <row r="377" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
-      <c r="B377" s="23"/>
-    </row>
-    <row r="378" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
-      <c r="B378" s="23"/>
-    </row>
-    <row r="379" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
-      <c r="B379" s="23"/>
-    </row>
-    <row r="380" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
-      <c r="B380" s="23"/>
-    </row>
-    <row r="381" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
-      <c r="B381" s="23"/>
-    </row>
-    <row r="382" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
-      <c r="B382" s="23"/>
-    </row>
-    <row r="383" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
-      <c r="B383" s="23"/>
-    </row>
-    <row r="384" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
-      <c r="B384" s="23"/>
-    </row>
-    <row r="385" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
-      <c r="B385" s="23"/>
-    </row>
-    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
-      <c r="B386" s="23"/>
-    </row>
-    <row r="387" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-      <c r="B387" s="23"/>
-    </row>
-    <row r="388" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-      <c r="B388" s="23"/>
-    </row>
-    <row r="389" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-      <c r="B389" s="23"/>
-    </row>
-    <row r="390" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
-      <c r="B390" s="23"/>
-    </row>
-    <row r="391" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
-      <c r="B391" s="23"/>
-    </row>
-    <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
-      <c r="B392" s="23"/>
-    </row>
-    <row r="393" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
-      <c r="B393" s="23"/>
-    </row>
-    <row r="394" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
-      <c r="B394" s="23"/>
-    </row>
-    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
-      <c r="B395" s="23"/>
-    </row>
-    <row r="396" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
-      <c r="B396" s="23"/>
-    </row>
-    <row r="397" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
-      <c r="B397" s="23"/>
-    </row>
-    <row r="398" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
-      <c r="B398" s="23"/>
-    </row>
-    <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
-      <c r="B399" s="23"/>
-    </row>
-    <row r="400" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
-      <c r="B400" s="23"/>
-    </row>
-    <row r="401" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
-      <c r="B401" s="23"/>
-    </row>
-    <row r="402" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A369" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D369" s="29">
+        <v>45517</v>
+      </c>
+      <c r="E369" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A370" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D370" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E370" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A371" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D371" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E371" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D372" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E372" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D373" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E373" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A374" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D374" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E374" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A375" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D375" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E375" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A376" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D376" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E376" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A377" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D377" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E377" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A378" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D378" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E378" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D379" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E379" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A380" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D380" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E380" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A381" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B381" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D381" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E381" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A382" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D382" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E382" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A383" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D383" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E383" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A384" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D384" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E384" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A385" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D385" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E385" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A386" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D386" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E386" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A387" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D387" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E387" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A388" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D388" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E388" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A389" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D389" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E389" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A390" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D390" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E390" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A391" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D391" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E391" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A392" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D392" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E392" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A393" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D393" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E393" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A394" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D394" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E394" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A395" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D395" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E395" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A396" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D396" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E396" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A397" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D397" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E397" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A398" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D398" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E398" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A399" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D399" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E399" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A400" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D400" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E400" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A401" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D401" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E401" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="23"/>
     </row>
-    <row r="403" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="23"/>
     </row>
-    <row r="404" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="23"/>
     </row>
-    <row r="405" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="23"/>
     </row>
-    <row r="406" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="23"/>
     </row>
-    <row r="407" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="23"/>
     </row>
-    <row r="408" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="23"/>
     </row>
-    <row r="409" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="23"/>
     </row>
-    <row r="410" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="23"/>
     </row>
-    <row r="411" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="23"/>
     </row>
-    <row r="412" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="23"/>
     </row>
-    <row r="413" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="23"/>
     </row>
-    <row r="414" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="23"/>
     </row>
-    <row r="415" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="23"/>
     </row>
-    <row r="416" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="23"/>
     </row>
@@ -9256,18 +9796,14 @@
       <c r="A694" s="2"/>
       <c r="B694" s="23"/>
     </row>
-    <row r="695" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
-      <c r="B695" s="23"/>
-    </row>
-    <row r="696" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A696" s="2"/>
-      <c r="B696" s="24"/>
-      <c r="C696" s="25"/>
-      <c r="D696" s="25"/>
+      <c r="B695" s="24"/>
+      <c r="C695" s="25"/>
+      <c r="D695" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E696" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E695" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C40B9-CFE2-468D-870C-D95E316E0309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D55DEE-7AC0-4AD6-8754-58A0CE48DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="531">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1597,6 +1597,33 @@
   </si>
   <si>
     <t>DSS1400</t>
+  </si>
+  <si>
+    <t>Sayed Marzouk Amin Ali</t>
+  </si>
+  <si>
+    <t>DSS1401</t>
+  </si>
+  <si>
+    <t>DSS1402</t>
+  </si>
+  <si>
+    <t>DSS1403</t>
+  </si>
+  <si>
+    <t>DSS1404</t>
+  </si>
+  <si>
+    <t>DSS1405</t>
+  </si>
+  <si>
+    <t>DSS1406</t>
+  </si>
+  <si>
+    <t>DSS1407</t>
+  </si>
+  <si>
+    <t>DSS1408</t>
   </si>
 </sst>
 </file>
@@ -2169,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A384" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A393" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D411" sqref="D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8625,36 +8652,140 @@
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
-      <c r="B402" s="23"/>
+      <c r="A402" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B402" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D402" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E402" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
-      <c r="B403" s="23"/>
+      <c r="A403" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D403" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E403" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
-      <c r="B404" s="23"/>
+      <c r="A404" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D404" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E404" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
-      <c r="B405" s="23"/>
+      <c r="A405" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D405" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E405" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
-      <c r="B406" s="23"/>
+      <c r="A406" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D406" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E406" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
-      <c r="B407" s="23"/>
+      <c r="A407" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B407" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D407" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E407" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
-      <c r="B408" s="23"/>
+      <c r="A408" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B408" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D408" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E408" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
-      <c r="B409" s="23"/>
+      <c r="A409" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D409" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E409" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D55DEE-7AC0-4AD6-8754-58A0CE48DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABF625-345B-40DC-A7A3-751EEDF85E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="537">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1624,13 +1624,31 @@
   </si>
   <si>
     <t>DSS1408</t>
+  </si>
+  <si>
+    <t>Ibrahem Nooreldein Mohamedtaha</t>
+  </si>
+  <si>
+    <t>DSS1409</t>
+  </si>
+  <si>
+    <t>DSS1410</t>
+  </si>
+  <si>
+    <t>MAHMOUD SHEHATA SAAD ABDELATY</t>
+  </si>
+  <si>
+    <t>Scaffold Competent Person/Inspector</t>
+  </si>
+  <si>
+    <t>Mohamed Gaber Mohamed ELmilegy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,8 +1698,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,6 +1728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1913,6 +1944,18 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A393" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D411" sqref="D411"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A284" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6705,10 +6748,18 @@
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="B287" s="23"/>
+      <c r="B287" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C287" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="D287" s="36">
+        <v>45549</v>
+      </c>
       <c r="E287" s="20">
         <v>1</v>
       </c>
@@ -8788,15 +8839,41 @@
       </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="23"/>
+      <c r="A410" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="D410" s="29">
+        <v>45549</v>
+      </c>
+      <c r="E410" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="B411" s="23"/>
+      <c r="A411" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D411" s="30">
+        <v>45549</v>
+      </c>
+      <c r="E411" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
+      <c r="A412" s="11"/>
       <c r="B412" s="23"/>
     </row>
     <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABF625-345B-40DC-A7A3-751EEDF85E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27F6E9-B31D-4A3D-8B24-CFD5DB848AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="549">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1642,6 +1642,42 @@
   </si>
   <si>
     <t>Mohamed Gaber Mohamed ELmilegy</t>
+  </si>
+  <si>
+    <t>Mahmoud Mohamed Mohamed Abdellah</t>
+  </si>
+  <si>
+    <t>DSS1411</t>
+  </si>
+  <si>
+    <t>DSS1412</t>
+  </si>
+  <si>
+    <t>DSS1413</t>
+  </si>
+  <si>
+    <t>DSS1414</t>
+  </si>
+  <si>
+    <t>DSS1415</t>
+  </si>
+  <si>
+    <t>DSS1416</t>
+  </si>
+  <si>
+    <t>DSS1417</t>
+  </si>
+  <si>
+    <t>DSS1418</t>
+  </si>
+  <si>
+    <t>Ahmed Rabie Mohamed Ali</t>
+  </si>
+  <si>
+    <t>DSS1419</t>
+  </si>
+  <si>
+    <t>DSS1431</t>
   </si>
 </sst>
 </file>
@@ -2239,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A284" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F280" sqref="F280"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A416" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D432" sqref="D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8873,88 +8909,220 @@
       </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="11"/>
-      <c r="B412" s="23"/>
+      <c r="A412" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D412" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E412" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="23"/>
+      <c r="A413" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C413" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D413" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E413" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="23"/>
+      <c r="A414" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D414" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E414" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="B415" s="23"/>
+      <c r="A415" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D415" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E415" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
-      <c r="B416" s="23"/>
-    </row>
-    <row r="417" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-      <c r="B417" s="23"/>
-    </row>
-    <row r="418" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="B418" s="23"/>
-    </row>
-    <row r="419" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
-      <c r="B419" s="23"/>
-    </row>
-    <row r="420" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
-      <c r="B420" s="23"/>
-    </row>
-    <row r="421" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
-      <c r="B421" s="23"/>
-    </row>
-    <row r="422" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
+      <c r="A416" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D416" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E416" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D417" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E417" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A418" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D418" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E418" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A419" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D419" s="29">
+        <v>45566</v>
+      </c>
+      <c r="E419" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A420" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D420" s="30">
+        <v>45578</v>
+      </c>
+      <c r="E420" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A421" s="11"/>
+      <c r="B421" s="11"/>
+      <c r="C421" s="11"/>
+      <c r="D421" s="30"/>
+    </row>
+    <row r="422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A422" s="11"/>
       <c r="B422" s="23"/>
     </row>
-    <row r="423" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
+    <row r="423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A423" s="11"/>
       <c r="B423" s="23"/>
     </row>
-    <row r="424" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
+    <row r="424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A424" s="11"/>
       <c r="B424" s="23"/>
     </row>
-    <row r="425" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
+    <row r="425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A425" s="11"/>
       <c r="B425" s="23"/>
     </row>
-    <row r="426" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
+    <row r="426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A426" s="11"/>
       <c r="B426" s="23"/>
     </row>
-    <row r="427" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
+    <row r="427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A427" s="11"/>
       <c r="B427" s="23"/>
     </row>
-    <row r="428" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
+    <row r="428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A428" s="11"/>
       <c r="B428" s="23"/>
     </row>
-    <row r="429" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
+    <row r="429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A429" s="11"/>
       <c r="B429" s="23"/>
     </row>
-    <row r="430" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
+    <row r="430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="11"/>
       <c r="B430" s="23"/>
     </row>
-    <row r="431" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
+    <row r="431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A431" s="11"/>
       <c r="B431" s="23"/>
     </row>
-    <row r="432" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
-      <c r="B432" s="23"/>
+    <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A432" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B432" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C432" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D432" s="30">
+        <v>45583</v>
+      </c>
+      <c r="E432" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="433" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
@@ -10015,8 +10183,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="70" max="16383" man="1"/>
+    <brk id="409" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27F6E9-B31D-4A3D-8B24-CFD5DB848AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DBEFC-4664-460A-BA6E-4254FCBB1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="558">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1678,6 +1678,33 @@
   </si>
   <si>
     <t>DSS1431</t>
+  </si>
+  <si>
+    <t>DSS1420</t>
+  </si>
+  <si>
+    <t>DSS1421</t>
+  </si>
+  <si>
+    <t>DSS1422</t>
+  </si>
+  <si>
+    <t>DSS1423</t>
+  </si>
+  <si>
+    <t>DSS1424</t>
+  </si>
+  <si>
+    <t>DSS1425</t>
+  </si>
+  <si>
+    <t>DSS1426</t>
+  </si>
+  <si>
+    <t>DSS1427</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelhalim Gabr Ibrahim</t>
   </si>
 </sst>
 </file>
@@ -2275,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A416" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D432" sqref="D432"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A413" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G425" sqref="G425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9062,38 +9089,140 @@
       </c>
     </row>
     <row r="421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A421" s="11"/>
-      <c r="B421" s="11"/>
-      <c r="C421" s="11"/>
-      <c r="D421" s="30"/>
+      <c r="A421" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B421" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D421" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E421" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="11"/>
-      <c r="B422" s="23"/>
+      <c r="A422" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B422" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D422" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E422" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A423" s="11"/>
-      <c r="B423" s="23"/>
+      <c r="A423" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B423" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C423" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D423" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E423" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A424" s="11"/>
-      <c r="B424" s="23"/>
+      <c r="A424" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B424" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D424" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E424" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="11"/>
-      <c r="B425" s="23"/>
+      <c r="A425" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B425" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D425" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E425" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A426" s="11"/>
-      <c r="B426" s="23"/>
+      <c r="A426" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D426" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E426" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="11"/>
-      <c r="B427" s="23"/>
+      <c r="A427" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D427" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E427" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="11"/>
-      <c r="B428" s="23"/>
+      <c r="A428" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D428" s="29">
+        <v>44470</v>
+      </c>
+      <c r="E428" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="11"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DBEFC-4664-460A-BA6E-4254FCBB1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA4CCE-AD34-485F-A01F-CA11B8E72987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="561">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1705,6 +1705,15 @@
   </si>
   <si>
     <t>Mahmoud Abdelhalim Gabr Ibrahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Abdallah Mohamed Abdallah </t>
+  </si>
+  <si>
+    <t>DSS1428</t>
+  </si>
+  <si>
+    <t>DSS1434</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2018,6 +2027,21 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2302,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A413" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G425" sqref="G425"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A421" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9225,16 +9249,33 @@
       </c>
     </row>
     <row r="429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="11"/>
-      <c r="B429" s="23"/>
+      <c r="A429" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B429" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C429" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D429" s="30">
+        <v>45603</v>
+      </c>
+      <c r="E429" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="11"/>
-      <c r="B430" s="23"/>
+      <c r="A430" s="38"/>
+      <c r="B430" s="39"/>
+      <c r="C430" s="39"/>
+      <c r="D430" s="40"/>
     </row>
     <row r="431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="11"/>
-      <c r="B431" s="23"/>
+      <c r="A431" s="38"/>
+      <c r="B431" s="41"/>
+      <c r="C431" s="42"/>
+      <c r="D431" s="42"/>
     </row>
     <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
@@ -9253,67 +9294,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-      <c r="B433" s="23"/>
-    </row>
-    <row r="434" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
+    <row r="433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A433" s="38"/>
+      <c r="B433" s="41"/>
+      <c r="C433" s="42"/>
+      <c r="D433" s="42"/>
+    </row>
+    <row r="434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A434" s="38"/>
       <c r="B434" s="23"/>
     </row>
-    <row r="435" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
-      <c r="B435" s="23"/>
-    </row>
-    <row r="436" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A435" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B435" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="C435" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="D435" s="30">
+        <v>45606</v>
+      </c>
+      <c r="E435" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="23"/>
     </row>
-    <row r="437" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="23"/>
     </row>
-    <row r="438" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="23"/>
     </row>
-    <row r="439" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="23"/>
     </row>
-    <row r="440" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="23"/>
     </row>
-    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="23"/>
     </row>
-    <row r="442" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="23"/>
     </row>
-    <row r="443" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="23"/>
     </row>
-    <row r="444" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="23"/>
     </row>
-    <row r="445" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="23"/>
     </row>
-    <row r="446" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="23"/>
     </row>
-    <row r="447" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="23"/>
     </row>
-    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="23"/>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA4CCE-AD34-485F-A01F-CA11B8E72987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF1A3A2-7415-46B0-BA1E-91C38BE3D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="570">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1714,6 +1714,33 @@
   </si>
   <si>
     <t>DSS1434</t>
+  </si>
+  <si>
+    <t>Mohamed Khairy Elsayed Elmasry</t>
+  </si>
+  <si>
+    <t>DSS1429</t>
+  </si>
+  <si>
+    <t>DSS1430</t>
+  </si>
+  <si>
+    <t>DSS1432</t>
+  </si>
+  <si>
+    <t>DSS1433</t>
+  </si>
+  <si>
+    <t>DSS1435</t>
+  </si>
+  <si>
+    <t>DSS1436</t>
+  </si>
+  <si>
+    <t>DSS1437</t>
+  </si>
+  <si>
+    <t>DSS1438</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2027,21 +2054,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2327,7 +2339,7 @@
   <dimension ref="A1:E695"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A421" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+      <selection activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9266,16 +9278,38 @@
       </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="38"/>
-      <c r="B430" s="39"/>
-      <c r="C430" s="39"/>
-      <c r="D430" s="40"/>
+      <c r="A430" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D430" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E430" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="38"/>
-      <c r="B431" s="41"/>
-      <c r="C431" s="42"/>
-      <c r="D431" s="42"/>
+      <c r="A431" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D431" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E431" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
@@ -9295,17 +9329,41 @@
       </c>
     </row>
     <row r="433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A433" s="38"/>
-      <c r="B433" s="41"/>
-      <c r="C433" s="42"/>
-      <c r="D433" s="42"/>
+      <c r="A433" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D433" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E433" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="38"/>
-      <c r="B434" s="23"/>
+      <c r="A434" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D434" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E434" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A435" s="30" t="s">
+      <c r="A435" s="11" t="s">
         <v>560</v>
       </c>
       <c r="B435" s="30" t="s">
@@ -9322,20 +9380,72 @@
       </c>
     </row>
     <row r="436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
-      <c r="B436" s="23"/>
+      <c r="A436" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D436" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E436" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-      <c r="B437" s="23"/>
+      <c r="A437" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D437" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E437" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-      <c r="B438" s="23"/>
+      <c r="A438" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D438" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E438" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-      <c r="B439" s="23"/>
+      <c r="A439" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D439" s="26">
+        <v>45566</v>
+      </c>
+      <c r="E439" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF1A3A2-7415-46B0-BA1E-91C38BE3D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D394F-F070-450F-B1AC-7245B267E6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="607">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1741,6 +1741,117 @@
   </si>
   <si>
     <t>DSS1438</t>
+  </si>
+  <si>
+    <t>DSS1439</t>
+  </si>
+  <si>
+    <t>DSS1440</t>
+  </si>
+  <si>
+    <t>DSS1441</t>
+  </si>
+  <si>
+    <t>DSS1442</t>
+  </si>
+  <si>
+    <t>DSS1443</t>
+  </si>
+  <si>
+    <t>DSS1444</t>
+  </si>
+  <si>
+    <t>DSS1445</t>
+  </si>
+  <si>
+    <t>DSS1446</t>
+  </si>
+  <si>
+    <t>DSS1447</t>
+  </si>
+  <si>
+    <t>DSS1448</t>
+  </si>
+  <si>
+    <t>DSS1449</t>
+  </si>
+  <si>
+    <t>DSS1450</t>
+  </si>
+  <si>
+    <t>DSS1451</t>
+  </si>
+  <si>
+    <t>DSS1452</t>
+  </si>
+  <si>
+    <t>DSS1453</t>
+  </si>
+  <si>
+    <t>DSS1454</t>
+  </si>
+  <si>
+    <t>DSS1455</t>
+  </si>
+  <si>
+    <t>DSS1456</t>
+  </si>
+  <si>
+    <t>DSS1457</t>
+  </si>
+  <si>
+    <t>DSS1458</t>
+  </si>
+  <si>
+    <t>DSS1459</t>
+  </si>
+  <si>
+    <t>DSS1460</t>
+  </si>
+  <si>
+    <t>DSS1461</t>
+  </si>
+  <si>
+    <t>DSS1462</t>
+  </si>
+  <si>
+    <t>DSS1463</t>
+  </si>
+  <si>
+    <t>DSS1464</t>
+  </si>
+  <si>
+    <t>DSS1465</t>
+  </si>
+  <si>
+    <t>DSS1466</t>
+  </si>
+  <si>
+    <t>Khairy Gomaa Hussain Ali</t>
+  </si>
+  <si>
+    <t>04-11-2024</t>
+  </si>
+  <si>
+    <t>09-11-2024</t>
+  </si>
+  <si>
+    <t>06-11-2024</t>
+  </si>
+  <si>
+    <t>01-11-2024</t>
+  </si>
+  <si>
+    <t>02-11-2024</t>
+  </si>
+  <si>
+    <t>07-11-2024</t>
+  </si>
+  <si>
+    <t>08-11-2024</t>
+  </si>
+  <si>
+    <t>03-11-2024</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +2054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2055,6 +2166,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2338,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A421" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A445" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B453" sqref="B453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,115 +9565,413 @@
       </c>
     </row>
     <row r="440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="23"/>
+      <c r="A440" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B440" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D440" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E440" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="23"/>
+      <c r="A441" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B441" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D441" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E441" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
-      <c r="B442" s="23"/>
+      <c r="A442" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D442" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E442" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
-      <c r="B443" s="23"/>
+      <c r="A443" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B443" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C443" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D443" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E443" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
-      <c r="B444" s="23"/>
+      <c r="A444" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B444" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C444" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D444" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E444" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="23"/>
+      <c r="A445" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C445" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D445" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E445" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="23"/>
+      <c r="A446" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B446" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C446" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D446" s="30">
+        <v>45566</v>
+      </c>
+      <c r="E446" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
-      <c r="B447" s="23"/>
+      <c r="A447" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D447" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E447" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-      <c r="B448" s="23"/>
-    </row>
-    <row r="449" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-      <c r="B449" s="23"/>
-    </row>
-    <row r="450" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="23"/>
-    </row>
-    <row r="451" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="23"/>
-    </row>
-    <row r="452" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
-      <c r="B452" s="23"/>
-    </row>
-    <row r="453" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
-      <c r="B453" s="23"/>
-    </row>
-    <row r="454" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
-      <c r="B454" s="23"/>
-    </row>
-    <row r="455" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
-      <c r="B455" s="23"/>
-    </row>
-    <row r="456" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
-      <c r="B456" s="23"/>
-    </row>
-    <row r="457" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
-      <c r="B457" s="23"/>
-    </row>
-    <row r="458" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
-      <c r="B458" s="23"/>
-    </row>
-    <row r="459" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
-      <c r="B459" s="23"/>
-    </row>
-    <row r="460" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
-      <c r="B460" s="23"/>
-    </row>
-    <row r="461" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
-      <c r="B461" s="23"/>
-    </row>
-    <row r="462" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
+      <c r="A448" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D448" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E448" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A449" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D449" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="E449" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A450" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D450" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="E450" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A451" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D451" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E451" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A452" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D452" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="E452" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A453" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D453" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="E453" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A454" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B454" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D454" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="E454" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A455" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B455" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C455" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D455" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E455" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A456" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B456" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D456" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E456" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A457" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B457" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C457" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D457" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E457" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A458" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B458" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C458" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D458" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E458" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B459" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C459" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D459" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E459" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A460" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B460" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C460" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D460" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E460" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A461" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B461" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C461" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D461" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E461" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A462" s="7" t="s">
+        <v>592</v>
+      </c>
       <c r="B462" s="23"/>
     </row>
-    <row r="463" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
+    <row r="463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
+        <v>593</v>
+      </c>
       <c r="B463" s="23"/>
     </row>
-    <row r="464" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
+    <row r="464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
+        <v>594</v>
+      </c>
       <c r="B464" s="23"/>
     </row>
     <row r="465" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
+      <c r="A465" s="7" t="s">
+        <v>595</v>
+      </c>
       <c r="B465" s="23"/>
     </row>
     <row r="466" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
+      <c r="A466" s="7" t="s">
+        <v>596</v>
+      </c>
       <c r="B466" s="23"/>
     </row>
     <row r="467" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
+      <c r="A467" s="7" t="s">
+        <v>597</v>
+      </c>
       <c r="B467" s="23"/>
     </row>
     <row r="468" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D394F-F070-450F-B1AC-7245B267E6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780F531F-7CE0-4D91-8A41-3531997EA4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="618">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1852,6 +1852,39 @@
   </si>
   <si>
     <t>03-11-2024</t>
+  </si>
+  <si>
+    <t>FAWZY ABDELKADER ALI ZAHRA</t>
+  </si>
+  <si>
+    <t>DSS1467</t>
+  </si>
+  <si>
+    <t>DSS1468</t>
+  </si>
+  <si>
+    <t>04-10-2024</t>
+  </si>
+  <si>
+    <t>09-10-2024</t>
+  </si>
+  <si>
+    <t>06-10-2024</t>
+  </si>
+  <si>
+    <t>03-10-2024</t>
+  </si>
+  <si>
+    <t>01-10-2024</t>
+  </si>
+  <si>
+    <t>02-10-2024</t>
+  </si>
+  <si>
+    <t>07-10-2024</t>
+  </si>
+  <si>
+    <t>08-10-2024</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2172,6 +2205,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2455,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A445" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B453" sqref="B453"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A457" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B464" sqref="B464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9939,90 +9975,182 @@
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="7" t="s">
+      <c r="A462" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B462" s="23"/>
+      <c r="B462" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D462" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="E462" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A463" s="7" t="s">
+      <c r="A463" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B463" s="23"/>
+      <c r="B463" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D463" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="E463" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="7" t="s">
+      <c r="A464" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B464" s="23"/>
-    </row>
-    <row r="465" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A465" s="7" t="s">
+      <c r="B464" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D464" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="E464" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A465" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B465" s="23"/>
-    </row>
-    <row r="466" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A466" s="7" t="s">
+      <c r="B465" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D465" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="E465" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A466" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B466" s="23"/>
-    </row>
-    <row r="467" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A467" s="7" t="s">
+      <c r="B466" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D466" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="E466" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A467" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B467" s="23"/>
-    </row>
-    <row r="468" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="B468" s="23"/>
-    </row>
-    <row r="469" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-      <c r="B469" s="23"/>
-    </row>
-    <row r="470" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B467" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D467" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="E467" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A468" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B468" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C468" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D468" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="E468" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B469" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D469" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="E469" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="23"/>
     </row>
-    <row r="471" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="23"/>
     </row>
-    <row r="472" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="23"/>
     </row>
-    <row r="473" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="23"/>
     </row>
-    <row r="474" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="23"/>
     </row>
-    <row r="475" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="23"/>
     </row>
-    <row r="476" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="23"/>
     </row>
-    <row r="477" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="23"/>
     </row>
-    <row r="478" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="23"/>
     </row>
-    <row r="479" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="23"/>
     </row>
-    <row r="480" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="23"/>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780F531F-7CE0-4D91-8A41-3531997EA4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB104A55-0AB9-4219-9729-9B6A49170431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="636">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1885,6 +1885,60 @@
   </si>
   <si>
     <t>08-10-2024</t>
+  </si>
+  <si>
+    <t>Abdallah Kasem Awad Mahmoud</t>
+  </si>
+  <si>
+    <t>DSS1469</t>
+  </si>
+  <si>
+    <t>DSS1470</t>
+  </si>
+  <si>
+    <t>DSS1471</t>
+  </si>
+  <si>
+    <t>DSS1472</t>
+  </si>
+  <si>
+    <t>DSS1473</t>
+  </si>
+  <si>
+    <t>DSS1474</t>
+  </si>
+  <si>
+    <t>DSS1475</t>
+  </si>
+  <si>
+    <t>DSS1476</t>
+  </si>
+  <si>
+    <t>Ismail Abdulaal Ismail Attia Elmelegy</t>
+  </si>
+  <si>
+    <t>DSS1477</t>
+  </si>
+  <si>
+    <t>DSS1478</t>
+  </si>
+  <si>
+    <t>DSS1479</t>
+  </si>
+  <si>
+    <t>DSS1480</t>
+  </si>
+  <si>
+    <t>DSS1481</t>
+  </si>
+  <si>
+    <t>DSS1482</t>
+  </si>
+  <si>
+    <t>DSS1483</t>
+  </si>
+  <si>
+    <t>DSS1484</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2205,9 +2259,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2491,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A457" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B464" sqref="B464"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A471" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9978,7 +10029,7 @@
       <c r="A462" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B462" s="40" t="s">
+      <c r="B462" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C462" s="10" t="s">
@@ -9995,7 +10046,7 @@
       <c r="A463" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B463" s="40" t="s">
+      <c r="B463" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C463" s="10" t="s">
@@ -10012,7 +10063,7 @@
       <c r="A464" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B464" s="40" t="s">
+      <c r="B464" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C464" s="10" t="s">
@@ -10029,7 +10080,7 @@
       <c r="A465" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B465" s="40" t="s">
+      <c r="B465" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C465" s="10" t="s">
@@ -10046,7 +10097,7 @@
       <c r="A466" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B466" s="40" t="s">
+      <c r="B466" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C466" s="10" t="s">
@@ -10063,7 +10114,7 @@
       <c r="A467" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B467" s="40" t="s">
+      <c r="B467" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C467" s="10" t="s">
@@ -10080,7 +10131,7 @@
       <c r="A468" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B468" s="40" t="s">
+      <c r="B468" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C468" s="10" t="s">
@@ -10097,7 +10148,7 @@
       <c r="A469" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B469" s="40" t="s">
+      <c r="B469" s="10" t="s">
         <v>607</v>
       </c>
       <c r="C469" s="10" t="s">
@@ -10111,110 +10162,318 @@
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
-      <c r="B470" s="23"/>
+      <c r="A470" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B470" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="E470" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
-      <c r="B471" s="23"/>
+      <c r="A471" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B471" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C471" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D471" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E471" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
-      <c r="B472" s="23"/>
+      <c r="A472" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B472" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D472" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E472" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
-      <c r="B473" s="23"/>
+      <c r="A473" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B473" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D473" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E473" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
-      <c r="B474" s="23"/>
+      <c r="A474" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B474" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D474" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E474" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-      <c r="B475" s="23"/>
+      <c r="A475" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B475" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C475" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D475" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E475" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="23"/>
+      <c r="A476" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="B476" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D476" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E476" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="23"/>
+      <c r="A477" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B477" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D477" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E477" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-      <c r="B478" s="23"/>
+      <c r="A478" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D478" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E478" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-      <c r="B479" s="23"/>
+      <c r="A479" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D479" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E479" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-      <c r="B480" s="23"/>
-    </row>
-    <row r="481" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-      <c r="B481" s="23"/>
-    </row>
-    <row r="482" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-      <c r="B482" s="23"/>
-    </row>
-    <row r="483" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
-      <c r="B483" s="23"/>
-    </row>
-    <row r="484" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-      <c r="B484" s="23"/>
-    </row>
-    <row r="485" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
-      <c r="B485" s="23"/>
-    </row>
-    <row r="486" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A480" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D480" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="E480" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A481" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D481" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="E481" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A482" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D482" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="E482" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A483" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D483" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E483" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A484" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D484" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="E484" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D485" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="E485" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="23"/>
     </row>
-    <row r="487" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="23"/>
     </row>
-    <row r="488" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="23"/>
     </row>
-    <row r="489" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="23"/>
     </row>
-    <row r="490" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="23"/>
     </row>
-    <row r="491" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="23"/>
     </row>
-    <row r="492" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="23"/>
     </row>
-    <row r="493" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="23"/>
     </row>
-    <row r="494" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="23"/>
     </row>
-    <row r="495" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="23"/>
     </row>
-    <row r="496" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="23"/>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB104A55-0AB9-4219-9729-9B6A49170431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8999CB-452E-4D49-BC1E-07E6FF456BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="719">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1939,6 +1939,255 @@
   </si>
   <si>
     <t>DSS1484</t>
+  </si>
+  <si>
+    <t>Mohamed Samy Sediek Almorsy</t>
+  </si>
+  <si>
+    <t>DSS1485</t>
+  </si>
+  <si>
+    <t>DSS1486</t>
+  </si>
+  <si>
+    <t>DSS1487</t>
+  </si>
+  <si>
+    <t>DSS1488</t>
+  </si>
+  <si>
+    <t>DSS1489</t>
+  </si>
+  <si>
+    <t>DSS1490</t>
+  </si>
+  <si>
+    <t>DSS1491</t>
+  </si>
+  <si>
+    <t>DSS1492</t>
+  </si>
+  <si>
+    <t>DSS1493</t>
+  </si>
+  <si>
+    <t>DSS1494</t>
+  </si>
+  <si>
+    <t>DSS1495</t>
+  </si>
+  <si>
+    <t>DSS1496</t>
+  </si>
+  <si>
+    <t>DSS1497</t>
+  </si>
+  <si>
+    <t>DSS1498</t>
+  </si>
+  <si>
+    <t>DSS1499</t>
+  </si>
+  <si>
+    <t>DSS1500</t>
+  </si>
+  <si>
+    <t>DSS1501</t>
+  </si>
+  <si>
+    <t>DSS1502</t>
+  </si>
+  <si>
+    <t>DSS1503</t>
+  </si>
+  <si>
+    <t>DSS1504</t>
+  </si>
+  <si>
+    <t>DSS1505</t>
+  </si>
+  <si>
+    <t>DSS1506</t>
+  </si>
+  <si>
+    <t>DSS1507</t>
+  </si>
+  <si>
+    <t>DSS1508</t>
+  </si>
+  <si>
+    <t>DSS1509</t>
+  </si>
+  <si>
+    <t>DSS1510</t>
+  </si>
+  <si>
+    <t>DSS1511</t>
+  </si>
+  <si>
+    <t>DSS1512</t>
+  </si>
+  <si>
+    <t>DSS1513</t>
+  </si>
+  <si>
+    <t>DSS1514</t>
+  </si>
+  <si>
+    <t>DSS1515</t>
+  </si>
+  <si>
+    <t>DSS1516</t>
+  </si>
+  <si>
+    <t>DSS1517</t>
+  </si>
+  <si>
+    <t>DSS1518</t>
+  </si>
+  <si>
+    <t>DSS1519</t>
+  </si>
+  <si>
+    <t>DSS1520</t>
+  </si>
+  <si>
+    <t>DSS1521</t>
+  </si>
+  <si>
+    <t>DSS1522</t>
+  </si>
+  <si>
+    <t>DSS1523</t>
+  </si>
+  <si>
+    <t>DSS1524</t>
+  </si>
+  <si>
+    <t>DSS1525</t>
+  </si>
+  <si>
+    <t>DSS1526</t>
+  </si>
+  <si>
+    <t>DSS1527</t>
+  </si>
+  <si>
+    <t>DSS1528</t>
+  </si>
+  <si>
+    <t>DSS1529</t>
+  </si>
+  <si>
+    <t>DSS1530</t>
+  </si>
+  <si>
+    <t>DSS1531</t>
+  </si>
+  <si>
+    <t>DSS1532</t>
+  </si>
+  <si>
+    <t>DSS1533</t>
+  </si>
+  <si>
+    <t>DSS1534</t>
+  </si>
+  <si>
+    <t>DSS1535</t>
+  </si>
+  <si>
+    <t>DSS1536</t>
+  </si>
+  <si>
+    <t>DSS1537</t>
+  </si>
+  <si>
+    <t>DSS1538</t>
+  </si>
+  <si>
+    <t>DSS1539</t>
+  </si>
+  <si>
+    <t>DSS1540</t>
+  </si>
+  <si>
+    <t>DSS1541</t>
+  </si>
+  <si>
+    <t>DSS1542</t>
+  </si>
+  <si>
+    <t>DSS1543</t>
+  </si>
+  <si>
+    <t>DSS1544</t>
+  </si>
+  <si>
+    <t>DSS1545</t>
+  </si>
+  <si>
+    <t>DSS1546</t>
+  </si>
+  <si>
+    <t>DSS1547</t>
+  </si>
+  <si>
+    <t>DSS1548</t>
+  </si>
+  <si>
+    <t>DSS1549</t>
+  </si>
+  <si>
+    <t>DSS1550</t>
+  </si>
+  <si>
+    <t>DSS1551</t>
+  </si>
+  <si>
+    <t>DSS1552</t>
+  </si>
+  <si>
+    <t>DSS1553</t>
+  </si>
+  <si>
+    <t>DSS1554</t>
+  </si>
+  <si>
+    <t>DSS1555</t>
+  </si>
+  <si>
+    <t>DSS1556</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelsalam Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>ISLAM HESHAM ELMANDOH YOUSSEF</t>
+  </si>
+  <si>
+    <t>MAHMOUD  ZAROUK ZAWAK  ABDELRAHEM</t>
+  </si>
+  <si>
+    <t>Yusuf Bedair AbdElbaset Mohammad</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdel Rahman Al-Sayed Hassan</t>
+  </si>
+  <si>
+    <t>15-10-2024</t>
+  </si>
+  <si>
+    <t>ALi Ahmed Mohamed ALi</t>
+  </si>
+  <si>
+    <t>Kirolos Emad Sadiq</t>
+  </si>
+  <si>
+    <t>10-11-2024</t>
+  </si>
+  <si>
+    <t>05-11-2024</t>
   </si>
 </sst>
 </file>
@@ -2542,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A471" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C490" sqref="C490"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A521" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G528" sqref="G528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10434,291 +10683,1029 @@
       </c>
     </row>
     <row r="486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
-      <c r="B486" s="23"/>
+      <c r="A486" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B486" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C486" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D486" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="E486" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
-      <c r="B487" s="23"/>
+      <c r="A487" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B487" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C487" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D487" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="E487" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-      <c r="B488" s="23"/>
+      <c r="A488" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B488" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D488" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="E488" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
-      <c r="B489" s="23"/>
+      <c r="A489" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B489" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D489" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="E489" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
-      <c r="B490" s="23"/>
+      <c r="A490" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B490" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D490" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="E490" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
-      <c r="B491" s="23"/>
+      <c r="A491" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B491" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C491" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D491" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="E491" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
-      <c r="B492" s="23"/>
+      <c r="A492" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B492" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D492" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="E492" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-      <c r="B493" s="23"/>
+      <c r="A493" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B493" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D493" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="E493" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-      <c r="B494" s="23"/>
+      <c r="A494" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B494" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D494" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="E494" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-      <c r="B495" s="23"/>
+      <c r="A495" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D495" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="E495" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="23"/>
-    </row>
-    <row r="497" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="23"/>
-    </row>
-    <row r="498" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="23"/>
-    </row>
-    <row r="499" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
-      <c r="B499" s="23"/>
-    </row>
-    <row r="500" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
-      <c r="B500" s="23"/>
-    </row>
-    <row r="501" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
-      <c r="B501" s="23"/>
-    </row>
-    <row r="502" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A502" s="2"/>
-      <c r="B502" s="23"/>
-    </row>
-    <row r="503" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A503" s="2"/>
-      <c r="B503" s="23"/>
-    </row>
-    <row r="504" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A504" s="2"/>
-      <c r="B504" s="23"/>
-    </row>
-    <row r="505" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
-      <c r="B505" s="23"/>
-    </row>
-    <row r="506" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
-      <c r="B506" s="23"/>
-    </row>
-    <row r="507" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
-      <c r="B507" s="23"/>
-    </row>
-    <row r="508" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
-      <c r="B508" s="23"/>
-    </row>
-    <row r="509" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
-      <c r="B509" s="23"/>
-    </row>
-    <row r="510" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
-      <c r="B510" s="23"/>
-    </row>
-    <row r="511" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
-      <c r="B511" s="23"/>
-    </row>
-    <row r="512" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
-      <c r="B512" s="23"/>
-    </row>
-    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
-      <c r="B513" s="23"/>
-    </row>
-    <row r="514" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-      <c r="B514" s="23"/>
-    </row>
-    <row r="515" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
-      <c r="B515" s="23"/>
-    </row>
-    <row r="516" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
-      <c r="B516" s="23"/>
-    </row>
-    <row r="517" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
-      <c r="B517" s="23"/>
-    </row>
-    <row r="518" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
-      <c r="B518" s="23"/>
-    </row>
-    <row r="519" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
-      <c r="B519" s="23"/>
-    </row>
-    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-      <c r="B520" s="23"/>
-    </row>
-    <row r="521" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
-      <c r="B521" s="23"/>
-    </row>
-    <row r="522" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
-      <c r="B522" s="23"/>
-    </row>
-    <row r="523" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
-      <c r="B523" s="23"/>
-    </row>
-    <row r="524" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
-      <c r="B524" s="23"/>
-    </row>
-    <row r="525" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
-      <c r="B525" s="23"/>
-    </row>
-    <row r="526" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-      <c r="B526" s="23"/>
-    </row>
-    <row r="527" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
-      <c r="B527" s="23"/>
-    </row>
-    <row r="528" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
-      <c r="B528" s="23"/>
-    </row>
-    <row r="529" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
-      <c r="B529" s="23"/>
-    </row>
-    <row r="530" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
-      <c r="B530" s="23"/>
-    </row>
-    <row r="531" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
-      <c r="B531" s="23"/>
-    </row>
-    <row r="532" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
-      <c r="B532" s="23"/>
-    </row>
-    <row r="533" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
-      <c r="B533" s="23"/>
-    </row>
-    <row r="534" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
-      <c r="B534" s="23"/>
-    </row>
-    <row r="535" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
-      <c r="B535" s="23"/>
-    </row>
-    <row r="536" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
-      <c r="B536" s="23"/>
-    </row>
-    <row r="537" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
-      <c r="B537" s="23"/>
-    </row>
-    <row r="538" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
-      <c r="B538" s="23"/>
-    </row>
-    <row r="539" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
-      <c r="B539" s="23"/>
-    </row>
-    <row r="540" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
+      <c r="A496" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B496" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D496" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="E496" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B497" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D497" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="E497" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D498" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="E498" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D499" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="E499" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D500" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="E500" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D501" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="E501" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A502" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C502" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D502" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="E502" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A503" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B503" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C503" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D503" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E503" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A504" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C504" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D504" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E504" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A505" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B505" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C505" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D505" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E505" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A506" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C506" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D506" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E506" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A507" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B507" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C507" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D507" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E507" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A508" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B508" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C508" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D508" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E508" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A509" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C509" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D509" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E509" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A510" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D510" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E510" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A511" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D511" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E511" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A512" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D512" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="E512" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A513" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D513" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="E513" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A514" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D514" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="E514" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A515" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D515" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E515" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A516" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D516" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="E516" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A517" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B517" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D517" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="E517" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A518" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B518" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C518" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D518" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="E518" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A519" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B519" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C519" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D519" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="E519" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A520" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B520" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C520" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D520" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="E520" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A521" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D521" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="E521" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A522" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D522" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="E522" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A523" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D523" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="E523" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A524" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B524" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C524" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="E524" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A525" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B525" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C525" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D525" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="E525" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A526" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B526" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C526" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D526" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E526" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A527" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B527" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C527" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D527" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E527" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A528" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="B528" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C528" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D528" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E528" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A529" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B529" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C529" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D529" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E529" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A530" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B530" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C530" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D530" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E530" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A531" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B531" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C531" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D531" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E531" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A532" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D532" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="E532" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A533" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D533" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="E533" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A534" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C534" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D534" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="E534" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A535" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D535" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="E535" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A536" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D536" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="E536" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A537" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D537" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E537" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A538" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D538" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="E538" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A539" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D539" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="E539" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A540" s="10" t="s">
+        <v>691</v>
+      </c>
       <c r="B540" s="23"/>
     </row>
-    <row r="541" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
+    <row r="541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A541" s="10" t="s">
+        <v>692</v>
+      </c>
       <c r="B541" s="23"/>
     </row>
-    <row r="542" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
+    <row r="542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A542" s="10" t="s">
+        <v>693</v>
+      </c>
       <c r="B542" s="23"/>
     </row>
-    <row r="543" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A543" s="2"/>
+    <row r="543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A543" s="10" t="s">
+        <v>694</v>
+      </c>
       <c r="B543" s="23"/>
     </row>
-    <row r="544" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A544" s="2"/>
+    <row r="544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A544" s="10" t="s">
+        <v>695</v>
+      </c>
       <c r="B544" s="23"/>
     </row>
     <row r="545" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A545" s="2"/>
+      <c r="A545" s="10" t="s">
+        <v>696</v>
+      </c>
       <c r="B545" s="23"/>
     </row>
     <row r="546" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A546" s="2"/>
+      <c r="A546" s="10" t="s">
+        <v>697</v>
+      </c>
       <c r="B546" s="23"/>
     </row>
     <row r="547" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A547" s="2"/>
+      <c r="A547" s="10" t="s">
+        <v>698</v>
+      </c>
       <c r="B547" s="23"/>
     </row>
     <row r="548" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="2"/>
+      <c r="A548" s="10" t="s">
+        <v>699</v>
+      </c>
       <c r="B548" s="23"/>
     </row>
     <row r="549" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A549" s="2"/>
+      <c r="A549" s="10" t="s">
+        <v>700</v>
+      </c>
       <c r="B549" s="23"/>
     </row>
     <row r="550" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A550" s="2"/>
+      <c r="A550" s="10" t="s">
+        <v>701</v>
+      </c>
       <c r="B550" s="23"/>
     </row>
     <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
+      <c r="A551" s="10" t="s">
+        <v>702</v>
+      </c>
       <c r="B551" s="23"/>
     </row>
     <row r="552" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
+      <c r="A552" s="10" t="s">
+        <v>703</v>
+      </c>
       <c r="B552" s="23"/>
     </row>
     <row r="553" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
+      <c r="A553" s="10" t="s">
+        <v>704</v>
+      </c>
       <c r="B553" s="23"/>
     </row>
     <row r="554" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
+      <c r="A554" s="10" t="s">
+        <v>705</v>
+      </c>
       <c r="B554" s="23"/>
     </row>
     <row r="555" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
+      <c r="A555" s="10" t="s">
+        <v>706</v>
+      </c>
       <c r="B555" s="23"/>
     </row>
     <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
+      <c r="A556" s="10" t="s">
+        <v>707</v>
+      </c>
       <c r="B556" s="23"/>
     </row>
     <row r="557" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
+      <c r="A557" s="10" t="s">
+        <v>708</v>
+      </c>
       <c r="B557" s="23"/>
     </row>
     <row r="558" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -11280,9 +12267,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
+    <brk id="493" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8999CB-452E-4D49-BC1E-07E6FF456BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE84454-A2E7-40E2-B92F-9CF3F64A080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="720">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2188,6 +2188,9 @@
   </si>
   <si>
     <t>05-11-2024</t>
+  </si>
+  <si>
+    <t>Islam Abdelazim Mahmoud Ahmed</t>
   </si>
 </sst>
 </file>
@@ -2791,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A521" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G528" sqref="G528"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A530" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H539" sqref="H539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11601,122 +11604,210 @@
       </c>
     </row>
     <row r="540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A540" s="10" t="s">
+      <c r="A540" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B540" s="23"/>
+      <c r="B540" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C540" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D540" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="E540" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A541" s="10" t="s">
+      <c r="A541" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="B541" s="23"/>
+      <c r="B541" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C541" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D541" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="E541" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="10" t="s">
+      <c r="A542" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="B542" s="23"/>
+      <c r="B542" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C542" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D542" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E542" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A543" s="10" t="s">
+      <c r="A543" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="B543" s="23"/>
+      <c r="B543" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C543" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D543" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E543" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A544" s="10" t="s">
+      <c r="A544" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="B544" s="23"/>
-    </row>
-    <row r="545" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A545" s="10" t="s">
+      <c r="B544" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C544" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D544" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E544" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A545" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="B545" s="23"/>
-    </row>
-    <row r="546" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A546" s="10" t="s">
+      <c r="B545" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C545" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D545" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E545" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A546" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="B546" s="23"/>
-    </row>
-    <row r="547" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A547" s="10" t="s">
+      <c r="B546" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D546" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E546" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A547" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="B547" s="23"/>
-    </row>
-    <row r="548" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B547" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C547" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D547" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E547" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="10" t="s">
         <v>699</v>
       </c>
       <c r="B548" s="23"/>
     </row>
-    <row r="549" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="10" t="s">
         <v>700</v>
       </c>
       <c r="B549" s="23"/>
     </row>
-    <row r="550" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="10" t="s">
         <v>701</v>
       </c>
       <c r="B550" s="23"/>
     </row>
-    <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="10" t="s">
         <v>702</v>
       </c>
       <c r="B551" s="23"/>
     </row>
-    <row r="552" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
         <v>703</v>
       </c>
       <c r="B552" s="23"/>
     </row>
-    <row r="553" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="10" t="s">
         <v>704</v>
       </c>
       <c r="B553" s="23"/>
     </row>
-    <row r="554" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="10" t="s">
         <v>705</v>
       </c>
       <c r="B554" s="23"/>
     </row>
-    <row r="555" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="10" t="s">
         <v>706</v>
       </c>
       <c r="B555" s="23"/>
     </row>
-    <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="10" t="s">
         <v>707</v>
       </c>
       <c r="B556" s="23"/>
     </row>
-    <row r="557" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="10" t="s">
         <v>708</v>
       </c>
       <c r="B557" s="23"/>
     </row>
-    <row r="558" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="23"/>
     </row>
-    <row r="559" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="23"/>
     </row>
-    <row r="560" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="23"/>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE84454-A2E7-40E2-B92F-9CF3F64A080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5579CA03-4EC3-48AE-923E-0E1026ACE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="734">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2191,6 +2191,48 @@
   </si>
   <si>
     <t>Islam Abdelazim Mahmoud Ahmed</t>
+  </si>
+  <si>
+    <t>Ali Khalil Mansour Algallal</t>
+  </si>
+  <si>
+    <t>DSS1557</t>
+  </si>
+  <si>
+    <t>DSS1558</t>
+  </si>
+  <si>
+    <t>DSS1559</t>
+  </si>
+  <si>
+    <t>DSS1560</t>
+  </si>
+  <si>
+    <t>DSS1561</t>
+  </si>
+  <si>
+    <t>DSS1562</t>
+  </si>
+  <si>
+    <t>DSS1563</t>
+  </si>
+  <si>
+    <t>DSS1564</t>
+  </si>
+  <si>
+    <t>DSS1565</t>
+  </si>
+  <si>
+    <t>DSS1566</t>
+  </si>
+  <si>
+    <t>DSS1567</t>
+  </si>
+  <si>
+    <t>DSS1568</t>
+  </si>
+  <si>
+    <t>Mustafa Abraheem Abraheem</t>
   </si>
 </sst>
 </file>
@@ -2794,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A530" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H539" sqref="H539"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A549" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H556" sqref="H556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11743,135 +11785,335 @@
       <c r="A548" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B548" s="23"/>
+      <c r="B548" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D548" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="E548" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B549" s="23"/>
+      <c r="B549" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D549" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="E549" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B550" s="23"/>
+      <c r="B550" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D550" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="E550" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B551" s="23"/>
+      <c r="B551" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D551" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="E551" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B552" s="23"/>
+      <c r="B552" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D552" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="E552" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B553" s="23"/>
+      <c r="B553" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D553" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E553" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B554" s="23"/>
+      <c r="B554" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D554" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="E554" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B555" s="23"/>
+      <c r="B555" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D555" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="E555" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A556" s="10" t="s">
+      <c r="A556" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B556" s="23"/>
+      <c r="B556" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C556" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D556" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="E556" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A557" s="10" t="s">
+      <c r="A557" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="B557" s="23"/>
+      <c r="B557" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C557" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D557" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="E557" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
-      <c r="B558" s="23"/>
+      <c r="A558" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B558" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C558" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D558" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E558" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
-      <c r="B559" s="23"/>
+      <c r="A559" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B559" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C559" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D559" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E559" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
-      <c r="B560" s="23"/>
-    </row>
-    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
-      <c r="B561" s="23"/>
-    </row>
-    <row r="562" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
-      <c r="B562" s="23"/>
-    </row>
-    <row r="563" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-      <c r="B563" s="23"/>
-    </row>
-    <row r="564" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
+      <c r="A560" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B560" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D560" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="E560" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A561" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B561" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C561" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D561" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="E561" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A562" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B562" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C562" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D562" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E562" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A563" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B563" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C563" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D563" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E563" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A564" s="10" t="s">
+        <v>727</v>
+      </c>
       <c r="B564" s="23"/>
     </row>
-    <row r="565" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
+    <row r="565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A565" s="10" t="s">
+        <v>728</v>
+      </c>
       <c r="B565" s="23"/>
     </row>
-    <row r="566" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
+    <row r="566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A566" s="10" t="s">
+        <v>729</v>
+      </c>
       <c r="B566" s="23"/>
     </row>
-    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
+    <row r="567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A567" s="10" t="s">
+        <v>730</v>
+      </c>
       <c r="B567" s="23"/>
     </row>
-    <row r="568" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
+    <row r="568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A568" s="10" t="s">
+        <v>731</v>
+      </c>
       <c r="B568" s="23"/>
     </row>
-    <row r="569" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
+    <row r="569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A569" s="10" t="s">
+        <v>732</v>
+      </c>
       <c r="B569" s="23"/>
     </row>
-    <row r="570" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="23"/>
     </row>
-    <row r="571" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="23"/>
     </row>
-    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="23"/>
     </row>
-    <row r="573" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="23"/>
     </row>
-    <row r="574" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="23"/>
     </row>
-    <row r="575" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="23"/>
     </row>
-    <row r="576" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="23"/>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5579CA03-4EC3-48AE-923E-0E1026ACE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA71D9-7CD5-420D-906D-9FBCF82F0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="736">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2233,6 +2233,12 @@
   </si>
   <si>
     <t>Mustafa Abraheem Abraheem</t>
+  </si>
+  <si>
+    <t>Moaied Nour Aldeen Musbah Gargoum</t>
+  </si>
+  <si>
+    <t>08-06-2024</t>
   </si>
 </sst>
 </file>
@@ -2836,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A549" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H556" sqref="H556"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A555" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C568" sqref="C568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12057,7 +12063,18 @@
       <c r="A564" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B564" s="23"/>
+      <c r="B564" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C564" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D564" s="38" t="s">
+        <v>735</v>
+      </c>
+      <c r="E564" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="10" t="s">

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA71D9-7CD5-420D-906D-9FBCF82F0E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C1E39-715B-48DD-B49D-377F0B858F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="738">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2239,6 +2239,12 @@
   </si>
   <si>
     <t>08-06-2024</t>
+  </si>
+  <si>
+    <t>14-11-2025</t>
+  </si>
+  <si>
+    <t>Ahmed Balla Abbas Elzien</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A555" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A552" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C567" sqref="C567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12077,22 +12083,55 @@
       </c>
     </row>
     <row r="565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A565" s="10" t="s">
+      <c r="A565" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="B565" s="23"/>
+      <c r="B565" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C565" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D565" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="E565" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="10" t="s">
+      <c r="A566" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="B566" s="23"/>
+      <c r="B566" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C566" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D566" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="E566" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A567" s="10" t="s">
+      <c r="A567" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="B567" s="23"/>
+      <c r="B567" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D567" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="E567" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="10" t="s">

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C1E39-715B-48DD-B49D-377F0B858F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E2516-2E1E-4D8E-8F77-3F5E284346DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="740">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2241,10 +2241,16 @@
     <t>08-06-2024</t>
   </si>
   <si>
-    <t>14-11-2025</t>
-  </si>
-  <si>
     <t>Ahmed Balla Abbas Elzien</t>
+  </si>
+  <si>
+    <t>AHMED ABDELSALAM MOHAMED AHMED</t>
+  </si>
+  <si>
+    <t>14-11-2024</t>
+  </si>
+  <si>
+    <t>12-12-2024</t>
   </si>
 </sst>
 </file>
@@ -2849,7 +2855,7 @@
   <dimension ref="A1:E695"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A552" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C567" sqref="C567"/>
+      <selection activeCell="C570" sqref="C570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12087,7 +12093,7 @@
         <v>728</v>
       </c>
       <c r="B565" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C565" s="11" t="s">
         <v>2</v>
@@ -12104,7 +12110,7 @@
         <v>729</v>
       </c>
       <c r="B566" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C566" s="11" t="s">
         <v>230</v>
@@ -12121,13 +12127,13 @@
         <v>730</v>
       </c>
       <c r="B567" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C567" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D567" s="39" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E567" s="20">
         <v>1</v>
@@ -12137,7 +12143,18 @@
       <c r="A568" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B568" s="23"/>
+      <c r="B568" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C568" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D568" s="38" t="s">
+        <v>739</v>
+      </c>
+      <c r="E568" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="10" t="s">

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E2516-2E1E-4D8E-8F77-3F5E284346DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BC1B8-E906-4850-8E8A-14DD98EA6F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="831">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2251,6 +2251,279 @@
   </si>
   <si>
     <t>12-12-2024</t>
+  </si>
+  <si>
+    <t>SHERIF AHMED ABDELKHALEK MOHAMED</t>
+  </si>
+  <si>
+    <t>DSS1569</t>
+  </si>
+  <si>
+    <t>DSS1570</t>
+  </si>
+  <si>
+    <t>DSS1571</t>
+  </si>
+  <si>
+    <t>DSS1572</t>
+  </si>
+  <si>
+    <t>DSS1573</t>
+  </si>
+  <si>
+    <t>DSS1574</t>
+  </si>
+  <si>
+    <t>DSS1575</t>
+  </si>
+  <si>
+    <t>AHMED YEHIA ALI HUSSEIN</t>
+  </si>
+  <si>
+    <t>DSS1576</t>
+  </si>
+  <si>
+    <t>DSS1577</t>
+  </si>
+  <si>
+    <t>DSS1578</t>
+  </si>
+  <si>
+    <t>DSS1579</t>
+  </si>
+  <si>
+    <t>DSS1580</t>
+  </si>
+  <si>
+    <t>DSS1581</t>
+  </si>
+  <si>
+    <t>DSS1582</t>
+  </si>
+  <si>
+    <t>05-12-2024</t>
+  </si>
+  <si>
+    <t>10-12-2024</t>
+  </si>
+  <si>
+    <t>06-12-2024</t>
+  </si>
+  <si>
+    <t>03-12-2024</t>
+  </si>
+  <si>
+    <t>01-12-2024</t>
+  </si>
+  <si>
+    <t>02-12-2024</t>
+  </si>
+  <si>
+    <t>07-12-2024</t>
+  </si>
+  <si>
+    <t>08-12-2024</t>
+  </si>
+  <si>
+    <t>DSS1583</t>
+  </si>
+  <si>
+    <t>ELMOEZ OSMAN MOHAMED ALI</t>
+  </si>
+  <si>
+    <t>DSS1584</t>
+  </si>
+  <si>
+    <t>DSS1585</t>
+  </si>
+  <si>
+    <t>DSS1586</t>
+  </si>
+  <si>
+    <t>DSS1587</t>
+  </si>
+  <si>
+    <t>DSS1588</t>
+  </si>
+  <si>
+    <t>DSS1589</t>
+  </si>
+  <si>
+    <t>DSS1590</t>
+  </si>
+  <si>
+    <t>DSS1591</t>
+  </si>
+  <si>
+    <t>DSS1592</t>
+  </si>
+  <si>
+    <t>DSS1593</t>
+  </si>
+  <si>
+    <t>DSS1594</t>
+  </si>
+  <si>
+    <t>DSS1595</t>
+  </si>
+  <si>
+    <t>DSS1596</t>
+  </si>
+  <si>
+    <t>DSS1597</t>
+  </si>
+  <si>
+    <t>DSS1598</t>
+  </si>
+  <si>
+    <t>DSS1599</t>
+  </si>
+  <si>
+    <t>DSS1600</t>
+  </si>
+  <si>
+    <t>DSS1601</t>
+  </si>
+  <si>
+    <t>DSS1602</t>
+  </si>
+  <si>
+    <t>DSS1603</t>
+  </si>
+  <si>
+    <t>DSS1604</t>
+  </si>
+  <si>
+    <t>DSS1605</t>
+  </si>
+  <si>
+    <t>DSS1606</t>
+  </si>
+  <si>
+    <t>DSS1607</t>
+  </si>
+  <si>
+    <t>DSS1608</t>
+  </si>
+  <si>
+    <t>DSS1609</t>
+  </si>
+  <si>
+    <t>DSS1610</t>
+  </si>
+  <si>
+    <t>DSS1611</t>
+  </si>
+  <si>
+    <t>DSS1612</t>
+  </si>
+  <si>
+    <t>DSS1613</t>
+  </si>
+  <si>
+    <t>DSS1614</t>
+  </si>
+  <si>
+    <t>DSS1615</t>
+  </si>
+  <si>
+    <t>DSS1616</t>
+  </si>
+  <si>
+    <t>DSS1617</t>
+  </si>
+  <si>
+    <t>DSS1618</t>
+  </si>
+  <si>
+    <t>DSS1619</t>
+  </si>
+  <si>
+    <t>DSS1620</t>
+  </si>
+  <si>
+    <t>DSS1621</t>
+  </si>
+  <si>
+    <t>DSS1622</t>
+  </si>
+  <si>
+    <t>DSS1623</t>
+  </si>
+  <si>
+    <t>DSS1624</t>
+  </si>
+  <si>
+    <t>DSS1625</t>
+  </si>
+  <si>
+    <t>Mahmoud Atef Abdel Rasheed Ahmed</t>
+  </si>
+  <si>
+    <t>AHMED TAHEEF DIAB ALI</t>
+  </si>
+  <si>
+    <t>Badr Mohamed Abdallah Mohamed</t>
+  </si>
+  <si>
+    <t>IHAB SAMIR SAAD ELSAID ZANATY</t>
+  </si>
+  <si>
+    <t>Ahmed Medhat Sediek Mohamed</t>
+  </si>
+  <si>
+    <t>DSS1626</t>
+  </si>
+  <si>
+    <t>DSS1627</t>
+  </si>
+  <si>
+    <t>DSS1628</t>
+  </si>
+  <si>
+    <t>DSS1629</t>
+  </si>
+  <si>
+    <t>DSS1630</t>
+  </si>
+  <si>
+    <t>DSS1631</t>
+  </si>
+  <si>
+    <t>DSS1632</t>
+  </si>
+  <si>
+    <t>DSS1633</t>
+  </si>
+  <si>
+    <t>DSS1634</t>
+  </si>
+  <si>
+    <t>DSS1635</t>
+  </si>
+  <si>
+    <t>DSS1636</t>
+  </si>
+  <si>
+    <t>DSS1637</t>
+  </si>
+  <si>
+    <t>DSS1638</t>
+  </si>
+  <si>
+    <t>DSS1639</t>
+  </si>
+  <si>
+    <t>DSS1640</t>
+  </si>
+  <si>
+    <t>DSS1641</t>
+  </si>
+  <si>
+    <t>MOHAMED DIAB MOHAMED SHAKER</t>
+  </si>
+  <si>
+    <t>Mohammed Mosaad Yasien Elsaid</t>
   </si>
 </sst>
 </file>
@@ -2854,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E695"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A552" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C570" sqref="C570"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A631" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G642" sqref="G642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,7 +3137,7 @@
     <col min="2" max="2" width="54.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" style="20" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="20" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
@@ -12157,356 +12430,1316 @@
       </c>
     </row>
     <row r="569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A569" s="10" t="s">
+      <c r="A569" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="B569" s="23"/>
+      <c r="B569" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C569" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D569" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E569" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
-      <c r="B570" s="23"/>
+      <c r="A570" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B570" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C570" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D570" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E570" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
-      <c r="B571" s="23"/>
+      <c r="A571" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B571" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D571" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E571" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
-      <c r="B572" s="23"/>
+      <c r="A572" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B572" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C572" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D572" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="E572" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
-      <c r="B573" s="23"/>
+      <c r="A573" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B573" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C573" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D573" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E573" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
-      <c r="B574" s="23"/>
+      <c r="A574" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B574" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C574" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D574" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="E574" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A575" s="2"/>
-      <c r="B575" s="23"/>
+      <c r="A575" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B575" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C575" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D575" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E575" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A576" s="2"/>
-      <c r="B576" s="23"/>
-    </row>
-    <row r="577" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A577" s="2"/>
-      <c r="B577" s="23"/>
-    </row>
-    <row r="578" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="2"/>
-      <c r="B578" s="23"/>
-    </row>
-    <row r="579" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A579" s="2"/>
-      <c r="B579" s="23"/>
-    </row>
-    <row r="580" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A580" s="2"/>
-      <c r="B580" s="23"/>
-    </row>
-    <row r="581" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A581" s="2"/>
-      <c r="B581" s="23"/>
-    </row>
-    <row r="582" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A582" s="2"/>
-      <c r="B582" s="23"/>
-    </row>
-    <row r="583" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A583" s="2"/>
-      <c r="B583" s="23"/>
-    </row>
-    <row r="584" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A584" s="2"/>
-      <c r="B584" s="23"/>
-    </row>
-    <row r="585" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A585" s="2"/>
-      <c r="B585" s="23"/>
-    </row>
-    <row r="586" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A586" s="2"/>
-      <c r="B586" s="23"/>
-    </row>
-    <row r="587" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A587" s="2"/>
-      <c r="B587" s="23"/>
-    </row>
-    <row r="588" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A588" s="2"/>
-      <c r="B588" s="23"/>
-    </row>
-    <row r="589" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A589" s="2"/>
-      <c r="B589" s="23"/>
-    </row>
-    <row r="590" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A590" s="2"/>
-      <c r="B590" s="23"/>
-    </row>
-    <row r="591" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A591" s="2"/>
-      <c r="B591" s="23"/>
-    </row>
-    <row r="592" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A592" s="2"/>
-      <c r="B592" s="23"/>
-    </row>
-    <row r="593" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A593" s="2"/>
-      <c r="B593" s="23"/>
-    </row>
-    <row r="594" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A594" s="2"/>
-      <c r="B594" s="23"/>
-    </row>
-    <row r="595" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A595" s="2"/>
-      <c r="B595" s="23"/>
-    </row>
-    <row r="596" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A596" s="2"/>
-      <c r="B596" s="23"/>
-    </row>
-    <row r="597" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A597" s="2"/>
-      <c r="B597" s="23"/>
-    </row>
-    <row r="598" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A598" s="2"/>
-      <c r="B598" s="23"/>
-    </row>
-    <row r="599" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A599" s="2"/>
-      <c r="B599" s="23"/>
-    </row>
-    <row r="600" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A600" s="2"/>
-      <c r="B600" s="23"/>
-    </row>
-    <row r="601" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
-      <c r="B601" s="23"/>
-    </row>
-    <row r="602" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A602" s="2"/>
-      <c r="B602" s="23"/>
-    </row>
-    <row r="603" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A603" s="2"/>
-      <c r="B603" s="23"/>
-    </row>
-    <row r="604" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A604" s="2"/>
-      <c r="B604" s="23"/>
-    </row>
-    <row r="605" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A605" s="2"/>
-      <c r="B605" s="23"/>
-    </row>
-    <row r="606" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A606" s="2"/>
-      <c r="B606" s="23"/>
-    </row>
-    <row r="607" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A607" s="2"/>
-      <c r="B607" s="23"/>
-    </row>
-    <row r="608" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="2"/>
-      <c r="B608" s="23"/>
-    </row>
-    <row r="609" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A609" s="2"/>
-      <c r="B609" s="23"/>
-    </row>
-    <row r="610" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A610" s="2"/>
-      <c r="B610" s="23"/>
-    </row>
-    <row r="611" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A611" s="2"/>
-      <c r="B611" s="23"/>
-    </row>
-    <row r="612" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A612" s="2"/>
-      <c r="B612" s="23"/>
-    </row>
-    <row r="613" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A613" s="2"/>
-      <c r="B613" s="23"/>
-    </row>
-    <row r="614" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A614" s="2"/>
-      <c r="B614" s="23"/>
-    </row>
-    <row r="615" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A615" s="2"/>
-      <c r="B615" s="23"/>
-    </row>
-    <row r="616" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A616" s="2"/>
-      <c r="B616" s="23"/>
-    </row>
-    <row r="617" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A617" s="2"/>
-      <c r="B617" s="23"/>
-    </row>
-    <row r="618" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A618" s="2"/>
-      <c r="B618" s="23"/>
-    </row>
-    <row r="619" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A619" s="2"/>
-      <c r="B619" s="23"/>
-    </row>
-    <row r="620" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A620" s="2"/>
-      <c r="B620" s="23"/>
-    </row>
-    <row r="621" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A621" s="2"/>
-      <c r="B621" s="23"/>
-    </row>
-    <row r="622" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A622" s="2"/>
-      <c r="B622" s="23"/>
-    </row>
-    <row r="623" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A623" s="2"/>
-      <c r="B623" s="23"/>
-    </row>
-    <row r="624" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A624" s="2"/>
-      <c r="B624" s="23"/>
-    </row>
-    <row r="625" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A625" s="2"/>
-      <c r="B625" s="23"/>
-    </row>
-    <row r="626" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A626" s="2"/>
-      <c r="B626" s="23"/>
-    </row>
-    <row r="627" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A627" s="2"/>
-      <c r="B627" s="23"/>
-    </row>
-    <row r="628" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A628" s="2"/>
-      <c r="B628" s="23"/>
-    </row>
-    <row r="629" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A629" s="2"/>
-      <c r="B629" s="23"/>
-    </row>
-    <row r="630" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A630" s="2"/>
-      <c r="B630" s="23"/>
-    </row>
-    <row r="631" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A631" s="2"/>
-      <c r="B631" s="23"/>
-    </row>
-    <row r="632" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A632" s="2"/>
-      <c r="B632" s="23"/>
-    </row>
-    <row r="633" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
-      <c r="B633" s="23"/>
-    </row>
-    <row r="634" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
-      <c r="B634" s="23"/>
-    </row>
-    <row r="635" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A635" s="2"/>
-      <c r="B635" s="23"/>
-    </row>
-    <row r="636" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A636" s="2"/>
-      <c r="B636" s="23"/>
-    </row>
-    <row r="637" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A637" s="2"/>
-      <c r="B637" s="23"/>
-    </row>
-    <row r="638" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A638" s="2"/>
-      <c r="B638" s="23"/>
-    </row>
-    <row r="639" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A639" s="2"/>
-      <c r="B639" s="23"/>
-    </row>
-    <row r="640" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A640" s="2"/>
-      <c r="B640" s="23"/>
-    </row>
-    <row r="641" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A641" s="2"/>
-      <c r="B641" s="23"/>
-    </row>
-    <row r="642" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A642" s="2"/>
-      <c r="B642" s="23"/>
-    </row>
-    <row r="643" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A576" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B576" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C576" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D576" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="E576" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A577" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B577" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D577" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="E577" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A578" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="B578" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C578" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D578" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="E578" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A579" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B579" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D579" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="E579" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A580" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B580" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C580" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D580" s="38" t="s">
+        <v>759</v>
+      </c>
+      <c r="E580" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A581" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B581" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D581" s="38" t="s">
+        <v>760</v>
+      </c>
+      <c r="E581" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A582" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B582" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D582" s="38" t="s">
+        <v>761</v>
+      </c>
+      <c r="E582" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A583" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D583" s="38" t="s">
+        <v>762</v>
+      </c>
+      <c r="E583" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A584" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="B584" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C584" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D584" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="E584" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A585" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B585" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C585" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D585" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E585" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A586" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B586" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C586" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D586" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E586" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A587" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B587" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C587" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D587" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E587" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A588" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B588" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C588" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D588" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="E588" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A589" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="B589" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C589" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D589" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E589" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A590" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B590" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C590" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D590" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="E590" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A591" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B591" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C591" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D591" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E591" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A592" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B592" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C592" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D592" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="E592" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A593" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D593" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="E593" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A594" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B594" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D594" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="E594" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A595" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="B595" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C595" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D595" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E595" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A596" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B596" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C596" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D596" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E596" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A597" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="B597" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C597" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D597" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E597" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A598" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="B598" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C598" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D598" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="E598" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A599" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B599" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C599" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D599" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E599" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A600" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B600" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C600" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D600" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="E600" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A601" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B601" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C601" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D601" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E601" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A602" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B602" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C602" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D602" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="E602" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A603" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D603" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="E603" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A604" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="B604" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C604" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D604" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="E604" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A605" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D605" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="E605" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A606" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C606" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D606" s="38" t="s">
+        <v>759</v>
+      </c>
+      <c r="E606" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A607" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D607" s="38" t="s">
+        <v>760</v>
+      </c>
+      <c r="E607" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A608" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B608" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C608" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D608" s="38" t="s">
+        <v>761</v>
+      </c>
+      <c r="E608" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A609" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D609" s="38" t="s">
+        <v>762</v>
+      </c>
+      <c r="E609" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A610" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B610" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D610" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="E610" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A611" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C611" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D611" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E611" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A612" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="B612" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C612" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D612" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E612" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A613" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B613" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C613" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D613" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E613" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A614" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B614" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C614" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D614" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="E614" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A615" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B615" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C615" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D615" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E615" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A616" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B616" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D616" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="E616" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A617" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B617" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C617" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D617" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E617" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A618" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="B618" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D618" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="E618" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A619" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D619" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="E619" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A620" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B620" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D620" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="E620" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A621" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B621" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D621" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E621" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A622" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="B622" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D622" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="E622" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A623" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B623" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D623" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="E623" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A624" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B624" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C624" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D624" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E624" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A625" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="B625" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D625" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="E625" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A626" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B626" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C626" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D626" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="E626" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A627" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B627" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C627" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D627" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E627" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A628" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B628" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C628" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D628" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E628" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A629" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B629" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C629" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D629" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E629" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A630" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B630" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C630" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D630" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="E630" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A631" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B631" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C631" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D631" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E631" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A632" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B632" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C632" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D632" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="E632" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A633" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B633" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C633" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D633" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E633" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A634" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B634" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C634" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D634" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="E634" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A635" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D635" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="E635" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A636" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="B636" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C636" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D636" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="E636" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A637" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B637" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D637" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E637" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A638" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B638" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D638" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="E638" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A639" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="B639" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D639" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="E639" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A640" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="B640" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D640" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E640" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A641" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B641" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D641" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="E641" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A642" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B642" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D642" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="E642" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="23"/>
     </row>
-    <row r="644" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="23"/>
     </row>
-    <row r="645" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="23"/>
     </row>
-    <row r="646" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="23"/>
     </row>
-    <row r="647" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="23"/>
     </row>
-    <row r="648" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="23"/>
     </row>
-    <row r="649" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="23"/>
     </row>
-    <row r="650" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="23"/>
     </row>
-    <row r="651" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="23"/>
     </row>
-    <row r="652" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="23"/>
     </row>
-    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="23"/>
     </row>
-    <row r="654" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="23"/>
     </row>
-    <row r="655" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="23"/>
     </row>
-    <row r="656" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="23"/>
     </row>
@@ -12673,10 +13906,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
+    <brk id="576" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C32519E-DBF7-4ADD-BE41-0395FCE37C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6FBE9-FE55-4FC6-9E14-541AD5806256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="945">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2812,6 +2812,60 @@
   </si>
   <si>
     <t>DSS1725</t>
+  </si>
+  <si>
+    <t>DSS1726</t>
+  </si>
+  <si>
+    <t>DSS1727</t>
+  </si>
+  <si>
+    <t>DSS1728</t>
+  </si>
+  <si>
+    <t>DSS1729</t>
+  </si>
+  <si>
+    <t>DSS1730</t>
+  </si>
+  <si>
+    <t>DSS1731</t>
+  </si>
+  <si>
+    <t>DSS1732</t>
+  </si>
+  <si>
+    <t>DSS1733</t>
+  </si>
+  <si>
+    <t>Seif Elsayed Salem Elsayed</t>
+  </si>
+  <si>
+    <t>Ahmed Salah Eldin Ahmed Mohamed</t>
+  </si>
+  <si>
+    <t>DSS1734</t>
+  </si>
+  <si>
+    <t>DSS1735</t>
+  </si>
+  <si>
+    <t>DSS1736</t>
+  </si>
+  <si>
+    <t>DSS1737</t>
+  </si>
+  <si>
+    <t>DSS1738</t>
+  </si>
+  <si>
+    <t>DSS1739</t>
+  </si>
+  <si>
+    <t>DSS1740</t>
+  </si>
+  <si>
+    <t>DSS1741</t>
   </si>
 </sst>
 </file>
@@ -3075,19 +3129,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3421,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E726"/>
+  <dimension ref="A1:E742"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A716" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F721" sqref="F721"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A725" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G738" sqref="G738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15411,6 +15465,278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="727" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A727" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="B727" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C727" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D727" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E727" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A728" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B728" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C728" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D728" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E728" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A729" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B729" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C729" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D729" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E729" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A730" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B730" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C730" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D730" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E730" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A731" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="B731" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C731" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D731" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E731" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A732" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B732" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C732" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D732" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E732" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A733" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B733" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C733" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D733" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="E733" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A734" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="B734" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="C734" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D734" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="E734" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A735" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="B735" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C735" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D735" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="E735" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A736" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B736" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C736" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D736" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="E736" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A737" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="B737" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C737" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D737" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E737" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A738" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="B738" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C738" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D738" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E738" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A739" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B739" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C739" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D739" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="E739" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A740" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="B740" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C740" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D740" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="E740" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A741" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B741" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C741" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D741" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="E741" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A742" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="B742" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="C742" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D742" s="44" t="s">
+        <v>763</v>
+      </c>
+      <c r="E742" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F6FBE9-FE55-4FC6-9E14-541AD5806256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E0A7DD-F8D2-4571-99B7-6AA34097FCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="954">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2866,6 +2866,33 @@
   </si>
   <si>
     <t>DSS1741</t>
+  </si>
+  <si>
+    <t>DSS1742</t>
+  </si>
+  <si>
+    <t>DSS1743</t>
+  </si>
+  <si>
+    <t>DSS1744</t>
+  </si>
+  <si>
+    <t>DSS1745</t>
+  </si>
+  <si>
+    <t>DSS1746</t>
+  </si>
+  <si>
+    <t>DSS1747</t>
+  </si>
+  <si>
+    <t>DSS1748</t>
+  </si>
+  <si>
+    <t>DSS1749</t>
+  </si>
+  <si>
+    <t>AHMED FOUZI AHMED ALHADDAD</t>
   </si>
 </sst>
 </file>
@@ -3475,10 +3502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E742"/>
+  <dimension ref="A1:E750"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A725" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G738" sqref="G738"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A734" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A744" sqref="A744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15737,6 +15764,142 @@
         <v>1</v>
       </c>
     </row>
+    <row r="743" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A743" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="B743" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C743" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D743" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E743" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A744" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="B744" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C744" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D744" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E744" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A745" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="B745" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C745" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D745" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E745" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A746" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="B746" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C746" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D746" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E746" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A747" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="B747" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C747" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D747" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E747" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A748" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B748" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C748" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D748" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E748" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A749" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B749" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C749" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D749" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="E749" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A750" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="B750" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C750" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D750" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="E750" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3A3884-3C7B-41C8-AEA3-824727D65A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3A184E-00B5-4926-A21A-F37926CFAB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$780</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$858</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="1044">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -2244,9 +2244,6 @@
     <t>AHMED ABDELSALAM MOHAMED AHMED</t>
   </si>
   <si>
-    <t>14-11-2024</t>
-  </si>
-  <si>
     <t>12-12-2024</t>
   </si>
   <si>
@@ -2893,6 +2890,279 @@
   </si>
   <si>
     <t>Electrical Safety &amp; LOTO</t>
+  </si>
+  <si>
+    <t>Moamen Abdelgelil Abdelgelil Abouelenin</t>
+  </si>
+  <si>
+    <t>14-12-2024</t>
+  </si>
+  <si>
+    <t>DSS1750</t>
+  </si>
+  <si>
+    <t>DSS1751</t>
+  </si>
+  <si>
+    <t>DSS1752</t>
+  </si>
+  <si>
+    <t>DSS1753</t>
+  </si>
+  <si>
+    <t>DSS1754</t>
+  </si>
+  <si>
+    <t>DSS1755</t>
+  </si>
+  <si>
+    <t>DSS1756</t>
+  </si>
+  <si>
+    <t>DSS1757</t>
+  </si>
+  <si>
+    <t>DSS1758</t>
+  </si>
+  <si>
+    <t>DSS1759</t>
+  </si>
+  <si>
+    <t>DSS1760</t>
+  </si>
+  <si>
+    <t>DSS1761</t>
+  </si>
+  <si>
+    <t>DSS1762</t>
+  </si>
+  <si>
+    <t>DSS1763</t>
+  </si>
+  <si>
+    <t>DSS1764</t>
+  </si>
+  <si>
+    <t>DSS1765</t>
+  </si>
+  <si>
+    <t>DSS1766</t>
+  </si>
+  <si>
+    <t>DSS1767</t>
+  </si>
+  <si>
+    <t>DSS1768</t>
+  </si>
+  <si>
+    <t>DSS1769</t>
+  </si>
+  <si>
+    <t>DSS1770</t>
+  </si>
+  <si>
+    <t>DSS1771</t>
+  </si>
+  <si>
+    <t>DSS1772</t>
+  </si>
+  <si>
+    <t>DSS1773</t>
+  </si>
+  <si>
+    <t>DSS1774</t>
+  </si>
+  <si>
+    <t>DSS1775</t>
+  </si>
+  <si>
+    <t>DSS1776</t>
+  </si>
+  <si>
+    <t>DSS1777</t>
+  </si>
+  <si>
+    <t>DSS1778</t>
+  </si>
+  <si>
+    <t>DSS1779</t>
+  </si>
+  <si>
+    <t>DSS1780</t>
+  </si>
+  <si>
+    <t>DSS1781</t>
+  </si>
+  <si>
+    <t>DSS1782</t>
+  </si>
+  <si>
+    <t>DSS1783</t>
+  </si>
+  <si>
+    <t>DSS1784</t>
+  </si>
+  <si>
+    <t>DSS1785</t>
+  </si>
+  <si>
+    <t>DSS1786</t>
+  </si>
+  <si>
+    <t>DSS1787</t>
+  </si>
+  <si>
+    <t>DSS1788</t>
+  </si>
+  <si>
+    <t>DSS1789</t>
+  </si>
+  <si>
+    <t>DSS1790</t>
+  </si>
+  <si>
+    <t>DSS1791</t>
+  </si>
+  <si>
+    <t>DSS1792</t>
+  </si>
+  <si>
+    <t>DSS1793</t>
+  </si>
+  <si>
+    <t>DSS1794</t>
+  </si>
+  <si>
+    <t>DSS1795</t>
+  </si>
+  <si>
+    <t>DSS1796</t>
+  </si>
+  <si>
+    <t>DSS1797</t>
+  </si>
+  <si>
+    <t>DSS1798</t>
+  </si>
+  <si>
+    <t>DSS1799</t>
+  </si>
+  <si>
+    <t>DSS1800</t>
+  </si>
+  <si>
+    <t>DSS1801</t>
+  </si>
+  <si>
+    <t>DSS1802</t>
+  </si>
+  <si>
+    <t>DSS1803</t>
+  </si>
+  <si>
+    <t>DSS1804</t>
+  </si>
+  <si>
+    <t>DSS1805</t>
+  </si>
+  <si>
+    <t>DSS1806</t>
+  </si>
+  <si>
+    <t>DSS1807</t>
+  </si>
+  <si>
+    <t>DSS1808</t>
+  </si>
+  <si>
+    <t>DSS1809</t>
+  </si>
+  <si>
+    <t>DSS1810</t>
+  </si>
+  <si>
+    <t>DSS1811</t>
+  </si>
+  <si>
+    <t>DSS1812</t>
+  </si>
+  <si>
+    <t>DSS1813</t>
+  </si>
+  <si>
+    <t>DSS1814</t>
+  </si>
+  <si>
+    <t>DSS1815</t>
+  </si>
+  <si>
+    <t>DSS1816</t>
+  </si>
+  <si>
+    <t>DSS1817</t>
+  </si>
+  <si>
+    <t>DSS1818</t>
+  </si>
+  <si>
+    <t>DSS1819</t>
+  </si>
+  <si>
+    <t>DSS1820</t>
+  </si>
+  <si>
+    <t>DSS1821</t>
+  </si>
+  <si>
+    <t>DSS1822</t>
+  </si>
+  <si>
+    <t>DSS1823</t>
+  </si>
+  <si>
+    <t>DSS1824</t>
+  </si>
+  <si>
+    <t>DSS1825</t>
+  </si>
+  <si>
+    <t>DSS1826</t>
+  </si>
+  <si>
+    <t>DSS1827</t>
+  </si>
+  <si>
+    <t>Mahmoud Galal Mahmoud Hamad</t>
+  </si>
+  <si>
+    <t>15-12-2024</t>
+  </si>
+  <si>
+    <t>15-11-2024</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Solyman Badr</t>
+  </si>
+  <si>
+    <t>AHMED ABDELRAZEK MOHAMMED MAHMOUD</t>
+  </si>
+  <si>
+    <t>AHMED MUTASIM BADWI MOHMMED</t>
+  </si>
+  <si>
+    <t>MOHAMED SHABAN MOSTAFA ABDELHAFEZ</t>
+  </si>
+  <si>
+    <t>Ashraf Mohamed ElSayed Ibrahim</t>
+  </si>
+  <si>
+    <t>Ahmed Elsayed Ali Sayed Ahmed</t>
+  </si>
+  <si>
+    <t>Mahmoud Mohamed Mahmoud Elmorsy</t>
+  </si>
+  <si>
+    <t>Mamoon Elshawadfy Mohamed Elshawadfy</t>
   </si>
 </sst>
 </file>
@@ -3502,10 +3772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E750"/>
+  <dimension ref="A1:E828"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A734" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G737" sqref="G737"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A813" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C822" sqref="C822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4395,7 +4665,7 @@
         <v>229</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="17">
@@ -4534,7 +4804,7 @@
         <v>234</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="17">
@@ -4669,7 +4939,7 @@
         <v>235</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="17">
@@ -4819,7 +5089,7 @@
         <v>237</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="17">
@@ -5221,7 +5491,7 @@
         <v>246</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="17">
@@ -5416,7 +5686,7 @@
         <v>250</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="17">
@@ -5825,7 +6095,7 @@
         <v>261</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D150" s="34"/>
       <c r="E150" s="17">
@@ -5949,7 +6219,7 @@
         <v>264</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="17">
@@ -6073,7 +6343,7 @@
         <v>265</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D166" s="34"/>
       <c r="E166" s="17">
@@ -6227,7 +6497,7 @@
         <v>267</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D176" s="34"/>
       <c r="E176" s="17">
@@ -6347,7 +6617,7 @@
         <v>268</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="17">
@@ -6501,7 +6771,7 @@
         <v>272</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="17">
@@ -6625,7 +6895,7 @@
         <v>436</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D202" s="34"/>
       <c r="E202" s="17">
@@ -7113,7 +7383,7 @@
         <v>459</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D232" s="34"/>
       <c r="E232" s="17">
@@ -7233,7 +7503,7 @@
         <v>460</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="17">
@@ -7374,7 +7644,7 @@
         <v>463</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D249" s="42">
         <v>45536</v>
@@ -7510,7 +7780,7 @@
         <v>464</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D257" s="41">
         <v>45536</v>
@@ -7646,7 +7916,7 @@
         <v>465</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D265" s="42">
         <v>45536</v>
@@ -7782,7 +8052,7 @@
         <v>466</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D273" s="41">
         <v>45536</v>
@@ -7918,7 +8188,7 @@
         <v>467</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D281" s="42">
         <v>45536</v>
@@ -8105,7 +8375,7 @@
         <v>468</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D292" s="42">
         <v>45536</v>
@@ -8309,7 +8579,7 @@
         <v>471</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D304" s="41">
         <v>45536</v>
@@ -8445,7 +8715,7 @@
         <v>472</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D312" s="42">
         <v>45509</v>
@@ -8581,7 +8851,7 @@
         <v>473</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D320" s="41">
         <v>45509</v>
@@ -8785,7 +9055,7 @@
         <v>476</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D332" s="42">
         <v>45509</v>
@@ -9040,7 +9310,7 @@
         <v>480</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D347" s="42">
         <v>45534</v>
@@ -9176,7 +9446,7 @@
         <v>481</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D355" s="41">
         <v>45534</v>
@@ -9312,7 +9582,7 @@
         <v>483</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D363" s="42">
         <v>45566</v>
@@ -9465,7 +9735,7 @@
         <v>485</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D372" s="42">
         <v>45566</v>
@@ -9601,7 +9871,7 @@
         <v>486</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D380" s="41">
         <v>45566</v>
@@ -9737,7 +10007,7 @@
         <v>487</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D388" s="42">
         <v>45566</v>
@@ -9873,7 +10143,7 @@
         <v>512</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D396" s="41">
         <v>45566</v>
@@ -10009,7 +10279,7 @@
         <v>521</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D404" s="42">
         <v>45566</v>
@@ -10179,7 +10449,7 @@
         <v>536</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D414" s="41">
         <v>45566</v>
@@ -10332,7 +10602,7 @@
         <v>556</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D423" s="41">
         <v>44470</v>
@@ -10502,7 +10772,7 @@
         <v>560</v>
       </c>
       <c r="C433" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D433" s="38">
         <v>45566</v>
@@ -10655,7 +10925,7 @@
         <v>530</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D442" s="42">
         <v>45566</v>
@@ -10774,7 +11044,7 @@
         <v>545</v>
       </c>
       <c r="C449" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D449" s="44" t="s">
         <v>600</v>
@@ -10893,7 +11163,7 @@
         <v>597</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D456" s="45" t="s">
         <v>600</v>
@@ -11029,7 +11299,7 @@
         <v>606</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D464" s="44" t="s">
         <v>611</v>
@@ -11165,7 +11435,7 @@
         <v>617</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D472" s="45" t="s">
         <v>600</v>
@@ -11301,7 +11571,7 @@
         <v>626</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D480" s="44" t="s">
         <v>600</v>
@@ -11437,7 +11707,7 @@
         <v>635</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D488" s="45" t="s">
         <v>611</v>
@@ -11573,7 +11843,7 @@
         <v>708</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D496" s="44" t="s">
         <v>611</v>
@@ -11709,7 +11979,7 @@
         <v>709</v>
       </c>
       <c r="C504" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D504" s="45" t="s">
         <v>600</v>
@@ -11845,7 +12115,7 @@
         <v>710</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D512" s="44" t="s">
         <v>600</v>
@@ -12083,7 +12353,7 @@
         <v>714</v>
       </c>
       <c r="C526" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D526" s="45" t="s">
         <v>600</v>
@@ -12219,7 +12489,7 @@
         <v>715</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D534" s="44" t="s">
         <v>600</v>
@@ -12355,7 +12625,7 @@
         <v>718</v>
       </c>
       <c r="C542" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D542" s="45" t="s">
         <v>600</v>
@@ -12491,7 +12761,7 @@
         <v>719</v>
       </c>
       <c r="C550" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D550" s="44" t="s">
         <v>600</v>
@@ -12627,7 +12897,7 @@
         <v>732</v>
       </c>
       <c r="C558" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D558" s="45" t="s">
         <v>600</v>
@@ -12783,7 +13053,7 @@
         <v>239</v>
       </c>
       <c r="D567" s="45" t="s">
-        <v>737</v>
+        <v>1035</v>
       </c>
       <c r="E567" s="17">
         <v>1</v>
@@ -12800,7 +13070,7 @@
         <v>239</v>
       </c>
       <c r="D568" s="44" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E568" s="17">
         <v>1</v>
@@ -12811,13 +13081,13 @@
         <v>731</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C569" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D569" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E569" s="17">
         <v>1</v>
@@ -12825,16 +13095,16 @@
     </row>
     <row r="570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C570" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D570" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E570" s="17">
         <v>1</v>
@@ -12842,16 +13112,16 @@
     </row>
     <row r="571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C571" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D571" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E571" s="17">
         <v>1</v>
@@ -12859,16 +13129,16 @@
     </row>
     <row r="572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C572" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D572" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E572" s="17">
         <v>1</v>
@@ -12876,16 +13146,16 @@
     </row>
     <row r="573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C573" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D573" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E573" s="17">
         <v>1</v>
@@ -12893,16 +13163,16 @@
     </row>
     <row r="574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C574" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D574" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E574" s="17">
         <v>1</v>
@@ -12910,16 +13180,16 @@
     </row>
     <row r="575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C575" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D575" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E575" s="17">
         <v>1</v>
@@ -12927,16 +13197,16 @@
     </row>
     <row r="576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C576" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D576" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E576" s="17">
         <v>1</v>
@@ -12944,16 +13214,16 @@
     </row>
     <row r="577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C577" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D577" s="44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E577" s="17">
         <v>1</v>
@@ -12961,16 +13231,16 @@
     </row>
     <row r="578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C578" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D578" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E578" s="17">
         <v>1</v>
@@ -12978,16 +13248,16 @@
     </row>
     <row r="579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D579" s="44" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E579" s="17">
         <v>1</v>
@@ -12995,16 +13265,16 @@
     </row>
     <row r="580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C580" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D580" s="44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E580" s="17">
         <v>1</v>
@@ -13012,16 +13282,16 @@
     </row>
     <row r="581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C581" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D581" s="44" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E581" s="17">
         <v>1</v>
@@ -13029,16 +13299,16 @@
     </row>
     <row r="582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C582" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D582" s="44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E582" s="17">
         <v>1</v>
@@ -13046,16 +13316,16 @@
     </row>
     <row r="583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C583" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D583" s="44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E583" s="17">
         <v>1</v>
@@ -13063,16 +13333,16 @@
     </row>
     <row r="584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C584" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D584" s="44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E584" s="17">
         <v>1</v>
@@ -13080,16 +13350,16 @@
     </row>
     <row r="585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C585" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D585" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E585" s="17">
         <v>1</v>
@@ -13097,16 +13367,16 @@
     </row>
     <row r="586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C586" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D586" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E586" s="17">
         <v>1</v>
@@ -13114,16 +13384,16 @@
     </row>
     <row r="587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C587" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D587" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E587" s="17">
         <v>1</v>
@@ -13131,16 +13401,16 @@
     </row>
     <row r="588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C588" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D588" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E588" s="17">
         <v>1</v>
@@ -13148,16 +13418,16 @@
     </row>
     <row r="589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C589" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D589" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E589" s="17">
         <v>1</v>
@@ -13165,16 +13435,16 @@
     </row>
     <row r="590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C590" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D590" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E590" s="17">
         <v>1</v>
@@ -13182,16 +13452,16 @@
     </row>
     <row r="591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C591" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D591" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E591" s="17">
         <v>1</v>
@@ -13199,16 +13469,16 @@
     </row>
     <row r="592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C592" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D592" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E592" s="17">
         <v>1</v>
@@ -13216,16 +13486,16 @@
     </row>
     <row r="593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C593" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D593" s="44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E593" s="17">
         <v>1</v>
@@ -13233,16 +13503,16 @@
     </row>
     <row r="594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C594" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D594" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E594" s="17">
         <v>1</v>
@@ -13250,16 +13520,16 @@
     </row>
     <row r="595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C595" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D595" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E595" s="17">
         <v>1</v>
@@ -13267,16 +13537,16 @@
     </row>
     <row r="596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C596" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D596" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E596" s="17">
         <v>1</v>
@@ -13284,16 +13554,16 @@
     </row>
     <row r="597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D597" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E597" s="17">
         <v>1</v>
@@ -13301,16 +13571,16 @@
     </row>
     <row r="598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C598" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D598" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E598" s="17">
         <v>1</v>
@@ -13318,16 +13588,16 @@
     </row>
     <row r="599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C599" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D599" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E599" s="17">
         <v>1</v>
@@ -13335,16 +13605,16 @@
     </row>
     <row r="600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C600" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D600" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E600" s="17">
         <v>1</v>
@@ -13352,16 +13622,16 @@
     </row>
     <row r="601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C601" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D601" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E601" s="17">
         <v>1</v>
@@ -13369,16 +13639,16 @@
     </row>
     <row r="602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C602" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D602" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E602" s="17">
         <v>1</v>
@@ -13386,16 +13656,16 @@
     </row>
     <row r="603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C603" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D603" s="44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E603" s="17">
         <v>1</v>
@@ -13403,16 +13673,16 @@
     </row>
     <row r="604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C604" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D604" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E604" s="17">
         <v>1</v>
@@ -13420,16 +13690,16 @@
     </row>
     <row r="605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D605" s="44" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E605" s="17">
         <v>1</v>
@@ -13437,16 +13707,16 @@
     </row>
     <row r="606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C606" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D606" s="44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E606" s="17">
         <v>1</v>
@@ -13454,16 +13724,16 @@
     </row>
     <row r="607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C607" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D607" s="44" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E607" s="17">
         <v>1</v>
@@ -13471,16 +13741,16 @@
     </row>
     <row r="608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C608" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D608" s="44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E608" s="17">
         <v>1</v>
@@ -13488,16 +13758,16 @@
     </row>
     <row r="609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C609" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D609" s="44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E609" s="17">
         <v>1</v>
@@ -13505,16 +13775,16 @@
     </row>
     <row r="610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C610" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D610" s="44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E610" s="17">
         <v>1</v>
@@ -13522,16 +13792,16 @@
     </row>
     <row r="611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C611" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D611" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E611" s="17">
         <v>1</v>
@@ -13539,16 +13809,16 @@
     </row>
     <row r="612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C612" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D612" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E612" s="17">
         <v>1</v>
@@ -13556,16 +13826,16 @@
     </row>
     <row r="613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D613" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E613" s="17">
         <v>1</v>
@@ -13573,16 +13843,16 @@
     </row>
     <row r="614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C614" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D614" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E614" s="17">
         <v>1</v>
@@ -13590,16 +13860,16 @@
     </row>
     <row r="615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C615" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D615" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E615" s="17">
         <v>1</v>
@@ -13607,16 +13877,16 @@
     </row>
     <row r="616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C616" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D616" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E616" s="17">
         <v>1</v>
@@ -13624,16 +13894,16 @@
     </row>
     <row r="617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C617" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D617" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E617" s="17">
         <v>1</v>
@@ -13641,16 +13911,16 @@
     </row>
     <row r="618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C618" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D618" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E618" s="17">
         <v>1</v>
@@ -13658,16 +13928,16 @@
     </row>
     <row r="619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C619" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D619" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E619" s="17">
         <v>1</v>
@@ -13675,16 +13945,16 @@
     </row>
     <row r="620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C620" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E620" s="17">
         <v>1</v>
@@ -13692,16 +13962,16 @@
     </row>
     <row r="621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D621" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E621" s="17">
         <v>1</v>
@@ -13709,16 +13979,16 @@
     </row>
     <row r="622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C622" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D622" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E622" s="17">
         <v>1</v>
@@ -13726,16 +13996,16 @@
     </row>
     <row r="623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C623" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D623" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E623" s="17">
         <v>1</v>
@@ -13743,16 +14013,16 @@
     </row>
     <row r="624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C624" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E624" s="17">
         <v>1</v>
@@ -13760,16 +14030,16 @@
     </row>
     <row r="625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C625" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D625" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E625" s="17">
         <v>1</v>
@@ -13777,16 +14047,16 @@
     </row>
     <row r="626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C626" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E626" s="17">
         <v>1</v>
@@ -13794,16 +14064,16 @@
     </row>
     <row r="627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C627" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D627" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E627" s="17">
         <v>1</v>
@@ -13811,16 +14081,16 @@
     </row>
     <row r="628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C628" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D628" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E628" s="17">
         <v>1</v>
@@ -13828,16 +14098,16 @@
     </row>
     <row r="629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D629" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E629" s="17">
         <v>1</v>
@@ -13845,16 +14115,16 @@
     </row>
     <row r="630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C630" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D630" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E630" s="17">
         <v>1</v>
@@ -13862,16 +14132,16 @@
     </row>
     <row r="631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C631" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D631" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E631" s="17">
         <v>1</v>
@@ -13879,16 +14149,16 @@
     </row>
     <row r="632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C632" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D632" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E632" s="17">
         <v>1</v>
@@ -13896,16 +14166,16 @@
     </row>
     <row r="633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C633" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D633" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E633" s="17">
         <v>1</v>
@@ -13913,16 +14183,16 @@
     </row>
     <row r="634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C634" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D634" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E634" s="17">
         <v>1</v>
@@ -13930,16 +14200,16 @@
     </row>
     <row r="635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C635" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E635" s="17">
         <v>1</v>
@@ -13947,16 +14217,16 @@
     </row>
     <row r="636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C636" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E636" s="17">
         <v>1</v>
@@ -13964,16 +14234,16 @@
     </row>
     <row r="637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D637" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E637" s="17">
         <v>1</v>
@@ -13981,16 +14251,16 @@
     </row>
     <row r="638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C638" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E638" s="17">
         <v>1</v>
@@ -13998,16 +14268,16 @@
     </row>
     <row r="639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C639" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D639" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E639" s="17">
         <v>1</v>
@@ -14015,16 +14285,16 @@
     </row>
     <row r="640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C640" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E640" s="17">
         <v>1</v>
@@ -14032,16 +14302,16 @@
     </row>
     <row r="641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B641" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C641" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D641" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E641" s="17">
         <v>1</v>
@@ -14049,16 +14319,16 @@
     </row>
     <row r="642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C642" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D642" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E642" s="17">
         <v>1</v>
@@ -14066,10 +14336,10 @@
     </row>
     <row r="643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A643" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B643" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C643" s="11" t="s">
         <v>2</v>
@@ -14083,10 +14353,10 @@
     </row>
     <row r="644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A644" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B644" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C644" s="11" t="s">
         <v>230</v>
@@ -14100,13 +14370,13 @@
     </row>
     <row r="645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A645" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B645" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C645" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D645" s="45" t="s">
         <v>600</v>
@@ -14117,10 +14387,10 @@
     </row>
     <row r="646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A646" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B646" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C646" s="11" t="s">
         <v>262</v>
@@ -14134,10 +14404,10 @@
     </row>
     <row r="647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A647" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B647" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C647" s="11" t="s">
         <v>247</v>
@@ -14151,10 +14421,10 @@
     </row>
     <row r="648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A648" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B648" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C648" s="11" t="s">
         <v>263</v>
@@ -14168,10 +14438,10 @@
     </row>
     <row r="649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B649" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C649" s="11" t="s">
         <v>252</v>
@@ -14185,10 +14455,10 @@
     </row>
     <row r="650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B650" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C650" s="11" t="s">
         <v>231</v>
@@ -14202,16 +14472,16 @@
     </row>
     <row r="651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C651" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D651" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E651" s="17">
         <v>1</v>
@@ -14219,16 +14489,16 @@
     </row>
     <row r="652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C652" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D652" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E652" s="17">
         <v>1</v>
@@ -14236,10 +14506,10 @@
     </row>
     <row r="653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A653" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B653" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C653" s="11" t="s">
         <v>2</v>
@@ -14253,10 +14523,10 @@
     </row>
     <row r="654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A654" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B654" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C654" s="11" t="s">
         <v>230</v>
@@ -14270,13 +14540,13 @@
     </row>
     <row r="655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A655" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B655" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C655" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D655" s="45" t="s">
         <v>600</v>
@@ -14287,10 +14557,10 @@
     </row>
     <row r="656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C656" s="11" t="s">
         <v>262</v>
@@ -14304,10 +14574,10 @@
     </row>
     <row r="657" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A657" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C657" s="11" t="s">
         <v>247</v>
@@ -14321,10 +14591,10 @@
     </row>
     <row r="658" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A658" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C658" s="11" t="s">
         <v>263</v>
@@ -14338,10 +14608,10 @@
     </row>
     <row r="659" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A659" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C659" s="11" t="s">
         <v>252</v>
@@ -14355,10 +14625,10 @@
     </row>
     <row r="660" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A660" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C660" s="11" t="s">
         <v>231</v>
@@ -14372,10 +14642,10 @@
     </row>
     <row r="661" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C661" s="10" t="s">
         <v>2</v>
@@ -14389,10 +14659,10 @@
     </row>
     <row r="662" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C662" s="10" t="s">
         <v>230</v>
@@ -14406,13 +14676,13 @@
     </row>
     <row r="663" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D663" s="44" t="s">
         <v>600</v>
@@ -14423,10 +14693,10 @@
     </row>
     <row r="664" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C664" s="10" t="s">
         <v>262</v>
@@ -14440,10 +14710,10 @@
     </row>
     <row r="665" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C665" s="10" t="s">
         <v>247</v>
@@ -14457,10 +14727,10 @@
     </row>
     <row r="666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C666" s="10" t="s">
         <v>263</v>
@@ -14474,10 +14744,10 @@
     </row>
     <row r="667" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C667" s="10" t="s">
         <v>252</v>
@@ -14491,10 +14761,10 @@
     </row>
     <row r="668" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C668" s="10" t="s">
         <v>231</v>
@@ -14508,10 +14778,10 @@
     </row>
     <row r="669" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C669" s="11" t="s">
         <v>2</v>
@@ -14525,10 +14795,10 @@
     </row>
     <row r="670" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C670" s="11" t="s">
         <v>230</v>
@@ -14542,13 +14812,13 @@
     </row>
     <row r="671" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C671" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D671" s="45" t="s">
         <v>600</v>
@@ -14559,10 +14829,10 @@
     </row>
     <row r="672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A672" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B672" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C672" s="11" t="s">
         <v>262</v>
@@ -14576,10 +14846,10 @@
     </row>
     <row r="673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A673" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B673" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C673" s="11" t="s">
         <v>247</v>
@@ -14593,10 +14863,10 @@
     </row>
     <row r="674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A674" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B674" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C674" s="11" t="s">
         <v>263</v>
@@ -14610,10 +14880,10 @@
     </row>
     <row r="675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A675" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C675" s="11" t="s">
         <v>252</v>
@@ -14627,10 +14897,10 @@
     </row>
     <row r="676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A676" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C676" s="11" t="s">
         <v>231</v>
@@ -14644,10 +14914,10 @@
     </row>
     <row r="677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C677" s="10" t="s">
         <v>2</v>
@@ -14661,10 +14931,10 @@
     </row>
     <row r="678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C678" s="10" t="s">
         <v>230</v>
@@ -14678,13 +14948,13 @@
     </row>
     <row r="679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D679" s="44" t="s">
         <v>600</v>
@@ -14695,10 +14965,10 @@
     </row>
     <row r="680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C680" s="10" t="s">
         <v>262</v>
@@ -14712,10 +14982,10 @@
     </row>
     <row r="681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C681" s="10" t="s">
         <v>247</v>
@@ -14729,10 +14999,10 @@
     </row>
     <row r="682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C682" s="10" t="s">
         <v>263</v>
@@ -14746,10 +15016,10 @@
     </row>
     <row r="683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C683" s="10" t="s">
         <v>252</v>
@@ -14763,10 +15033,10 @@
     </row>
     <row r="684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C684" s="10" t="s">
         <v>231</v>
@@ -14780,10 +15050,10 @@
     </row>
     <row r="685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A685" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B685" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C685" s="11" t="s">
         <v>2</v>
@@ -14797,10 +15067,10 @@
     </row>
     <row r="686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A686" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B686" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C686" s="11" t="s">
         <v>230</v>
@@ -14814,13 +15084,13 @@
     </row>
     <row r="687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A687" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B687" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C687" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D687" s="45" t="s">
         <v>600</v>
@@ -14831,10 +15101,10 @@
     </row>
     <row r="688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A688" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B688" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C688" s="11" t="s">
         <v>262</v>
@@ -14848,10 +15118,10 @@
     </row>
     <row r="689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A689" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B689" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C689" s="11" t="s">
         <v>247</v>
@@ -14865,10 +15135,10 @@
     </row>
     <row r="690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A690" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B690" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C690" s="11" t="s">
         <v>263</v>
@@ -14882,10 +15152,10 @@
     </row>
     <row r="691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B691" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C691" s="11" t="s">
         <v>252</v>
@@ -14899,10 +15169,10 @@
     </row>
     <row r="692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A692" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B692" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C692" s="11" t="s">
         <v>231</v>
@@ -14916,10 +15186,10 @@
     </row>
     <row r="693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B693" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C693" s="10" t="s">
         <v>2</v>
@@ -14933,10 +15203,10 @@
     </row>
     <row r="694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B694" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C694" s="10" t="s">
         <v>230</v>
@@ -14950,13 +15220,13 @@
     </row>
     <row r="695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B695" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D695" s="44" t="s">
         <v>600</v>
@@ -14967,10 +15237,10 @@
     </row>
     <row r="696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B696" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C696" s="10" t="s">
         <v>262</v>
@@ -14984,10 +15254,10 @@
     </row>
     <row r="697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B697" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C697" s="10" t="s">
         <v>247</v>
@@ -15001,10 +15271,10 @@
     </row>
     <row r="698" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B698" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C698" s="10" t="s">
         <v>263</v>
@@ -15018,10 +15288,10 @@
     </row>
     <row r="699" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B699" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C699" s="10" t="s">
         <v>252</v>
@@ -15035,10 +15305,10 @@
     </row>
     <row r="700" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B700" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C700" s="10" t="s">
         <v>231</v>
@@ -15052,10 +15322,10 @@
     </row>
     <row r="701" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B701" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C701" s="11" t="s">
         <v>2</v>
@@ -15069,10 +15339,10 @@
     </row>
     <row r="702" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A702" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B702" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C702" s="11" t="s">
         <v>230</v>
@@ -15086,10 +15356,10 @@
     </row>
     <row r="703" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B703" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C703" s="10" t="s">
         <v>2</v>
@@ -15103,10 +15373,10 @@
     </row>
     <row r="704" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B704" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C704" s="10" t="s">
         <v>230</v>
@@ -15120,13 +15390,13 @@
     </row>
     <row r="705" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B705" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D705" s="44" t="s">
         <v>600</v>
@@ -15137,10 +15407,10 @@
     </row>
     <row r="706" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B706" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C706" s="10" t="s">
         <v>262</v>
@@ -15154,10 +15424,10 @@
     </row>
     <row r="707" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B707" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C707" s="10" t="s">
         <v>247</v>
@@ -15171,10 +15441,10 @@
     </row>
     <row r="708" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B708" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C708" s="10" t="s">
         <v>263</v>
@@ -15188,10 +15458,10 @@
     </row>
     <row r="709" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B709" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C709" s="10" t="s">
         <v>252</v>
@@ -15205,10 +15475,10 @@
     </row>
     <row r="710" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B710" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C710" s="10" t="s">
         <v>231</v>
@@ -15222,10 +15492,10 @@
     </row>
     <row r="711" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A711" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B711" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C711" s="11" t="s">
         <v>2</v>
@@ -15239,10 +15509,10 @@
     </row>
     <row r="712" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A712" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B712" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C712" s="11" t="s">
         <v>230</v>
@@ -15256,13 +15526,13 @@
     </row>
     <row r="713" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A713" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B713" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C713" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D713" s="45" t="s">
         <v>600</v>
@@ -15273,10 +15543,10 @@
     </row>
     <row r="714" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A714" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B714" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C714" s="11" t="s">
         <v>262</v>
@@ -15290,10 +15560,10 @@
     </row>
     <row r="715" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A715" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B715" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C715" s="11" t="s">
         <v>247</v>
@@ -15307,10 +15577,10 @@
     </row>
     <row r="716" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A716" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B716" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C716" s="11" t="s">
         <v>263</v>
@@ -15324,10 +15594,10 @@
     </row>
     <row r="717" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A717" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B717" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C717" s="11" t="s">
         <v>252</v>
@@ -15341,10 +15611,10 @@
     </row>
     <row r="718" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A718" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B718" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C718" s="11" t="s">
         <v>231</v>
@@ -15358,10 +15628,10 @@
     </row>
     <row r="719" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A719" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C719" s="10" t="s">
         <v>2</v>
@@ -15375,10 +15645,10 @@
     </row>
     <row r="720" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A720" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C720" s="10" t="s">
         <v>230</v>
@@ -15392,13 +15662,13 @@
     </row>
     <row r="721" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A721" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D721" s="44" t="s">
         <v>600</v>
@@ -15409,10 +15679,10 @@
     </row>
     <row r="722" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A722" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C722" s="10" t="s">
         <v>262</v>
@@ -15426,10 +15696,10 @@
     </row>
     <row r="723" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A723" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C723" s="10" t="s">
         <v>247</v>
@@ -15443,10 +15713,10 @@
     </row>
     <row r="724" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A724" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C724" s="10" t="s">
         <v>263</v>
@@ -15460,10 +15730,10 @@
     </row>
     <row r="725" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A725" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C725" s="10" t="s">
         <v>252</v>
@@ -15477,10 +15747,10 @@
     </row>
     <row r="726" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A726" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C726" s="10" t="s">
         <v>231</v>
@@ -15494,16 +15764,16 @@
     </row>
     <row r="727" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A727" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B727" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C727" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D727" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E727" s="17">
         <v>1</v>
@@ -15511,16 +15781,16 @@
     </row>
     <row r="728" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A728" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B728" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C728" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D728" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E728" s="17">
         <v>1</v>
@@ -15528,16 +15798,16 @@
     </row>
     <row r="729" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A729" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B729" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C729" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D729" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E729" s="17">
         <v>1</v>
@@ -15545,16 +15815,16 @@
     </row>
     <row r="730" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A730" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B730" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C730" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D730" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E730" s="17">
         <v>1</v>
@@ -15562,16 +15832,16 @@
     </row>
     <row r="731" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B731" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C731" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D731" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E731" s="17">
         <v>1</v>
@@ -15579,16 +15849,16 @@
     </row>
     <row r="732" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A732" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B732" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C732" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D732" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E732" s="17">
         <v>1</v>
@@ -15596,16 +15866,16 @@
     </row>
     <row r="733" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A733" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B733" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C733" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D733" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E733" s="17">
         <v>1</v>
@@ -15613,16 +15883,16 @@
     </row>
     <row r="734" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A734" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B734" s="11" t="s">
         <v>933</v>
-      </c>
-      <c r="B734" s="11" t="s">
-        <v>934</v>
       </c>
       <c r="C734" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D734" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E734" s="17">
         <v>1</v>
@@ -15630,16 +15900,16 @@
     </row>
     <row r="735" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A735" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C735" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D735" s="44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E735" s="17">
         <v>1</v>
@@ -15647,16 +15917,16 @@
     </row>
     <row r="736" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A736" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B736" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C736" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D736" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E736" s="17">
         <v>1</v>
@@ -15664,16 +15934,16 @@
     </row>
     <row r="737" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A737" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B737" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C737" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D737" s="44" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E737" s="17">
         <v>1</v>
@@ -15681,16 +15951,16 @@
     </row>
     <row r="738" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A738" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B738" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C738" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D738" s="44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E738" s="17">
         <v>1</v>
@@ -15698,16 +15968,16 @@
     </row>
     <row r="739" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A739" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B739" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C739" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D739" s="44" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E739" s="17">
         <v>1</v>
@@ -15715,16 +15985,16 @@
     </row>
     <row r="740" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A740" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B740" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C740" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D740" s="44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E740" s="17">
         <v>1</v>
@@ -15732,16 +16002,16 @@
     </row>
     <row r="741" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A741" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B741" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C741" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D741" s="44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E741" s="17">
         <v>1</v>
@@ -15749,16 +16019,16 @@
     </row>
     <row r="742" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A742" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B742" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C742" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D742" s="44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E742" s="17">
         <v>1</v>
@@ -15766,16 +16036,16 @@
     </row>
     <row r="743" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A743" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B743" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C743" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D743" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E743" s="17">
         <v>1</v>
@@ -15783,16 +16053,16 @@
     </row>
     <row r="744" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A744" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B744" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C744" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D744" s="45" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E744" s="17">
         <v>1</v>
@@ -15800,16 +16070,16 @@
     </row>
     <row r="745" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A745" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B745" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="C745" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="C745" s="11" t="s">
-        <v>953</v>
-      </c>
       <c r="D745" s="45" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E745" s="17">
         <v>1</v>
@@ -15817,16 +16087,16 @@
     </row>
     <row r="746" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A746" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B746" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C746" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D746" s="45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E746" s="17">
         <v>1</v>
@@ -15834,16 +16104,16 @@
     </row>
     <row r="747" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B747" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C747" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D747" s="45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E747" s="17">
         <v>1</v>
@@ -15851,16 +16121,16 @@
     </row>
     <row r="748" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A748" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B748" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C748" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D748" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E748" s="17">
         <v>1</v>
@@ -15868,16 +16138,16 @@
     </row>
     <row r="749" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A749" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B749" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C749" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D749" s="45" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E749" s="17">
         <v>1</v>
@@ -15885,18 +16155,1344 @@
     </row>
     <row r="750" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A750" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="B750" s="11" t="s">
         <v>951</v>
-      </c>
-      <c r="B750" s="11" t="s">
-        <v>952</v>
       </c>
       <c r="C750" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D750" s="45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E750" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A751" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="B751" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C751" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D751" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E751" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A752" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="B752" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C752" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D752" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E752" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A753" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="B753" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C753" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D753" s="44" t="s">
+        <v>954</v>
+      </c>
+      <c r="E753" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A754" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="B754" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C754" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D754" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="E754" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A755" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C755" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D755" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="E755" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A756" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="B756" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C756" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D756" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E756" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A757" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="B757" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C757" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D757" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E757" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A758" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="B758" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C758" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D758" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E758" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A759" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="B759" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C759" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D759" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="E759" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A760" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="B760" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C760" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D760" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="E760" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A761" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="B761" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C761" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D761" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E761" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A762" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="B762" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C762" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D762" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E762" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A763" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="B763" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C763" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D763" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="E763" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A764" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="B764" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C764" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D764" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="E764" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A765" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="B765" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C765" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D765" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="E765" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A766" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="B766" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C766" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D766" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E766" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A767" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="B767" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C767" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D767" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E767" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A768" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="B768" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C768" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D768" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E768" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A769" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B769" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C769" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D769" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E769" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A770" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="B770" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C770" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D770" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E770" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A771" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C771" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D771" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E771" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A772" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="B772" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C772" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D772" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E772" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A773" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B773" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C773" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D773" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E773" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A774" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="B774" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C774" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D774" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E774" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A775" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="B775" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C775" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D775" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="E775" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A776" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B776" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C776" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D776" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="E776" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A777" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B777" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C777" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D777" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E777" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A778" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="B778" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C778" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D778" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E778" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A779" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="B779" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C779" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D779" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="E779" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A780" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="B780" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C780" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D780" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="E780" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A781" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="B781" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C781" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D781" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="E781" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A782" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="B782" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C782" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D782" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E782" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A783" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="B783" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C783" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D783" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E783" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A784" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="B784" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C784" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D784" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E784" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A785" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B785" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C785" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D785" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E785" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A786" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="B786" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C786" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D786" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E786" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A787" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="B787" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C787" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D787" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E787" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A788" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="B788" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C788" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D788" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E788" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A789" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B789" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C789" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D789" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E789" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A790" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B790" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C790" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D790" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E790" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A791" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="B791" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C791" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D791" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="E791" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A792" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="B792" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C792" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D792" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="E792" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A793" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B793" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C793" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D793" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E793" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A794" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B794" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C794" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D794" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E794" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A795" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="B795" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C795" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D795" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="E795" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A796" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B796" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C796" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D796" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="E796" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A797" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B797" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C797" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D797" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="E797" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A798" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B798" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C798" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D798" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E798" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A799" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B799" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C799" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D799" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E799" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A800" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B800" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C800" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D800" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E800" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A801" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B801" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C801" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D801" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E801" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A802" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B802" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C802" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D802" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E802" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A803" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B803" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C803" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D803" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E803" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A804" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B804" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C804" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D804" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E804" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A805" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B805" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C805" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D805" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E805" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A806" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B806" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C806" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D806" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E806" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A807" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B807" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C807" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D807" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="E807" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A808" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B808" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D808" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="E808" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A809" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B809" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C809" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D809" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E809" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A810" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B810" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C810" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D810" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E810" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A811" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B811" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C811" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D811" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="E811" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A812" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B812" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C812" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D812" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="E812" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A813" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B813" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C813" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D813" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="E813" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A814" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B814" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C814" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D814" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E814" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A815" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B815" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C815" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D815" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E815" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A816" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B816" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C816" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D816" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E816" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A817" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B817" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C817" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D817" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E817" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A818" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B818" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C818" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D818" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E818" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A819" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B819" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C819" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D819" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E819" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A820" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B820" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C820" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D820" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E820" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A821" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B821" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C821" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D821" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E821" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A822" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B822" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C822" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D822" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="E822" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A823" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B823" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C823" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D823" s="44" t="s">
+        <v>756</v>
+      </c>
+      <c r="E823" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A824" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B824" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C824" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D824" s="44" t="s">
+        <v>757</v>
+      </c>
+      <c r="E824" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A825" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B825" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C825" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D825" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E825" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A826" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B826" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C826" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D826" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="E826" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A827" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B827" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C827" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D827" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="E827" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A828" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B828" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C828" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D828" s="44" t="s">
+        <v>761</v>
+      </c>
+      <c r="E828" s="17">
         <v>1</v>
       </c>
     </row>
@@ -15904,12 +17500,14 @@
   <autoFilter ref="A1:E695" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
+  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="6" manualBreakCount="6">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
     <brk id="576" max="4" man="1"/>
+    <brk id="664" max="4" man="1"/>
+    <brk id="753" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3A184E-00B5-4926-A21A-F37926CFAB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F11E03-C070-4C8F-8955-AE7CCE821F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="1050">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -3163,6 +3163,24 @@
   </si>
   <si>
     <t>Mamoon Elshawadfy Mohamed Elshawadfy</t>
+  </si>
+  <si>
+    <t>DSS1828</t>
+  </si>
+  <si>
+    <t>DSS1829</t>
+  </si>
+  <si>
+    <t>DSS1830</t>
+  </si>
+  <si>
+    <t>DSS1831</t>
+  </si>
+  <si>
+    <t>DSS1832</t>
+  </si>
+  <si>
+    <t>DSS1833</t>
   </si>
 </sst>
 </file>
@@ -3772,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E828"/>
+  <dimension ref="A1:E834"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A813" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C822" sqref="C822"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A820" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C836" sqref="C836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17493,6 +17511,108 @@
         <v>761</v>
       </c>
       <c r="E828" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A829" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B829" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C829" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D829" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E829" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A830" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B830" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C830" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D830" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E830" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A831" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B831" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C831" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D831" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E831" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A832" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B832" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C832" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D832" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E832" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A833" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B833" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C833" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D833" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E833" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A834" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B834" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C834" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D834" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E834" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F11E03-C070-4C8F-8955-AE7CCE821F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB710DF-CA34-4832-85A7-2CC9AB6A6D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1061">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -3181,6 +3181,39 @@
   </si>
   <si>
     <t>DSS1833</t>
+  </si>
+  <si>
+    <t>ABDALLH OMAR ABDALLH MUHAMMAD</t>
+  </si>
+  <si>
+    <t>DSS1834</t>
+  </si>
+  <si>
+    <t>DSS1835</t>
+  </si>
+  <si>
+    <t>DSS1836</t>
+  </si>
+  <si>
+    <t>DSS1837</t>
+  </si>
+  <si>
+    <t>DSS1838</t>
+  </si>
+  <si>
+    <t>DSS1839</t>
+  </si>
+  <si>
+    <t>DSS1840</t>
+  </si>
+  <si>
+    <t>DSS1841</t>
+  </si>
+  <si>
+    <t>DSS1842</t>
+  </si>
+  <si>
+    <t>Mahmoud Elsayed Abdellah Mohamed</t>
   </si>
 </sst>
 </file>
@@ -3790,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E834"/>
+  <dimension ref="A1:E843"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A820" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C836" sqref="C836"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A832" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C849" sqref="C849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17616,18 +17649,172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="835" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A835" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B835" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C835" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D835" s="44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E835" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A836" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B836" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C836" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D836" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="E836" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A837" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B837" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C837" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D837" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E837" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A838" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B838" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C838" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D838" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E838" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A839" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B839" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C839" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D839" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E839" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A840" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B840" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C840" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D840" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E840" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A841" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B841" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C841" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D841" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E841" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A842" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B842" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C842" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D842" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E842" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A843" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B843" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C843" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D843" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E843" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="6" manualBreakCount="6">
+  <rowBreaks count="7" manualBreakCount="7">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
     <brk id="576" max="4" man="1"/>
     <brk id="664" max="4" man="1"/>
     <brk id="753" max="4" man="1"/>
+    <brk id="843" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB710DF-CA34-4832-85A7-2CC9AB6A6D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB59C777-59C9-4005-B889-6B6A24C0553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3826,7 +3826,7 @@
   <dimension ref="A1:E843"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A832" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C849" sqref="C849"/>
+      <selection activeCell="G844" sqref="G844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB59C777-59C9-4005-B889-6B6A24C0553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429A817F-3709-4A73-AB0E-D00E5DC9C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="1072">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -3214,6 +3214,39 @@
   </si>
   <si>
     <t>Mahmoud Elsayed Abdellah Mohamed</t>
+  </si>
+  <si>
+    <t>DSS1843</t>
+  </si>
+  <si>
+    <t>20-12-2024</t>
+  </si>
+  <si>
+    <t>DSS1844</t>
+  </si>
+  <si>
+    <t>DSS1845</t>
+  </si>
+  <si>
+    <t>DSS1846</t>
+  </si>
+  <si>
+    <t>DSS1847</t>
+  </si>
+  <si>
+    <t>DSS1848</t>
+  </si>
+  <si>
+    <t>DSS1849</t>
+  </si>
+  <si>
+    <t>DSS1850</t>
+  </si>
+  <si>
+    <t>DSS1851</t>
+  </si>
+  <si>
+    <t>Mohamed Ali Rajab Ali</t>
   </si>
 </sst>
 </file>
@@ -3823,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E843"/>
+  <dimension ref="A1:E852"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A832" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G844" sqref="G844"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A835" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C853" sqref="C853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17799,6 +17832,159 @@
         <v>761</v>
       </c>
       <c r="E843" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A844" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B844" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C844" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D844" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E844" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A845" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B845" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C845" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D845" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="E845" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A846" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B846" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C846" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D846" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="E846" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A847" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B847" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C847" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D847" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="E847" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A848" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B848" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C848" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D848" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E848" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A849" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B849" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C849" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D849" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E849" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A850" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B850" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C850" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D850" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E850" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A851" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B851" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C851" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D851" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="E851" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A852" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B852" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C852" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D852" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="E852" s="17">
         <v>1</v>
       </c>
     </row>
